--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,9 @@
       <c r="HK1" t="n">
         <v>10311</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10329</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1677,9 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2341,9 @@
       <c r="HK3" t="n">
         <v>18</v>
       </c>
+      <c r="HL3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3005,9 @@
       <c r="HK4" t="n">
         <v>1</v>
       </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3669,9 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4333,9 @@
       <c r="HK6" t="n">
         <v>68</v>
       </c>
+      <c r="HL6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +4997,9 @@
       <c r="HK7" t="n">
         <v>49</v>
       </c>
+      <c r="HL7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5661,9 @@
       <c r="HK8" t="n">
         <v>19</v>
       </c>
+      <c r="HL8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6325,9 @@
       <c r="HK9" t="n">
         <v>1</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +6989,9 @@
       <c r="HK10" t="n">
         <v>5</v>
       </c>
+      <c r="HL10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7653,9 @@
       <c r="HK11" t="n">
         <v>200</v>
       </c>
+      <c r="HL11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8317,9 @@
       <c r="HK12" t="n">
         <v>110</v>
       </c>
+      <c r="HL12" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +8981,9 @@
       <c r="HK13" t="n">
         <v>310</v>
       </c>
+      <c r="HL13" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9645,9 @@
       <c r="HK14" t="n">
         <v>1.82</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10309,9 @@
       <c r="HK15" t="n">
         <v>117</v>
       </c>
+      <c r="HL15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +10973,9 @@
       <c r="HK16" t="n">
         <v>26</v>
       </c>
+      <c r="HL16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11637,9 @@
       <c r="HK17" t="n">
         <v>28</v>
       </c>
+      <c r="HL17" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12301,9 @@
       <c r="HK18" t="n">
         <v>15</v>
       </c>
+      <c r="HL18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +12965,9 @@
       <c r="HK19" t="n">
         <v>12</v>
       </c>
+      <c r="HL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13629,9 @@
       <c r="HK20" t="n">
         <v>10</v>
       </c>
+      <c r="HL20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14293,9 @@
       <c r="HK21" t="n">
         <v>9</v>
       </c>
+      <c r="HL21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +14957,9 @@
       <c r="HK22" t="n">
         <v>7</v>
       </c>
+      <c r="HL22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15621,9 @@
       <c r="HK23" t="n">
         <v>1</v>
       </c>
+      <c r="HL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16285,9 @@
       <c r="HK24" t="n">
         <v>18</v>
       </c>
+      <c r="HL24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +16949,9 @@
       <c r="HK25" t="n">
         <v>55.6</v>
       </c>
+      <c r="HL25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17613,9 @@
       <c r="HK26" t="n">
         <v>31</v>
       </c>
+      <c r="HL26" t="n">
+        <v>33.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18277,9 @@
       <c r="HK27" t="n">
         <v>17.22</v>
       </c>
+      <c r="HL27" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +18941,9 @@
       <c r="HK28" t="n">
         <v>22</v>
       </c>
+      <c r="HL28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19605,9 @@
       <c r="HK29" t="n">
         <v>32</v>
       </c>
+      <c r="HL29" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20269,9 @@
       <c r="HK30" t="n">
         <v>35</v>
       </c>
+      <c r="HL30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +20933,9 @@
       <c r="HK31" t="n">
         <v>39</v>
       </c>
+      <c r="HL31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21597,9 @@
       <c r="HK32" t="n">
         <v>2.17</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22261,9 @@
       <c r="HK33" t="n">
         <v>3.9</v>
       </c>
+      <c r="HL33" t="n">
+        <v>5.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +22925,9 @@
       <c r="HK34" t="n">
         <v>43.6</v>
       </c>
+      <c r="HL34" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23589,9 @@
       <c r="HK35" t="n">
         <v>25.6</v>
       </c>
+      <c r="HL35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24253,9 @@
       <c r="HK36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HL36" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +24917,9 @@
       <c r="HK37" t="n">
         <v>87</v>
       </c>
+      <c r="HL37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25581,9 @@
       <c r="HK38" t="n">
         <v>25.24</v>
       </c>
+      <c r="HL38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26245,9 @@
       <c r="HK39" t="n">
         <v>84.7</v>
       </c>
+      <c r="HL39" t="n">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +26909,9 @@
       <c r="HK40" t="n">
         <v>7</v>
       </c>
+      <c r="HL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27573,9 @@
       <c r="HK41" t="n">
         <v>7</v>
       </c>
+      <c r="HL41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28237,9 @@
       <c r="HK42" t="n">
         <v>5</v>
       </c>
+      <c r="HL42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +28901,9 @@
       <c r="HK43" t="n">
         <v>3</v>
       </c>
+      <c r="HL43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29565,9 @@
       <c r="HK44" t="n">
         <v>99</v>
       </c>
+      <c r="HL44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30229,9 @@
       <c r="HK45" t="n">
         <v>209</v>
       </c>
+      <c r="HL45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +30893,9 @@
       <c r="HK46" t="n">
         <v>241</v>
       </c>
+      <c r="HL46" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31557,9 @@
       <c r="HK47" t="n">
         <v>77.7</v>
       </c>
+      <c r="HL47" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32221,9 @@
       <c r="HK48" t="n">
         <v>32</v>
       </c>
+      <c r="HL48" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +32885,9 @@
       <c r="HK49" t="n">
         <v>8</v>
       </c>
+      <c r="HL49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33549,9 @@
       <c r="HK50" t="n">
         <v>13</v>
       </c>
+      <c r="HL50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34213,9 @@
       <c r="HK51" t="n">
         <v>22</v>
       </c>
+      <c r="HL51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +34877,9 @@
       <c r="HK52" t="n">
         <v>35</v>
       </c>
+      <c r="HL52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35541,9 @@
       <c r="HK53" t="n">
         <v>46</v>
       </c>
+      <c r="HL53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36205,9 @@
       <c r="HK54" t="n">
         <v>3</v>
       </c>
+      <c r="HL54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +36869,9 @@
       <c r="HK55" t="n">
         <v>9</v>
       </c>
+      <c r="HL55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37533,9 @@
       <c r="HK56" t="n">
         <v>90</v>
       </c>
+      <c r="HL56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38197,9 @@
       <c r="HK57" t="n">
         <v>171</v>
       </c>
+      <c r="HL57" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +38861,9 @@
       <c r="HK58" t="n">
         <v>150</v>
       </c>
+      <c r="HL58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39525,9 @@
       <c r="HK59" t="n">
         <v>321</v>
       </c>
+      <c r="HL59" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40189,9 @@
       <c r="HK60" t="n">
         <v>1.14</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +40853,9 @@
       <c r="HK61" t="n">
         <v>79</v>
       </c>
+      <c r="HL61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41517,9 @@
       <c r="HK62" t="n">
         <v>43</v>
       </c>
+      <c r="HL62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42181,9 @@
       <c r="HK63" t="n">
         <v>18</v>
       </c>
+      <c r="HL63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +42845,9 @@
       <c r="HK64" t="n">
         <v>12</v>
       </c>
+      <c r="HL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43509,9 @@
       <c r="HK65" t="n">
         <v>15</v>
       </c>
+      <c r="HL65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44173,9 @@
       <c r="HK66" t="n">
         <v>7</v>
       </c>
+      <c r="HL66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +44837,9 @@
       <c r="HK67" t="n">
         <v>5</v>
       </c>
+      <c r="HL67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45501,9 @@
       <c r="HK68" t="n">
         <v>6</v>
       </c>
+      <c r="HL68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46165,9 @@
       <c r="HK69" t="n">
         <v>1</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +46829,9 @@
       <c r="HK70" t="n">
         <v>14</v>
       </c>
+      <c r="HL70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47493,9 @@
       <c r="HK71" t="n">
         <v>50</v>
       </c>
+      <c r="HL71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48157,9 @@
       <c r="HK72" t="n">
         <v>45.86</v>
       </c>
+      <c r="HL72" t="n">
+        <v>42.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +48821,9 @@
       <c r="HK73" t="n">
         <v>22.93</v>
       </c>
+      <c r="HL73" t="n">
+        <v>19.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49485,9 @@
       <c r="HK74" t="n">
         <v>22</v>
       </c>
+      <c r="HL74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50149,9 @@
       <c r="HK75" t="n">
         <v>38</v>
       </c>
+      <c r="HL75" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +50813,9 @@
       <c r="HK76" t="n">
         <v>29</v>
       </c>
+      <c r="HL76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51477,9 @@
       <c r="HK77" t="n">
         <v>44</v>
       </c>
+      <c r="HL77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52141,9 @@
       <c r="HK78" t="n">
         <v>3.14</v>
       </c>
+      <c r="HL78" t="n">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +52805,9 @@
       <c r="HK79" t="n">
         <v>6.29</v>
       </c>
+      <c r="HL79" t="n">
+        <v>7.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53469,9 @@
       <c r="HK80" t="n">
         <v>29.5</v>
       </c>
+      <c r="HL80" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54133,9 @@
       <c r="HK81" t="n">
         <v>15.9</v>
       </c>
+      <c r="HL81" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +54797,9 @@
       <c r="HK82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HL82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55461,9 @@
       <c r="HK83" t="n">
         <v>86.3</v>
       </c>
+      <c r="HL83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56125,9 @@
       <c r="HK84" t="n">
         <v>24.74</v>
       </c>
+      <c r="HL84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +56789,9 @@
       <c r="HK85" t="n">
         <v>79.3</v>
       </c>
+      <c r="HL85" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57453,9 @@
       <c r="HK86" t="n">
         <v>9</v>
       </c>
+      <c r="HL86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58117,9 @@
       <c r="HK87" t="n">
         <v>5</v>
       </c>
+      <c r="HL87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +58781,9 @@
       <c r="HK88" t="n">
         <v>5</v>
       </c>
+      <c r="HL88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59445,9 @@
       <c r="HK89" t="n">
         <v>3</v>
       </c>
+      <c r="HL89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60109,9 @@
       <c r="HK90" t="n">
         <v>100</v>
       </c>
+      <c r="HL90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +60773,9 @@
       <c r="HK91" t="n">
         <v>220</v>
       </c>
+      <c r="HL91" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61437,9 @@
       <c r="HK92" t="n">
         <v>264</v>
       </c>
+      <c r="HL92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62101,9 @@
       <c r="HK93" t="n">
         <v>82.2</v>
       </c>
+      <c r="HL93" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +62765,9 @@
       <c r="HK94" t="n">
         <v>38</v>
       </c>
+      <c r="HL94" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63429,9 @@
       <c r="HK95" t="n">
         <v>11</v>
       </c>
+      <c r="HL95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64093,9 @@
       <c r="HK96" t="n">
         <v>8</v>
       </c>
+      <c r="HL96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +64757,9 @@
       <c r="HK97" t="n">
         <v>22</v>
       </c>
+      <c r="HL97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +65421,9 @@
       <c r="HK98" t="n">
         <v>29</v>
       </c>
+      <c r="HL98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66085,9 @@
       <c r="HK99" t="n">
         <v>31</v>
       </c>
+      <c r="HL99" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +66749,9 @@
       <c r="HK100" t="n">
         <v>9</v>
       </c>
+      <c r="HL100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +67413,9 @@
       <c r="HK101" t="n">
         <v>5</v>
       </c>
+      <c r="HL101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,6 +68077,9 @@
       <c r="HK102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HL102" t="n">
+        <v>87.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,9 @@
       <c r="HL1" t="n">
         <v>10329</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10340</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1683,9 @@
       <c r="HL2" t="n">
         <v>2021</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2350,9 @@
       <c r="HL3" t="n">
         <v>1</v>
       </c>
+      <c r="HM3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3017,9 @@
       <c r="HL4" t="n">
         <v>0</v>
       </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3684,9 @@
       <c r="HL5" t="n">
         <v>0</v>
       </c>
+      <c r="HM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4351,9 @@
       <c r="HL6" t="n">
         <v>80</v>
       </c>
+      <c r="HM6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5018,9 @@
       <c r="HL7" t="n">
         <v>58</v>
       </c>
+      <c r="HM7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5685,9 @@
       <c r="HL8" t="n">
         <v>22</v>
       </c>
+      <c r="HM8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6352,9 @@
       <c r="HL9" t="n">
         <v>1</v>
       </c>
+      <c r="HM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7019,9 @@
       <c r="HL10" t="n">
         <v>6</v>
       </c>
+      <c r="HM10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7686,9 @@
       <c r="HL11" t="n">
         <v>218</v>
       </c>
+      <c r="HM11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8353,9 @@
       <c r="HL12" t="n">
         <v>147</v>
       </c>
+      <c r="HM12" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9020,9 @@
       <c r="HL13" t="n">
         <v>365</v>
       </c>
+      <c r="HM13" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9687,9 @@
       <c r="HL14" t="n">
         <v>1.48</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10354,9 @@
       <c r="HL15" t="n">
         <v>104</v>
       </c>
+      <c r="HM15" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11021,9 @@
       <c r="HL16" t="n">
         <v>55</v>
       </c>
+      <c r="HM16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11688,9 @@
       <c r="HL17" t="n">
         <v>40</v>
       </c>
+      <c r="HM17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12355,9 @@
       <c r="HL18" t="n">
         <v>20</v>
       </c>
+      <c r="HM18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13022,9 @@
       <c r="HL19" t="n">
         <v>19</v>
       </c>
+      <c r="HM19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13689,9 @@
       <c r="HL20" t="n">
         <v>11</v>
       </c>
+      <c r="HM20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14356,9 @@
       <c r="HL21" t="n">
         <v>8</v>
       </c>
+      <c r="HM21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15023,9 @@
       <c r="HL22" t="n">
         <v>12</v>
       </c>
+      <c r="HM22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15690,9 @@
       <c r="HL23" t="n">
         <v>2</v>
       </c>
+      <c r="HM23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16357,9 @@
       <c r="HL24" t="n">
         <v>25</v>
       </c>
+      <c r="HM24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17024,9 @@
       <c r="HL25" t="n">
         <v>44</v>
       </c>
+      <c r="HM25" t="n">
+        <v>38.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17691,9 @@
       <c r="HL26" t="n">
         <v>33.18</v>
       </c>
+      <c r="HM26" t="n">
+        <v>32.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18358,9 @@
       <c r="HL27" t="n">
         <v>14.6</v>
       </c>
+      <c r="HM27" t="n">
+        <v>12.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19025,9 @@
       <c r="HL28" t="n">
         <v>27</v>
       </c>
+      <c r="HM28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19692,9 @@
       <c r="HL29" t="n">
         <v>74</v>
       </c>
+      <c r="HM29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20359,9 @@
       <c r="HL30" t="n">
         <v>49</v>
       </c>
+      <c r="HM30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21026,9 @@
       <c r="HL31" t="n">
         <v>61</v>
       </c>
+      <c r="HM31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21693,9 @@
       <c r="HL32" t="n">
         <v>2.44</v>
       </c>
+      <c r="HM32" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22360,9 @@
       <c r="HL33" t="n">
         <v>5.55</v>
       </c>
+      <c r="HM33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23027,9 @@
       <c r="HL34" t="n">
         <v>37.7</v>
       </c>
+      <c r="HM34" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23694,9 @@
       <c r="HL35" t="n">
         <v>18</v>
       </c>
+      <c r="HM35" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24361,9 @@
       <c r="HL36" t="n">
         <v>186.8</v>
       </c>
+      <c r="HM36" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25028,9 @@
       <c r="HL37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HM37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25695,9 @@
       <c r="HL38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HM38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26362,9 @@
       <c r="HL39" t="n">
         <v>92.8</v>
       </c>
+      <c r="HM39" t="n">
+        <v>95.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27029,9 @@
       <c r="HL40" t="n">
         <v>6</v>
       </c>
+      <c r="HM40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27696,9 @@
       <c r="HL41" t="n">
         <v>6</v>
       </c>
+      <c r="HM41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28363,9 @@
       <c r="HL42" t="n">
         <v>6</v>
       </c>
+      <c r="HM42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29030,9 @@
       <c r="HL43" t="n">
         <v>4</v>
       </c>
+      <c r="HM43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29697,9 @@
       <c r="HL44" t="n">
         <v>132</v>
       </c>
+      <c r="HM44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30364,9 @@
       <c r="HL45" t="n">
         <v>220</v>
       </c>
+      <c r="HM45" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31031,9 @@
       <c r="HL46" t="n">
         <v>259</v>
       </c>
+      <c r="HM46" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31698,9 @@
       <c r="HL47" t="n">
         <v>71</v>
       </c>
+      <c r="HM47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32365,9 @@
       <c r="HL48" t="n">
         <v>74</v>
       </c>
+      <c r="HM48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33032,9 @@
       <c r="HL49" t="n">
         <v>16</v>
       </c>
+      <c r="HM49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33699,9 @@
       <c r="HL50" t="n">
         <v>19</v>
       </c>
+      <c r="HM50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34366,9 @@
       <c r="HL51" t="n">
         <v>27</v>
       </c>
+      <c r="HM51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35033,9 @@
       <c r="HL52" t="n">
         <v>49</v>
       </c>
+      <c r="HM52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +35700,9 @@
       <c r="HL53" t="n">
         <v>49</v>
       </c>
+      <c r="HM53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36367,9 @@
       <c r="HL54" t="n">
         <v>7</v>
       </c>
+      <c r="HM54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37034,9 @@
       <c r="HL55" t="n">
         <v>8</v>
       </c>
+      <c r="HM55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +37701,9 @@
       <c r="HL56" t="n">
         <v>72.7</v>
       </c>
+      <c r="HM56" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38368,9 @@
       <c r="HL57" t="n">
         <v>188</v>
       </c>
+      <c r="HM57" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39035,9 @@
       <c r="HL58" t="n">
         <v>155</v>
       </c>
+      <c r="HM58" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +39702,9 @@
       <c r="HL59" t="n">
         <v>343</v>
       </c>
+      <c r="HM59" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40369,9 @@
       <c r="HL60" t="n">
         <v>1.21</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41036,9 @@
       <c r="HL61" t="n">
         <v>69</v>
       </c>
+      <c r="HM61" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +41703,9 @@
       <c r="HL62" t="n">
         <v>49</v>
       </c>
+      <c r="HM62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42370,9 @@
       <c r="HL63" t="n">
         <v>17</v>
       </c>
+      <c r="HM63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43037,9 @@
       <c r="HL64" t="n">
         <v>19</v>
       </c>
+      <c r="HM64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +43704,9 @@
       <c r="HL65" t="n">
         <v>20</v>
       </c>
+      <c r="HM65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44371,9 @@
       <c r="HL66" t="n">
         <v>8</v>
       </c>
+      <c r="HM66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45038,9 @@
       <c r="HL67" t="n">
         <v>7</v>
       </c>
+      <c r="HM67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +45705,9 @@
       <c r="HL68" t="n">
         <v>9</v>
       </c>
+      <c r="HM68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46372,9 @@
       <c r="HL69" t="n">
         <v>1</v>
       </c>
+      <c r="HM69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47039,9 @@
       <c r="HL70" t="n">
         <v>18</v>
       </c>
+      <c r="HM70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +47706,9 @@
       <c r="HL71" t="n">
         <v>44.4</v>
       </c>
+      <c r="HM71" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48373,9 @@
       <c r="HL72" t="n">
         <v>42.88</v>
       </c>
+      <c r="HM72" t="n">
+        <v>33.09</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49040,9 @@
       <c r="HL73" t="n">
         <v>19.06</v>
       </c>
+      <c r="HM73" t="n">
+        <v>20.22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +49707,9 @@
       <c r="HL74" t="n">
         <v>35</v>
       </c>
+      <c r="HM74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50374,9 @@
       <c r="HL75" t="n">
         <v>72</v>
       </c>
+      <c r="HM75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51041,9 @@
       <c r="HL76" t="n">
         <v>49</v>
       </c>
+      <c r="HM76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +51708,9 @@
       <c r="HL77" t="n">
         <v>57</v>
       </c>
+      <c r="HM77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52375,9 @@
       <c r="HL78" t="n">
         <v>3.17</v>
       </c>
+      <c r="HM78" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53042,9 @@
       <c r="HL79" t="n">
         <v>7.12</v>
       </c>
+      <c r="HM79" t="n">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +53709,9 @@
       <c r="HL80" t="n">
         <v>29.8</v>
       </c>
+      <c r="HM80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54376,9 @@
       <c r="HL81" t="n">
         <v>14</v>
       </c>
+      <c r="HM81" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55043,9 @@
       <c r="HL82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HM82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +55710,9 @@
       <c r="HL83" t="n">
         <v>87.2</v>
       </c>
+      <c r="HM83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56377,9 @@
       <c r="HL84" t="n">
         <v>24.91</v>
       </c>
+      <c r="HM84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57044,9 @@
       <c r="HL85" t="n">
         <v>70.90000000000001</v>
       </c>
+      <c r="HM85" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +57711,9 @@
       <c r="HL86" t="n">
         <v>9</v>
       </c>
+      <c r="HM86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58378,9 @@
       <c r="HL87" t="n">
         <v>10</v>
       </c>
+      <c r="HM87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59045,9 @@
       <c r="HL88" t="n">
         <v>2</v>
       </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +59712,9 @@
       <c r="HL89" t="n">
         <v>2</v>
       </c>
+      <c r="HM89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60379,9 @@
       <c r="HL90" t="n">
         <v>143</v>
       </c>
+      <c r="HM90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61046,9 @@
       <c r="HL91" t="n">
         <v>203</v>
       </c>
+      <c r="HM91" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +61713,9 @@
       <c r="HL92" t="n">
         <v>240</v>
       </c>
+      <c r="HM92" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62380,9 @@
       <c r="HL93" t="n">
         <v>70</v>
       </c>
+      <c r="HM93" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63047,9 @@
       <c r="HL94" t="n">
         <v>72</v>
       </c>
+      <c r="HM94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +63714,9 @@
       <c r="HL95" t="n">
         <v>9</v>
       </c>
+      <c r="HM95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64381,9 @@
       <c r="HL96" t="n">
         <v>7</v>
       </c>
+      <c r="HM96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65048,9 @@
       <c r="HL97" t="n">
         <v>35</v>
       </c>
+      <c r="HM97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +65715,9 @@
       <c r="HL98" t="n">
         <v>49</v>
       </c>
+      <c r="HM98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66382,9 @@
       <c r="HL99" t="n">
         <v>45</v>
       </c>
+      <c r="HM99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67049,9 @@
       <c r="HL100" t="n">
         <v>2</v>
       </c>
+      <c r="HM100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +67716,9 @@
       <c r="HL101" t="n">
         <v>7</v>
       </c>
+      <c r="HM101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,6 +68383,9 @@
       <c r="HL102" t="n">
         <v>87.5</v>
       </c>
+      <c r="HM102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,9 @@
       <c r="HN1" t="n">
         <v>10352</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10361</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1692,6 +1695,9 @@
       <c r="HN2" t="n">
         <v>2021</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2362,6 +2368,9 @@
       <c r="HN3" t="n">
         <v>3</v>
       </c>
+      <c r="HO3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3032,6 +3041,9 @@
       <c r="HN4" t="n">
         <v>1</v>
       </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3702,6 +3714,9 @@
       <c r="HN5" t="n">
         <v>1</v>
       </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4372,6 +4387,9 @@
       <c r="HN6" t="n">
         <v>102</v>
       </c>
+      <c r="HO6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5042,6 +5060,9 @@
       <c r="HN7" t="n">
         <v>68</v>
       </c>
+      <c r="HO7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5712,6 +5733,9 @@
       <c r="HN8" t="n">
         <v>34</v>
       </c>
+      <c r="HO8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6382,6 +6406,9 @@
       <c r="HN9" t="n">
         <v>1</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7052,6 +7079,9 @@
       <c r="HN10" t="n">
         <v>9</v>
       </c>
+      <c r="HO10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7722,6 +7752,9 @@
       <c r="HN11" t="n">
         <v>241</v>
       </c>
+      <c r="HO11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8392,6 +8425,9 @@
       <c r="HN12" t="n">
         <v>136</v>
       </c>
+      <c r="HO12" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9062,6 +9098,9 @@
       <c r="HN13" t="n">
         <v>377</v>
       </c>
+      <c r="HO13" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9732,6 +9771,9 @@
       <c r="HN14" t="n">
         <v>1.77</v>
       </c>
+      <c r="HO14" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10402,6 +10444,9 @@
       <c r="HN15" t="n">
         <v>97</v>
       </c>
+      <c r="HO15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11072,6 +11117,9 @@
       <c r="HN16" t="n">
         <v>62</v>
       </c>
+      <c r="HO16" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11742,6 +11790,9 @@
       <c r="HN17" t="n">
         <v>41</v>
       </c>
+      <c r="HO17" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12412,6 +12463,9 @@
       <c r="HN18" t="n">
         <v>21</v>
       </c>
+      <c r="HO18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13082,6 +13136,9 @@
       <c r="HN19" t="n">
         <v>20</v>
       </c>
+      <c r="HO19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13752,6 +13809,9 @@
       <c r="HN20" t="n">
         <v>15</v>
       </c>
+      <c r="HO20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14422,6 +14482,9 @@
       <c r="HN21" t="n">
         <v>8</v>
       </c>
+      <c r="HO21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15092,6 +15155,9 @@
       <c r="HN22" t="n">
         <v>11</v>
       </c>
+      <c r="HO22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15762,6 +15828,9 @@
       <c r="HN23" t="n">
         <v>1</v>
       </c>
+      <c r="HO23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16432,6 +16501,9 @@
       <c r="HN24" t="n">
         <v>27</v>
       </c>
+      <c r="HO24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17102,6 +17174,9 @@
       <c r="HN25" t="n">
         <v>55.6</v>
       </c>
+      <c r="HO25" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17772,6 +17847,9 @@
       <c r="HN26" t="n">
         <v>25.13</v>
       </c>
+      <c r="HO26" t="n">
+        <v>30.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18442,6 +18520,9 @@
       <c r="HN27" t="n">
         <v>13.96</v>
       </c>
+      <c r="HO27" t="n">
+        <v>14.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19112,6 +19193,9 @@
       <c r="HN28" t="n">
         <v>44</v>
       </c>
+      <c r="HO28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19782,6 +19866,9 @@
       <c r="HN29" t="n">
         <v>62</v>
       </c>
+      <c r="HO29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20452,6 +20539,9 @@
       <c r="HN30" t="n">
         <v>38</v>
       </c>
+      <c r="HO30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21122,6 +21212,9 @@
       <c r="HN31" t="n">
         <v>67</v>
       </c>
+      <c r="HO31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21792,6 +21885,9 @@
       <c r="HN32" t="n">
         <v>2.48</v>
       </c>
+      <c r="HO32" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22462,6 +22558,9 @@
       <c r="HN33" t="n">
         <v>4.47</v>
       </c>
+      <c r="HO33" t="n">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23132,6 +23231,9 @@
       <c r="HN34" t="n">
         <v>38.8</v>
       </c>
+      <c r="HO34" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23802,6 +23904,9 @@
       <c r="HN35" t="n">
         <v>22.4</v>
       </c>
+      <c r="HO35" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24472,6 +24577,9 @@
       <c r="HN36" t="n">
         <v>186.5</v>
       </c>
+      <c r="HO36" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25142,6 +25250,9 @@
       <c r="HN37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="HO37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25812,6 +25923,9 @@
       <c r="HN38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HO38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26482,6 +26596,9 @@
       <c r="HN39" t="n">
         <v>96.2</v>
       </c>
+      <c r="HO39" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27152,6 +27269,9 @@
       <c r="HN40" t="n">
         <v>6</v>
       </c>
+      <c r="HO40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27822,6 +27942,9 @@
       <c r="HN41" t="n">
         <v>6</v>
       </c>
+      <c r="HO41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28492,6 +28615,9 @@
       <c r="HN42" t="n">
         <v>5</v>
       </c>
+      <c r="HO42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29162,6 +29288,9 @@
       <c r="HN43" t="n">
         <v>5</v>
       </c>
+      <c r="HO43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29832,6 +29961,9 @@
       <c r="HN44" t="n">
         <v>153</v>
       </c>
+      <c r="HO44" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30502,6 +30634,9 @@
       <c r="HN45" t="n">
         <v>226</v>
       </c>
+      <c r="HO45" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31172,6 +31307,9 @@
       <c r="HN46" t="n">
         <v>275</v>
       </c>
+      <c r="HO46" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31842,6 +31980,9 @@
       <c r="HN47" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="HO47" t="n">
+        <v>63.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32512,6 +32653,9 @@
       <c r="HN48" t="n">
         <v>62</v>
       </c>
+      <c r="HO48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33182,6 +33326,9 @@
       <c r="HN49" t="n">
         <v>12</v>
       </c>
+      <c r="HO49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33852,6 +33999,9 @@
       <c r="HN50" t="n">
         <v>12</v>
       </c>
+      <c r="HO50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34522,6 +34672,9 @@
       <c r="HN51" t="n">
         <v>44</v>
       </c>
+      <c r="HO51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35192,6 +35345,9 @@
       <c r="HN52" t="n">
         <v>38</v>
       </c>
+      <c r="HO52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35862,6 +36018,9 @@
       <c r="HN53" t="n">
         <v>45</v>
       </c>
+      <c r="HO53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36532,6 +36691,9 @@
       <c r="HN54" t="n">
         <v>6</v>
       </c>
+      <c r="HO54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37202,6 +37364,9 @@
       <c r="HN55" t="n">
         <v>8</v>
       </c>
+      <c r="HO55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37872,6 +38037,9 @@
       <c r="HN56" t="n">
         <v>53.3</v>
       </c>
+      <c r="HO56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38542,6 +38710,9 @@
       <c r="HN57" t="n">
         <v>208</v>
       </c>
+      <c r="HO57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39212,6 +39383,9 @@
       <c r="HN58" t="n">
         <v>151</v>
       </c>
+      <c r="HO58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39882,6 +40056,9 @@
       <c r="HN59" t="n">
         <v>359</v>
       </c>
+      <c r="HO59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40552,6 +40729,9 @@
       <c r="HN60" t="n">
         <v>1.38</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41222,6 +41402,9 @@
       <c r="HN61" t="n">
         <v>80</v>
       </c>
+      <c r="HO61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41892,6 +42075,9 @@
       <c r="HN62" t="n">
         <v>53</v>
       </c>
+      <c r="HO62" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42562,6 +42748,9 @@
       <c r="HN63" t="n">
         <v>32</v>
       </c>
+      <c r="HO63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43232,6 +43421,9 @@
       <c r="HN64" t="n">
         <v>20</v>
       </c>
+      <c r="HO64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43902,6 +44094,9 @@
       <c r="HN65" t="n">
         <v>21</v>
       </c>
+      <c r="HO65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44572,6 +44767,9 @@
       <c r="HN66" t="n">
         <v>11</v>
       </c>
+      <c r="HO66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45242,6 +45440,9 @@
       <c r="HN67" t="n">
         <v>8</v>
       </c>
+      <c r="HO67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45912,6 +46113,9 @@
       <c r="HN68" t="n">
         <v>2</v>
       </c>
+      <c r="HO68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46582,6 +46786,9 @@
       <c r="HN69" t="n">
         <v>0</v>
       </c>
+      <c r="HO69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47252,6 +47459,9 @@
       <c r="HN70" t="n">
         <v>13</v>
       </c>
+      <c r="HO70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47922,6 +48132,9 @@
       <c r="HN71" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HO71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48592,6 +48805,9 @@
       <c r="HN72" t="n">
         <v>32.64</v>
       </c>
+      <c r="HO72" t="n">
+        <v>40.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49262,6 +49478,9 @@
       <c r="HN73" t="n">
         <v>27.62</v>
       </c>
+      <c r="HO73" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49932,6 +50151,9 @@
       <c r="HN74" t="n">
         <v>38</v>
       </c>
+      <c r="HO74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50602,6 +50824,9 @@
       <c r="HN75" t="n">
         <v>71</v>
       </c>
+      <c r="HO75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51272,6 +51497,9 @@
       <c r="HN76" t="n">
         <v>49</v>
       </c>
+      <c r="HO76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51942,6 +52170,9 @@
       <c r="HN77" t="n">
         <v>49</v>
       </c>
+      <c r="HO77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52612,6 +52843,9 @@
       <c r="HN78" t="n">
         <v>3.77</v>
       </c>
+      <c r="HO78" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53282,6 +53516,9 @@
       <c r="HN79" t="n">
         <v>4.45</v>
       </c>
+      <c r="HO79" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53952,6 +54189,9 @@
       <c r="HN80" t="n">
         <v>26.5</v>
       </c>
+      <c r="HO80" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54622,6 +54862,9 @@
       <c r="HN81" t="n">
         <v>22.4</v>
       </c>
+      <c r="HO81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55292,6 +55535,9 @@
       <c r="HN82" t="n">
         <v>188.3</v>
       </c>
+      <c r="HO82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55962,6 +56208,9 @@
       <c r="HN83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HO83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56632,6 +56881,9 @@
       <c r="HN84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HO84" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57302,6 +57554,9 @@
       <c r="HN85" t="n">
         <v>75.90000000000001</v>
       </c>
+      <c r="HO85" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57972,6 +58227,9 @@
       <c r="HN86" t="n">
         <v>10</v>
       </c>
+      <c r="HO86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58642,6 +58900,9 @@
       <c r="HN87" t="n">
         <v>6</v>
       </c>
+      <c r="HO87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59312,6 +59573,9 @@
       <c r="HN88" t="n">
         <v>2</v>
       </c>
+      <c r="HO88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59982,6 +60246,9 @@
       <c r="HN89" t="n">
         <v>5</v>
       </c>
+      <c r="HO89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60652,6 +60919,9 @@
       <c r="HN90" t="n">
         <v>133</v>
       </c>
+      <c r="HO90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61322,6 +61592,9 @@
       <c r="HN91" t="n">
         <v>223</v>
       </c>
+      <c r="HO91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61992,6 +62265,9 @@
       <c r="HN92" t="n">
         <v>256</v>
       </c>
+      <c r="HO92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62662,6 +62938,9 @@
       <c r="HN93" t="n">
         <v>71.3</v>
       </c>
+      <c r="HO93" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63332,6 +63611,9 @@
       <c r="HN94" t="n">
         <v>71</v>
       </c>
+      <c r="HO94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64002,6 +64284,9 @@
       <c r="HN95" t="n">
         <v>6</v>
       </c>
+      <c r="HO95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64672,6 +64957,9 @@
       <c r="HN96" t="n">
         <v>6</v>
       </c>
+      <c r="HO96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65342,6 +65630,9 @@
       <c r="HN97" t="n">
         <v>38</v>
       </c>
+      <c r="HO97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66012,6 +66303,9 @@
       <c r="HN98" t="n">
         <v>49</v>
       </c>
+      <c r="HO98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66682,6 +66976,9 @@
       <c r="HN99" t="n">
         <v>70</v>
       </c>
+      <c r="HO99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67352,6 +67649,9 @@
       <c r="HN100" t="n">
         <v>4</v>
       </c>
+      <c r="HO100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68022,6 +68322,9 @@
       <c r="HN101" t="n">
         <v>8</v>
       </c>
+      <c r="HO101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68692,6 +68995,9 @@
       <c r="HN102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HO102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10361</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10370</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2021</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>4</v>
       </c>
+      <c r="HP3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>0</v>
       </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>0</v>
       </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>85</v>
       </c>
+      <c r="HP6" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>60</v>
       </c>
+      <c r="HP7" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>25</v>
       </c>
+      <c r="HP8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>7</v>
       </c>
+      <c r="HP10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>237</v>
       </c>
+      <c r="HP11" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>130</v>
       </c>
+      <c r="HP12" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>367</v>
       </c>
+      <c r="HP13" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.82</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>78</v>
       </c>
+      <c r="HP15" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>82</v>
       </c>
+      <c r="HP16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>54</v>
       </c>
+      <c r="HP17" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>23</v>
       </c>
+      <c r="HP18" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>21</v>
       </c>
+      <c r="HP19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>12</v>
       </c>
+      <c r="HP20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>8</v>
       </c>
+      <c r="HP21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>10</v>
       </c>
+      <c r="HP22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>3</v>
       </c>
+      <c r="HP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>25</v>
       </c>
+      <c r="HP24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>48</v>
       </c>
+      <c r="HP25" t="n">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>30.58</v>
       </c>
+      <c r="HP26" t="n">
+        <v>25.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>14.68</v>
       </c>
+      <c r="HP27" t="n">
+        <v>13.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>46</v>
       </c>
+      <c r="HP28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>59</v>
       </c>
+      <c r="HP29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>41</v>
       </c>
+      <c r="HP30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>62</v>
       </c>
+      <c r="HP31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>2.48</v>
       </c>
+      <c r="HP32" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>5.17</v>
       </c>
+      <c r="HP33" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>35.5</v>
       </c>
+      <c r="HP34" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>19.4</v>
       </c>
+      <c r="HP35" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>186.4</v>
       </c>
+      <c r="HP36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>85.7</v>
       </c>
+      <c r="HP37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>25.33</v>
       </c>
+      <c r="HP38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>101</v>
       </c>
+      <c r="HP39" t="n">
+        <v>100.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>6</v>
       </c>
+      <c r="HP40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>6</v>
       </c>
+      <c r="HP41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>5</v>
       </c>
+      <c r="HP42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>6</v>
       </c>
+      <c r="HP43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>167</v>
       </c>
+      <c r="HP44" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>189</v>
       </c>
+      <c r="HP45" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>234</v>
       </c>
+      <c r="HP46" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>63.8</v>
       </c>
+      <c r="HP47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>59</v>
       </c>
+      <c r="HP48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>12</v>
       </c>
+      <c r="HP49" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>9</v>
       </c>
+      <c r="HP50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>46</v>
       </c>
+      <c r="HP51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>41</v>
       </c>
+      <c r="HP52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>47</v>
       </c>
+      <c r="HP53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>2</v>
       </c>
+      <c r="HP54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>8</v>
       </c>
+      <c r="HP55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>209</v>
       </c>
+      <c r="HP57" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>153</v>
       </c>
+      <c r="HP58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>362</v>
       </c>
+      <c r="HP59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.37</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>81</v>
       </c>
+      <c r="HP61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>74</v>
       </c>
+      <c r="HP62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>24</v>
       </c>
+      <c r="HP63" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>21</v>
       </c>
+      <c r="HP64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>23</v>
       </c>
+      <c r="HP65" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>9</v>
       </c>
+      <c r="HP66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>5</v>
       </c>
+      <c r="HP67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>6</v>
       </c>
+      <c r="HP68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>0</v>
       </c>
+      <c r="HP69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>15</v>
       </c>
+      <c r="HP70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>60</v>
       </c>
+      <c r="HP71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>40.22</v>
       </c>
+      <c r="HP72" t="n">
+        <v>42.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>24.13</v>
       </c>
+      <c r="HP73" t="n">
+        <v>24.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>35</v>
       </c>
+      <c r="HP74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>64</v>
       </c>
+      <c r="HP75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>50</v>
       </c>
+      <c r="HP76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>50</v>
       </c>
+      <c r="HP77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>3.33</v>
       </c>
+      <c r="HP78" t="n">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>5.56</v>
       </c>
+      <c r="HP79" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>30</v>
       </c>
+      <c r="HP80" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>18</v>
       </c>
+      <c r="HP81" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>188</v>
       </c>
+      <c r="HP82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>87.2</v>
       </c>
+      <c r="HP83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>27.33</v>
       </c>
+      <c r="HP84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>128.7</v>
       </c>
+      <c r="HP85" t="n">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>5</v>
       </c>
+      <c r="HP86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>5</v>
       </c>
+      <c r="HP87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>3</v>
       </c>
+      <c r="HP88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>9</v>
       </c>
+      <c r="HP89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>148</v>
       </c>
+      <c r="HP90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>211</v>
       </c>
+      <c r="HP91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>251</v>
       </c>
+      <c r="HP92" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>69.3</v>
       </c>
+      <c r="HP93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>64</v>
       </c>
+      <c r="HP94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>8</v>
       </c>
+      <c r="HP95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>6</v>
       </c>
+      <c r="HP96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>35</v>
       </c>
+      <c r="HP97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>50</v>
       </c>
+      <c r="HP98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>57</v>
       </c>
+      <c r="HP99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>6</v>
       </c>
+      <c r="HP100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>5</v>
       </c>
+      <c r="HP101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,6 +69301,9 @@
       <c r="HO102" t="n">
         <v>55.6</v>
       </c>
+      <c r="HP102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1096,9 @@
       <c r="HP1" t="n">
         <v>10370</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10376</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1775,9 @@
       <c r="HP2" t="n">
         <v>2021</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2454,9 @@
       <c r="HP3" t="n">
         <v>5</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3133,9 @@
       <c r="HP4" t="n">
         <v>1</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3812,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4491,9 @@
       <c r="HP6" t="n">
         <v>104</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5170,9 @@
       <c r="HP7" t="n">
         <v>54</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5849,9 @@
       <c r="HP8" t="n">
         <v>50</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6528,9 @@
       <c r="HP9" t="n">
         <v>1</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7207,9 @@
       <c r="HP10" t="n">
         <v>10</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7886,9 @@
       <c r="HP11" t="n">
         <v>244</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8565,9 @@
       <c r="HP12" t="n">
         <v>144</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9244,9 @@
       <c r="HP13" t="n">
         <v>388</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9923,9 @@
       <c r="HP14" t="n">
         <v>1.69</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10602,9 @@
       <c r="HP15" t="n">
         <v>116</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11281,9 @@
       <c r="HP16" t="n">
         <v>53</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11960,9 @@
       <c r="HP17" t="n">
         <v>48</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12639,9 @@
       <c r="HP18" t="n">
         <v>27</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13318,9 @@
       <c r="HP19" t="n">
         <v>15</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13997,9 @@
       <c r="HP20" t="n">
         <v>15</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14676,9 @@
       <c r="HP21" t="n">
         <v>10</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15355,9 @@
       <c r="HP22" t="n">
         <v>14</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +16034,9 @@
       <c r="HP23" t="n">
         <v>0</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16713,9 @@
       <c r="HP24" t="n">
         <v>29</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17392,9 @@
       <c r="HP25" t="n">
         <v>51.7</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18071,9 @@
       <c r="HP26" t="n">
         <v>25.87</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>37.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18750,9 @@
       <c r="HP27" t="n">
         <v>13.38</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>20.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19429,9 @@
       <c r="HP28" t="n">
         <v>33</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20108,9 @@
       <c r="HP29" t="n">
         <v>53</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20787,9 @@
       <c r="HP30" t="n">
         <v>32</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21466,9 @@
       <c r="HP31" t="n">
         <v>61</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22145,9 @@
       <c r="HP32" t="n">
         <v>2.1</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22824,9 @@
       <c r="HP33" t="n">
         <v>4.07</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23503,9 @@
       <c r="HP34" t="n">
         <v>47.5</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24182,9 @@
       <c r="HP35" t="n">
         <v>24.6</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24861,9 @@
       <c r="HP36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25540,9 @@
       <c r="HP37" t="n">
         <v>86.3</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26219,9 @@
       <c r="HP38" t="n">
         <v>25.49</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26898,9 @@
       <c r="HP39" t="n">
         <v>100.1</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27577,9 @@
       <c r="HP40" t="n">
         <v>6</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28256,9 @@
       <c r="HP41" t="n">
         <v>6</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28935,9 @@
       <c r="HP42" t="n">
         <v>5</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29614,9 @@
       <c r="HP43" t="n">
         <v>5</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30293,9 @@
       <c r="HP44" t="n">
         <v>162</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30972,9 @@
       <c r="HP45" t="n">
         <v>230</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31651,9 @@
       <c r="HP46" t="n">
         <v>274</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32330,9 @@
       <c r="HP47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +33009,9 @@
       <c r="HP48" t="n">
         <v>53</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33688,9 @@
       <c r="HP49" t="n">
         <v>19</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34367,9 @@
       <c r="HP50" t="n">
         <v>17</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +35046,9 @@
       <c r="HP51" t="n">
         <v>33</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35725,9 @@
       <c r="HP52" t="n">
         <v>32</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36404,9 @@
       <c r="HP53" t="n">
         <v>43</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37083,9 @@
       <c r="HP54" t="n">
         <v>6</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37762,9 @@
       <c r="HP55" t="n">
         <v>10</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38441,9 @@
       <c r="HP56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39120,9 @@
       <c r="HP57" t="n">
         <v>189</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39799,9 @@
       <c r="HP58" t="n">
         <v>153</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40478,9 @@
       <c r="HP59" t="n">
         <v>342</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41157,9 @@
       <c r="HP60" t="n">
         <v>1.24</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41836,9 @@
       <c r="HP61" t="n">
         <v>78</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42515,9 @@
       <c r="HP62" t="n">
         <v>57</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43194,9 @@
       <c r="HP63" t="n">
         <v>21</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43873,9 @@
       <c r="HP64" t="n">
         <v>15</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44552,9 @@
       <c r="HP65" t="n">
         <v>27</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45231,9 @@
       <c r="HP66" t="n">
         <v>8</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45910,9 @@
       <c r="HP67" t="n">
         <v>4</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46589,9 @@
       <c r="HP68" t="n">
         <v>2</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47268,9 @@
       <c r="HP69" t="n">
         <v>4</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47947,9 @@
       <c r="HP70" t="n">
         <v>14</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48626,9 @@
       <c r="HP71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49305,9 @@
       <c r="HP72" t="n">
         <v>42.75</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49984,9 @@
       <c r="HP73" t="n">
         <v>24.43</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>19.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50663,9 @@
       <c r="HP74" t="n">
         <v>35</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51342,9 @@
       <c r="HP75" t="n">
         <v>64</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +52021,9 @@
       <c r="HP76" t="n">
         <v>45</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52700,9 @@
       <c r="HP77" t="n">
         <v>41</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53379,9 @@
       <c r="HP78" t="n">
         <v>2.93</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +54058,9 @@
       <c r="HP79" t="n">
         <v>5.12</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54737,9 @@
       <c r="HP80" t="n">
         <v>24.4</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55416,9 @@
       <c r="HP81" t="n">
         <v>19.5</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56095,9 @@
       <c r="HP82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56774,9 @@
       <c r="HP83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57453,9 @@
       <c r="HP84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58132,9 @@
       <c r="HP85" t="n">
         <v>108.5</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58811,9 @@
       <c r="HP86" t="n">
         <v>7</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59490,9 @@
       <c r="HP87" t="n">
         <v>5</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60169,9 @@
       <c r="HP88" t="n">
         <v>5</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60848,9 @@
       <c r="HP89" t="n">
         <v>5</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61527,9 @@
       <c r="HP90" t="n">
         <v>126</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62206,9 @@
       <c r="HP91" t="n">
         <v>207</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62885,9 @@
       <c r="HP92" t="n">
         <v>233</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63564,9 @@
       <c r="HP93" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>62.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64243,9 @@
       <c r="HP94" t="n">
         <v>64</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64922,9 @@
       <c r="HP95" t="n">
         <v>15</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65601,9 @@
       <c r="HP96" t="n">
         <v>5</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66280,9 @@
       <c r="HP97" t="n">
         <v>35</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66959,9 @@
       <c r="HP98" t="n">
         <v>45</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67638,9 @@
       <c r="HP99" t="n">
         <v>52</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68317,9 @@
       <c r="HP100" t="n">
         <v>8</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68996,9 @@
       <c r="HP101" t="n">
         <v>4</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,6 +69675,9 @@
       <c r="HP102" t="n">
         <v>50</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +1031,9 @@
       <c r="HQ1" t="n">
         <v>10376</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10384</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1778,6 +1713,9 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2457,6 +2395,9 @@
       <c r="HQ3" t="n">
         <v>6</v>
       </c>
+      <c r="HR3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3136,6 +3077,9 @@
       <c r="HQ4" t="n">
         <v>0</v>
       </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3815,6 +3759,9 @@
       <c r="HQ5" t="n">
         <v>0</v>
       </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4494,6 +4441,9 @@
       <c r="HQ6" t="n">
         <v>82</v>
       </c>
+      <c r="HR6" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5173,6 +5123,9 @@
       <c r="HQ7" t="n">
         <v>48</v>
       </c>
+      <c r="HR7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5852,6 +5805,9 @@
       <c r="HQ8" t="n">
         <v>34</v>
       </c>
+      <c r="HR8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6531,6 +6487,9 @@
       <c r="HQ9" t="n">
         <v>1</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7210,6 +7169,9 @@
       <c r="HQ10" t="n">
         <v>14</v>
       </c>
+      <c r="HR10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7889,6 +7851,9 @@
       <c r="HQ11" t="n">
         <v>223</v>
       </c>
+      <c r="HR11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8568,6 +8533,9 @@
       <c r="HQ12" t="n">
         <v>226</v>
       </c>
+      <c r="HR12" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9247,6 +9215,9 @@
       <c r="HQ13" t="n">
         <v>449</v>
       </c>
+      <c r="HR13" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9926,6 +9897,9 @@
       <c r="HQ14" t="n">
         <v>0.99</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10605,6 +10579,9 @@
       <c r="HQ15" t="n">
         <v>80</v>
       </c>
+      <c r="HR15" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11284,6 +11261,9 @@
       <c r="HQ16" t="n">
         <v>71</v>
       </c>
+      <c r="HR16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11963,6 +11943,9 @@
       <c r="HQ17" t="n">
         <v>42</v>
       </c>
+      <c r="HR17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12642,6 +12625,9 @@
       <c r="HQ18" t="n">
         <v>24</v>
       </c>
+      <c r="HR18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13321,6 +13307,9 @@
       <c r="HQ19" t="n">
         <v>17</v>
       </c>
+      <c r="HR19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14000,6 +13989,9 @@
       <c r="HQ20" t="n">
         <v>12</v>
       </c>
+      <c r="HR20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14679,6 +14671,9 @@
       <c r="HQ21" t="n">
         <v>7</v>
       </c>
+      <c r="HR21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15358,6 +15353,9 @@
       <c r="HQ22" t="n">
         <v>9</v>
       </c>
+      <c r="HR22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16037,6 +16035,9 @@
       <c r="HQ23" t="n">
         <v>1</v>
       </c>
+      <c r="HR23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16716,6 +16717,9 @@
       <c r="HQ24" t="n">
         <v>22</v>
       </c>
+      <c r="HR24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17395,6 +17399,9 @@
       <c r="HQ25" t="n">
         <v>54.5</v>
       </c>
+      <c r="HR25" t="n">
+        <v>69.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18074,6 +18081,9 @@
       <c r="HQ26" t="n">
         <v>37.42</v>
       </c>
+      <c r="HR26" t="n">
+        <v>23.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18753,6 +18763,9 @@
       <c r="HQ27" t="n">
         <v>20.41</v>
       </c>
+      <c r="HR27" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19432,6 +19445,9 @@
       <c r="HQ28" t="n">
         <v>36</v>
       </c>
+      <c r="HR28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20111,6 +20127,9 @@
       <c r="HQ29" t="n">
         <v>72</v>
       </c>
+      <c r="HR29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20790,6 +20809,9 @@
       <c r="HQ30" t="n">
         <v>53</v>
       </c>
+      <c r="HR30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21469,6 +21491,9 @@
       <c r="HQ31" t="n">
         <v>56</v>
       </c>
+      <c r="HR31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22148,6 +22173,9 @@
       <c r="HQ32" t="n">
         <v>2.55</v>
       </c>
+      <c r="HR32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22827,6 +22855,9 @@
       <c r="HQ33" t="n">
         <v>4.67</v>
       </c>
+      <c r="HR33" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23506,6 +23537,9 @@
       <c r="HQ34" t="n">
         <v>37.5</v>
       </c>
+      <c r="HR34" t="n">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24185,6 +24219,9 @@
       <c r="HQ35" t="n">
         <v>21.4</v>
       </c>
+      <c r="HR35" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24864,6 +24901,9 @@
       <c r="HQ36" t="n">
         <v>186.9</v>
       </c>
+      <c r="HR36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25543,6 +25583,9 @@
       <c r="HQ37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HR37" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26222,6 +26265,9 @@
       <c r="HQ38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HR38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26901,6 +26947,9 @@
       <c r="HQ39" t="n">
         <v>107</v>
       </c>
+      <c r="HR39" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27580,6 +27629,9 @@
       <c r="HQ40" t="n">
         <v>5</v>
       </c>
+      <c r="HR40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28259,6 +28311,9 @@
       <c r="HQ41" t="n">
         <v>5</v>
       </c>
+      <c r="HR41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28938,6 +28993,9 @@
       <c r="HQ42" t="n">
         <v>6</v>
       </c>
+      <c r="HR42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29617,6 +29675,9 @@
       <c r="HQ43" t="n">
         <v>6</v>
       </c>
+      <c r="HR43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30296,6 +30357,9 @@
       <c r="HQ44" t="n">
         <v>164</v>
       </c>
+      <c r="HR44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30975,6 +31039,9 @@
       <c r="HQ45" t="n">
         <v>267</v>
       </c>
+      <c r="HR45" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31654,6 +31721,9 @@
       <c r="HQ46" t="n">
         <v>314</v>
       </c>
+      <c r="HR46" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32333,6 +32403,9 @@
       <c r="HQ47" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="HR47" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33012,6 +33085,9 @@
       <c r="HQ48" t="n">
         <v>72</v>
       </c>
+      <c r="HR48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33691,6 +33767,9 @@
       <c r="HQ49" t="n">
         <v>14</v>
       </c>
+      <c r="HR49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34370,6 +34449,9 @@
       <c r="HQ50" t="n">
         <v>8</v>
       </c>
+      <c r="HR50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35049,6 +35131,9 @@
       <c r="HQ51" t="n">
         <v>36</v>
       </c>
+      <c r="HR51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35728,6 +35813,9 @@
       <c r="HQ52" t="n">
         <v>53</v>
       </c>
+      <c r="HR52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36407,6 +36495,9 @@
       <c r="HQ53" t="n">
         <v>50</v>
       </c>
+      <c r="HR53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37086,6 +37177,9 @@
       <c r="HQ54" t="n">
         <v>1</v>
       </c>
+      <c r="HR54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37765,6 +37859,9 @@
       <c r="HQ55" t="n">
         <v>7</v>
       </c>
+      <c r="HR55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38444,6 +38541,9 @@
       <c r="HQ56" t="n">
         <v>58.3</v>
       </c>
+      <c r="HR56" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39123,6 +39223,9 @@
       <c r="HQ57" t="n">
         <v>196</v>
       </c>
+      <c r="HR57" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39802,6 +39905,9 @@
       <c r="HQ58" t="n">
         <v>158</v>
       </c>
+      <c r="HR58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40481,6 +40587,9 @@
       <c r="HQ59" t="n">
         <v>354</v>
       </c>
+      <c r="HR59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41160,6 +41269,9 @@
       <c r="HQ60" t="n">
         <v>1.24</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41839,6 +41951,9 @@
       <c r="HQ61" t="n">
         <v>55</v>
       </c>
+      <c r="HR61" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42518,6 +42633,9 @@
       <c r="HQ62" t="n">
         <v>80</v>
       </c>
+      <c r="HR62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43197,6 +43315,9 @@
       <c r="HQ63" t="n">
         <v>20</v>
       </c>
+      <c r="HR63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43876,6 +43997,9 @@
       <c r="HQ64" t="n">
         <v>17</v>
       </c>
+      <c r="HR64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44555,6 +44679,9 @@
       <c r="HQ65" t="n">
         <v>24</v>
       </c>
+      <c r="HR65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45234,6 +45361,9 @@
       <c r="HQ66" t="n">
         <v>6</v>
       </c>
+      <c r="HR66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45913,6 +46043,9 @@
       <c r="HQ67" t="n">
         <v>4</v>
       </c>
+      <c r="HR67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46592,6 +46725,9 @@
       <c r="HQ68" t="n">
         <v>9</v>
       </c>
+      <c r="HR68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47271,6 +47407,9 @@
       <c r="HQ69" t="n">
         <v>3</v>
       </c>
+      <c r="HR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47950,6 +48089,9 @@
       <c r="HQ70" t="n">
         <v>18</v>
       </c>
+      <c r="HR70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48629,6 +48771,9 @@
       <c r="HQ71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HR71" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49308,6 +49453,9 @@
       <c r="HQ72" t="n">
         <v>59</v>
       </c>
+      <c r="HR72" t="n">
+        <v>33.36</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49987,6 +50135,9 @@
       <c r="HQ73" t="n">
         <v>19.67</v>
       </c>
+      <c r="HR73" t="n">
+        <v>20.39</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50666,6 +50817,9 @@
       <c r="HQ74" t="n">
         <v>33</v>
       </c>
+      <c r="HR74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51345,6 +51499,9 @@
       <c r="HQ75" t="n">
         <v>64</v>
       </c>
+      <c r="HR75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52024,6 +52181,9 @@
       <c r="HQ76" t="n">
         <v>42</v>
       </c>
+      <c r="HR76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52703,6 +52863,9 @@
       <c r="HQ77" t="n">
         <v>60</v>
       </c>
+      <c r="HR77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53382,6 +53545,9 @@
       <c r="HQ78" t="n">
         <v>3.33</v>
       </c>
+      <c r="HR78" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54061,6 +54227,9 @@
       <c r="HQ79" t="n">
         <v>10</v>
       </c>
+      <c r="HR79" t="n">
+        <v>4.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54740,6 +54909,9 @@
       <c r="HQ80" t="n">
         <v>25</v>
       </c>
+      <c r="HR80" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55419,6 +55591,9 @@
       <c r="HQ81" t="n">
         <v>10</v>
       </c>
+      <c r="HR81" t="n">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56098,6 +56273,9 @@
       <c r="HQ82" t="n">
         <v>185.3</v>
       </c>
+      <c r="HR82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56777,6 +56955,9 @@
       <c r="HQ83" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="HR83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57456,6 +57637,9 @@
       <c r="HQ84" t="n">
         <v>26.91</v>
       </c>
+      <c r="HR84" t="n">
+        <v>24.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58135,6 +58319,9 @@
       <c r="HQ85" t="n">
         <v>119.7</v>
       </c>
+      <c r="HR85" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58814,6 +59001,9 @@
       <c r="HQ86" t="n">
         <v>6</v>
       </c>
+      <c r="HR86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59493,6 +59683,9 @@
       <c r="HQ87" t="n">
         <v>5</v>
       </c>
+      <c r="HR87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60172,6 +60365,9 @@
       <c r="HQ88" t="n">
         <v>5</v>
       </c>
+      <c r="HR88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60851,6 +61047,9 @@
       <c r="HQ89" t="n">
         <v>7</v>
       </c>
+      <c r="HR89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61530,6 +61729,9 @@
       <c r="HQ90" t="n">
         <v>155</v>
       </c>
+      <c r="HR90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62209,6 +62411,9 @@
       <c r="HQ91" t="n">
         <v>188</v>
       </c>
+      <c r="HR91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62888,6 +63093,9 @@
       <c r="HQ92" t="n">
         <v>221</v>
       </c>
+      <c r="HR92" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63567,6 +63775,9 @@
       <c r="HQ93" t="n">
         <v>62.4</v>
       </c>
+      <c r="HR93" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64246,6 +64457,9 @@
       <c r="HQ94" t="n">
         <v>64</v>
       </c>
+      <c r="HR94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64925,6 +65139,9 @@
       <c r="HQ95" t="n">
         <v>7</v>
       </c>
+      <c r="HR95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65604,6 +65821,9 @@
       <c r="HQ96" t="n">
         <v>11</v>
       </c>
+      <c r="HR96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66283,6 +66503,9 @@
       <c r="HQ97" t="n">
         <v>33</v>
       </c>
+      <c r="HR97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66962,6 +67185,9 @@
       <c r="HQ98" t="n">
         <v>42</v>
       </c>
+      <c r="HR98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67641,6 +67867,9 @@
       <c r="HQ99" t="n">
         <v>51</v>
       </c>
+      <c r="HR99" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68320,6 +68549,9 @@
       <c r="HQ100" t="n">
         <v>10</v>
       </c>
+      <c r="HR100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68999,6 +69231,9 @@
       <c r="HQ101" t="n">
         <v>4</v>
       </c>
+      <c r="HR101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69678,6 +69913,9 @@
       <c r="HQ102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HR102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,9 @@
       <c r="HR1" t="n">
         <v>10384</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10393</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1719,9 @@
       <c r="HR2" t="n">
         <v>2021</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2398,6 +2404,9 @@
       <c r="HR3" t="n">
         <v>7</v>
       </c>
+      <c r="HS3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3080,6 +3089,9 @@
       <c r="HR4" t="n">
         <v>1</v>
       </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3762,6 +3774,9 @@
       <c r="HR5" t="n">
         <v>1</v>
       </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4444,6 +4459,9 @@
       <c r="HR6" t="n">
         <v>103</v>
       </c>
+      <c r="HS6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5126,6 +5144,9 @@
       <c r="HR7" t="n">
         <v>73</v>
       </c>
+      <c r="HS7" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5808,6 +5829,9 @@
       <c r="HR8" t="n">
         <v>30</v>
       </c>
+      <c r="HS8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,6 +6514,9 @@
       <c r="HR9" t="n">
         <v>1</v>
       </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7172,6 +7199,9 @@
       <c r="HR10" t="n">
         <v>12</v>
       </c>
+      <c r="HS10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7854,6 +7884,9 @@
       <c r="HR11" t="n">
         <v>231</v>
       </c>
+      <c r="HS11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8536,6 +8569,9 @@
       <c r="HR12" t="n">
         <v>144</v>
       </c>
+      <c r="HS12" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9218,6 +9254,9 @@
       <c r="HR13" t="n">
         <v>375</v>
       </c>
+      <c r="HS13" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9900,6 +9939,9 @@
       <c r="HR14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10582,6 +10624,9 @@
       <c r="HR15" t="n">
         <v>117</v>
       </c>
+      <c r="HS15" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11264,6 +11309,9 @@
       <c r="HR16" t="n">
         <v>54</v>
       </c>
+      <c r="HS16" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11946,6 +11994,9 @@
       <c r="HR17" t="n">
         <v>36</v>
       </c>
+      <c r="HS17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12628,6 +12679,9 @@
       <c r="HR18" t="n">
         <v>16</v>
       </c>
+      <c r="HS18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13310,6 +13364,9 @@
       <c r="HR19" t="n">
         <v>21</v>
       </c>
+      <c r="HS19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13992,6 +14049,9 @@
       <c r="HR20" t="n">
         <v>16</v>
       </c>
+      <c r="HS20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14674,6 +14734,9 @@
       <c r="HR21" t="n">
         <v>7</v>
       </c>
+      <c r="HS21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15356,6 +15419,9 @@
       <c r="HR22" t="n">
         <v>6</v>
       </c>
+      <c r="HS22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16038,6 +16104,9 @@
       <c r="HR23" t="n">
         <v>1</v>
       </c>
+      <c r="HS23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16720,6 +16789,9 @@
       <c r="HR24" t="n">
         <v>23</v>
       </c>
+      <c r="HS24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17402,6 +17474,9 @@
       <c r="HR25" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="HS25" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18084,6 +18159,9 @@
       <c r="HR26" t="n">
         <v>23.44</v>
       </c>
+      <c r="HS26" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18766,6 +18844,9 @@
       <c r="HR27" t="n">
         <v>16.3</v>
       </c>
+      <c r="HS27" t="n">
+        <v>21.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19448,6 +19529,9 @@
       <c r="HR28" t="n">
         <v>35</v>
       </c>
+      <c r="HS28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20130,6 +20214,9 @@
       <c r="HR29" t="n">
         <v>51</v>
       </c>
+      <c r="HS29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20812,6 +20899,9 @@
       <c r="HR30" t="n">
         <v>39</v>
       </c>
+      <c r="HS30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21494,6 +21584,9 @@
       <c r="HR31" t="n">
         <v>52</v>
       </c>
+      <c r="HS31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22176,6 +22269,9 @@
       <c r="HR32" t="n">
         <v>2.26</v>
       </c>
+      <c r="HS32" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22858,6 +22954,9 @@
       <c r="HR33" t="n">
         <v>3.25</v>
       </c>
+      <c r="HS33" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23540,6 +23639,9 @@
       <c r="HR34" t="n">
         <v>42.3</v>
       </c>
+      <c r="HS34" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24222,6 +24324,9 @@
       <c r="HR35" t="n">
         <v>30.8</v>
       </c>
+      <c r="HS35" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24904,6 +25009,9 @@
       <c r="HR36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HS36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25586,6 +25694,9 @@
       <c r="HR37" t="n">
         <v>86.8</v>
       </c>
+      <c r="HS37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26268,6 +26379,9 @@
       <c r="HR38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HS38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26950,6 +27064,9 @@
       <c r="HR39" t="n">
         <v>103.4</v>
       </c>
+      <c r="HS39" t="n">
+        <v>92.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27632,6 +27749,9 @@
       <c r="HR40" t="n">
         <v>6</v>
       </c>
+      <c r="HS40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28314,6 +28434,9 @@
       <c r="HR41" t="n">
         <v>5</v>
       </c>
+      <c r="HS41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28996,6 +29119,9 @@
       <c r="HR42" t="n">
         <v>6</v>
       </c>
+      <c r="HS42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29678,6 +29804,9 @@
       <c r="HR43" t="n">
         <v>6</v>
       </c>
+      <c r="HS43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30360,6 +30489,9 @@
       <c r="HR44" t="n">
         <v>136</v>
       </c>
+      <c r="HS44" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31042,6 +31174,9 @@
       <c r="HR45" t="n">
         <v>244</v>
       </c>
+      <c r="HS45" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31724,6 +31859,9 @@
       <c r="HR46" t="n">
         <v>296</v>
       </c>
+      <c r="HS46" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32406,6 +32544,9 @@
       <c r="HR47" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="HS47" t="n">
+        <v>65.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33088,6 +33229,9 @@
       <c r="HR48" t="n">
         <v>51</v>
       </c>
+      <c r="HS48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33770,6 +33914,9 @@
       <c r="HR49" t="n">
         <v>13</v>
       </c>
+      <c r="HS49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34452,6 +34599,9 @@
       <c r="HR50" t="n">
         <v>8</v>
       </c>
+      <c r="HS50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35134,6 +35284,9 @@
       <c r="HR51" t="n">
         <v>35</v>
       </c>
+      <c r="HS51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35816,6 +35969,9 @@
       <c r="HR52" t="n">
         <v>39</v>
       </c>
+      <c r="HS52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36498,6 +36654,9 @@
       <c r="HR53" t="n">
         <v>37</v>
       </c>
+      <c r="HS53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37180,6 +37339,9 @@
       <c r="HR54" t="n">
         <v>9</v>
       </c>
+      <c r="HS54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37862,6 +38024,9 @@
       <c r="HR55" t="n">
         <v>7</v>
       </c>
+      <c r="HS55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38544,6 +38709,9 @@
       <c r="HR56" t="n">
         <v>43.8</v>
       </c>
+      <c r="HS56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39226,6 +39394,9 @@
       <c r="HR57" t="n">
         <v>217</v>
       </c>
+      <c r="HS57" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39908,6 +40079,9 @@
       <c r="HR58" t="n">
         <v>150</v>
       </c>
+      <c r="HS58" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40590,6 +40764,9 @@
       <c r="HR59" t="n">
         <v>367</v>
       </c>
+      <c r="HS59" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41272,6 +41449,9 @@
       <c r="HR60" t="n">
         <v>1.45</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41954,6 +42134,9 @@
       <c r="HR61" t="n">
         <v>102</v>
       </c>
+      <c r="HS61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42636,6 +42819,9 @@
       <c r="HR62" t="n">
         <v>51</v>
       </c>
+      <c r="HS62" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43318,6 +43504,9 @@
       <c r="HR63" t="n">
         <v>32</v>
       </c>
+      <c r="HS63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44000,6 +44189,9 @@
       <c r="HR64" t="n">
         <v>21</v>
       </c>
+      <c r="HS64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44682,6 +44874,9 @@
       <c r="HR65" t="n">
         <v>16</v>
       </c>
+      <c r="HS65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45364,6 +45559,9 @@
       <c r="HR66" t="n">
         <v>11</v>
       </c>
+      <c r="HS66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46046,6 +46244,9 @@
       <c r="HR67" t="n">
         <v>9</v>
       </c>
+      <c r="HS67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46728,6 +46929,9 @@
       <c r="HR68" t="n">
         <v>5</v>
       </c>
+      <c r="HS68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47410,6 +47614,9 @@
       <c r="HR69" t="n">
         <v>2</v>
       </c>
+      <c r="HS69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48092,6 +48299,9 @@
       <c r="HR70" t="n">
         <v>18</v>
       </c>
+      <c r="HS70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48774,6 +48984,9 @@
       <c r="HR71" t="n">
         <v>61.1</v>
       </c>
+      <c r="HS71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49456,6 +49669,9 @@
       <c r="HR72" t="n">
         <v>33.36</v>
       </c>
+      <c r="HS72" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50138,6 +50354,9 @@
       <c r="HR73" t="n">
         <v>20.39</v>
       </c>
+      <c r="HS73" t="n">
+        <v>21.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50820,6 +51039,9 @@
       <c r="HR74" t="n">
         <v>40</v>
       </c>
+      <c r="HS74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51502,6 +51724,9 @@
       <c r="HR75" t="n">
         <v>63</v>
       </c>
+      <c r="HS75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52184,6 +52409,9 @@
       <c r="HR76" t="n">
         <v>34</v>
       </c>
+      <c r="HS76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52866,6 +53094,9 @@
       <c r="HR77" t="n">
         <v>51</v>
       </c>
+      <c r="HS77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53548,6 +53779,9 @@
       <c r="HR78" t="n">
         <v>2.83</v>
       </c>
+      <c r="HS78" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54230,6 +54464,9 @@
       <c r="HR79" t="n">
         <v>4.64</v>
       </c>
+      <c r="HS79" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54912,6 +55149,9 @@
       <c r="HR80" t="n">
         <v>31.4</v>
       </c>
+      <c r="HS80" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55594,6 +55834,9 @@
       <c r="HR81" t="n">
         <v>21.6</v>
       </c>
+      <c r="HS81" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56276,6 +56519,9 @@
       <c r="HR82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HS82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56958,6 +57204,9 @@
       <c r="HR83" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="HS83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57640,6 +57889,9 @@
       <c r="HR84" t="n">
         <v>24.24</v>
       </c>
+      <c r="HS84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58322,6 +58574,9 @@
       <c r="HR85" t="n">
         <v>74.2</v>
       </c>
+      <c r="HS85" t="n">
+        <v>96.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59004,6 +59259,9 @@
       <c r="HR86" t="n">
         <v>13</v>
       </c>
+      <c r="HS86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59686,6 +59944,9 @@
       <c r="HR87" t="n">
         <v>4</v>
       </c>
+      <c r="HS87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60368,6 +60629,9 @@
       <c r="HR88" t="n">
         <v>2</v>
       </c>
+      <c r="HS88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61050,6 +61314,9 @@
       <c r="HR89" t="n">
         <v>4</v>
       </c>
+      <c r="HS89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61732,6 +61999,9 @@
       <c r="HR90" t="n">
         <v>136</v>
       </c>
+      <c r="HS90" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62414,6 +62684,9 @@
       <c r="HR91" t="n">
         <v>228</v>
       </c>
+      <c r="HS91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63096,6 +63369,9 @@
       <c r="HR92" t="n">
         <v>278</v>
       </c>
+      <c r="HS92" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63778,6 +64054,9 @@
       <c r="HR93" t="n">
         <v>75.7</v>
       </c>
+      <c r="HS93" t="n">
+        <v>67.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64460,6 +64739,9 @@
       <c r="HR94" t="n">
         <v>63</v>
       </c>
+      <c r="HS94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65142,6 +65424,9 @@
       <c r="HR95" t="n">
         <v>11</v>
       </c>
+      <c r="HS95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65824,6 +66109,9 @@
       <c r="HR96" t="n">
         <v>9</v>
       </c>
+      <c r="HS96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66506,6 +66794,9 @@
       <c r="HR97" t="n">
         <v>40</v>
       </c>
+      <c r="HS97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67188,6 +67479,9 @@
       <c r="HR98" t="n">
         <v>34</v>
       </c>
+      <c r="HS98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67870,6 +68164,9 @@
       <c r="HR99" t="n">
         <v>62</v>
       </c>
+      <c r="HS99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68552,6 +68849,9 @@
       <c r="HR100" t="n">
         <v>3</v>
       </c>
+      <c r="HS100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69234,6 +69534,9 @@
       <c r="HR101" t="n">
         <v>9</v>
       </c>
+      <c r="HS101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69916,6 +70219,9 @@
       <c r="HR102" t="n">
         <v>81.8</v>
       </c>
+      <c r="HS102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10393</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10402</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>8</v>
       </c>
+      <c r="HT3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>0</v>
       </c>
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>67</v>
       </c>
+      <c r="HT6" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>58</v>
       </c>
+      <c r="HT7" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>9</v>
       </c>
+      <c r="HT8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>1</v>
       </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>16</v>
       </c>
+      <c r="HT10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>193</v>
       </c>
+      <c r="HT11" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>179</v>
       </c>
+      <c r="HT12" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>372</v>
       </c>
+      <c r="HT13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.08</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>56</v>
       </c>
+      <c r="HT15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>76</v>
       </c>
+      <c r="HT16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>52</v>
       </c>
+      <c r="HT17" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>15</v>
       </c>
+      <c r="HT18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>17</v>
       </c>
+      <c r="HT19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>10</v>
       </c>
+      <c r="HT20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>7</v>
       </c>
+      <c r="HT21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>4</v>
       </c>
+      <c r="HT22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>3</v>
       </c>
+      <c r="HT23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>17</v>
       </c>
+      <c r="HT24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>58.8</v>
       </c>
+      <c r="HT25" t="n">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>37.2</v>
       </c>
+      <c r="HT26" t="n">
+        <v>27.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>21.88</v>
       </c>
+      <c r="HT27" t="n">
+        <v>12.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>37</v>
       </c>
+      <c r="HT28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>63</v>
       </c>
+      <c r="HT29" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>49</v>
       </c>
+      <c r="HT30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>46</v>
       </c>
+      <c r="HT31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2.71</v>
       </c>
+      <c r="HT32" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>4.6</v>
       </c>
+      <c r="HT33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>30.4</v>
       </c>
+      <c r="HT34" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>21.7</v>
       </c>
+      <c r="HT35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HT36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>86.5</v>
       </c>
+      <c r="HT37" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HT38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>92.90000000000001</v>
       </c>
+      <c r="HT39" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>6</v>
       </c>
+      <c r="HT40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>4</v>
       </c>
+      <c r="HT41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>8</v>
       </c>
+      <c r="HT42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>4</v>
       </c>
+      <c r="HT43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>159</v>
       </c>
+      <c r="HT44" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>205</v>
       </c>
+      <c r="HT45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>244</v>
       </c>
+      <c r="HT46" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>65.59999999999999</v>
       </c>
+      <c r="HT47" t="n">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>63</v>
       </c>
+      <c r="HT48" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>4</v>
       </c>
+      <c r="HT49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>9</v>
       </c>
+      <c r="HT50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>37</v>
       </c>
+      <c r="HT51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>49</v>
       </c>
+      <c r="HT52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>49</v>
       </c>
+      <c r="HT53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>3</v>
       </c>
+      <c r="HT54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>7</v>
       </c>
+      <c r="HT55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>70</v>
       </c>
+      <c r="HT56" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>234</v>
       </c>
+      <c r="HT57" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>146</v>
       </c>
+      <c r="HT58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>380</v>
       </c>
+      <c r="HT59" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.6</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>87</v>
       </c>
+      <c r="HT61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>92</v>
       </c>
+      <c r="HT62" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>29</v>
       </c>
+      <c r="HT63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>17</v>
       </c>
+      <c r="HT64" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>15</v>
       </c>
+      <c r="HT65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>8</v>
       </c>
+      <c r="HT66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>6</v>
       </c>
+      <c r="HT67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>5</v>
       </c>
+      <c r="HT68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>5</v>
       </c>
+      <c r="HT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>18</v>
       </c>
+      <c r="HT70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>44.4</v>
       </c>
+      <c r="HT71" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>47.5</v>
       </c>
+      <c r="HT72" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>21.11</v>
       </c>
+      <c r="HT73" t="n">
+        <v>18.89</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>39</v>
       </c>
+      <c r="HT74" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>59</v>
       </c>
+      <c r="HT75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>36</v>
       </c>
+      <c r="HT76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>58</v>
       </c>
+      <c r="HT77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>3.22</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>7.25</v>
       </c>
+      <c r="HT79" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>22.4</v>
       </c>
+      <c r="HT80" t="n">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>13.8</v>
       </c>
+      <c r="HT81" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HT82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>85</v>
       </c>
+      <c r="HT83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>25.49</v>
       </c>
+      <c r="HT84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>96.09999999999999</v>
       </c>
+      <c r="HT85" t="n">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>9</v>
       </c>
+      <c r="HT86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>3</v>
       </c>
+      <c r="HT87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>5</v>
       </c>
+      <c r="HT88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>5</v>
       </c>
+      <c r="HT89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>164</v>
       </c>
+      <c r="HT90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>211</v>
       </c>
+      <c r="HT91" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>258</v>
       </c>
+      <c r="HT92" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="HT93" t="n">
+        <v>65.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>59</v>
       </c>
+      <c r="HT94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>11</v>
       </c>
+      <c r="HT95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>6</v>
       </c>
+      <c r="HT96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>39</v>
       </c>
+      <c r="HT97" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>36</v>
       </c>
+      <c r="HT98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>54</v>
       </c>
+      <c r="HT99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>6</v>
       </c>
+      <c r="HT100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>6</v>
       </c>
+      <c r="HT101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>75</v>
       </c>
+      <c r="HT102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,9 @@
       <c r="HT1" t="n">
         <v>10402</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10415</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1731,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2422,9 @@
       <c r="HT3" t="n">
         <v>9</v>
       </c>
+      <c r="HU3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3113,9 @@
       <c r="HT4" t="n">
         <v>0</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3804,9 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4495,9 @@
       <c r="HT6" t="n">
         <v>94</v>
       </c>
+      <c r="HU6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5186,9 @@
       <c r="HT7" t="n">
         <v>68</v>
       </c>
+      <c r="HU7" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5877,9 @@
       <c r="HT8" t="n">
         <v>26</v>
       </c>
+      <c r="HU8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6568,9 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7259,9 @@
       <c r="HT10" t="n">
         <v>3</v>
       </c>
+      <c r="HU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7950,9 @@
       <c r="HT11" t="n">
         <v>218</v>
       </c>
+      <c r="HU11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8641,9 @@
       <c r="HT12" t="n">
         <v>142</v>
       </c>
+      <c r="HU12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9332,9 @@
       <c r="HT13" t="n">
         <v>360</v>
       </c>
+      <c r="HU13" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10023,9 @@
       <c r="HT14" t="n">
         <v>1.54</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10714,9 @@
       <c r="HT15" t="n">
         <v>78</v>
       </c>
+      <c r="HU15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11405,9 @@
       <c r="HT16" t="n">
         <v>75</v>
       </c>
+      <c r="HU16" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12096,9 @@
       <c r="HT17" t="n">
         <v>47</v>
       </c>
+      <c r="HU17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12787,9 @@
       <c r="HT18" t="n">
         <v>23</v>
       </c>
+      <c r="HU18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13478,9 @@
       <c r="HT19" t="n">
         <v>27</v>
       </c>
+      <c r="HU19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14169,9 @@
       <c r="HT20" t="n">
         <v>13</v>
       </c>
+      <c r="HU20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14860,9 @@
       <c r="HT21" t="n">
         <v>8</v>
       </c>
+      <c r="HU21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15551,9 @@
       <c r="HT22" t="n">
         <v>11</v>
       </c>
+      <c r="HU22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16242,9 @@
       <c r="HT23" t="n">
         <v>5</v>
       </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +16933,9 @@
       <c r="HT24" t="n">
         <v>29</v>
       </c>
+      <c r="HU24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17624,9 @@
       <c r="HT25" t="n">
         <v>44.8</v>
       </c>
+      <c r="HU25" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18315,9 @@
       <c r="HT26" t="n">
         <v>27.69</v>
       </c>
+      <c r="HU26" t="n">
+        <v>23.79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19006,9 @@
       <c r="HT27" t="n">
         <v>12.41</v>
       </c>
+      <c r="HU27" t="n">
+        <v>13.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19697,9 @@
       <c r="HT28" t="n">
         <v>33</v>
       </c>
+      <c r="HU28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20388,9 @@
       <c r="HT29" t="n">
         <v>82</v>
       </c>
+      <c r="HU29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21079,9 @@
       <c r="HT30" t="n">
         <v>43</v>
       </c>
+      <c r="HU30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21770,9 @@
       <c r="HT31" t="n">
         <v>52</v>
       </c>
+      <c r="HU31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22461,9 @@
       <c r="HT32" t="n">
         <v>1.79</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23152,9 @@
       <c r="HT33" t="n">
         <v>4</v>
       </c>
+      <c r="HU33" t="n">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23843,9 @@
       <c r="HT34" t="n">
         <v>46.2</v>
       </c>
+      <c r="HU34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24534,9 @@
       <c r="HT35" t="n">
         <v>25</v>
       </c>
+      <c r="HU35" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25225,9 @@
       <c r="HT36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HU36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25916,9 @@
       <c r="HT37" t="n">
         <v>86.7</v>
       </c>
+      <c r="HU37" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26607,9 @@
       <c r="HT38" t="n">
         <v>24.91</v>
       </c>
+      <c r="HU38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27298,9 @@
       <c r="HT39" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HU39" t="n">
+        <v>92.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +27989,9 @@
       <c r="HT40" t="n">
         <v>7</v>
       </c>
+      <c r="HU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28680,9 @@
       <c r="HT41" t="n">
         <v>4</v>
       </c>
+      <c r="HU41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29371,9 @@
       <c r="HT42" t="n">
         <v>8</v>
       </c>
+      <c r="HU42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30062,9 @@
       <c r="HT43" t="n">
         <v>3</v>
       </c>
+      <c r="HU43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30753,9 @@
       <c r="HT44" t="n">
         <v>152</v>
       </c>
+      <c r="HU44" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31444,9 @@
       <c r="HT45" t="n">
         <v>204</v>
       </c>
+      <c r="HU45" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32135,9 @@
       <c r="HT46" t="n">
         <v>242</v>
       </c>
+      <c r="HU46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32826,9 @@
       <c r="HT47" t="n">
         <v>67.2</v>
       </c>
+      <c r="HU47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33517,9 @@
       <c r="HT48" t="n">
         <v>82</v>
       </c>
+      <c r="HU48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34208,9 @@
       <c r="HT49" t="n">
         <v>10</v>
       </c>
+      <c r="HU49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34899,9 @@
       <c r="HT50" t="n">
         <v>14</v>
       </c>
+      <c r="HU50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35590,9 @@
       <c r="HT51" t="n">
         <v>33</v>
       </c>
+      <c r="HU51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36281,9 @@
       <c r="HT52" t="n">
         <v>43</v>
       </c>
+      <c r="HU52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +36972,9 @@
       <c r="HT53" t="n">
         <v>52</v>
       </c>
+      <c r="HU53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37663,9 @@
       <c r="HT54" t="n">
         <v>5</v>
       </c>
+      <c r="HU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38354,9 @@
       <c r="HT55" t="n">
         <v>8</v>
       </c>
+      <c r="HU55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39045,9 @@
       <c r="HT56" t="n">
         <v>61.5</v>
       </c>
+      <c r="HU56" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39736,9 @@
       <c r="HT57" t="n">
         <v>210</v>
       </c>
+      <c r="HU57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40427,9 @@
       <c r="HT58" t="n">
         <v>130</v>
       </c>
+      <c r="HU58" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41118,9 @@
       <c r="HT59" t="n">
         <v>340</v>
       </c>
+      <c r="HU59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41809,9 @@
       <c r="HT60" t="n">
         <v>1.62</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42500,9 @@
       <c r="HT61" t="n">
         <v>69</v>
       </c>
+      <c r="HU61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43191,9 @@
       <c r="HT62" t="n">
         <v>77</v>
       </c>
+      <c r="HU62" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43882,9 @@
       <c r="HT63" t="n">
         <v>26</v>
       </c>
+      <c r="HU63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44573,9 @@
       <c r="HT64" t="n">
         <v>27</v>
       </c>
+      <c r="HU64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45264,9 @@
       <c r="HT65" t="n">
         <v>23</v>
       </c>
+      <c r="HU65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +45955,9 @@
       <c r="HT66" t="n">
         <v>10</v>
       </c>
+      <c r="HU66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46646,9 @@
       <c r="HT67" t="n">
         <v>5</v>
       </c>
+      <c r="HU67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47337,9 @@
       <c r="HT68" t="n">
         <v>7</v>
       </c>
+      <c r="HU68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48028,9 @@
       <c r="HT69" t="n">
         <v>1</v>
       </c>
+      <c r="HU69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48719,9 @@
       <c r="HT70" t="n">
         <v>18</v>
       </c>
+      <c r="HU70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49410,9 @@
       <c r="HT71" t="n">
         <v>55.6</v>
       </c>
+      <c r="HU71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50101,9 @@
       <c r="HT72" t="n">
         <v>34</v>
       </c>
+      <c r="HU72" t="n">
+        <v>24.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50792,9 @@
       <c r="HT73" t="n">
         <v>18.89</v>
       </c>
+      <c r="HU73" t="n">
+        <v>17.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51483,9 @@
       <c r="HT74" t="n">
         <v>48</v>
       </c>
+      <c r="HU74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52174,9 @@
       <c r="HT75" t="n">
         <v>70</v>
       </c>
+      <c r="HU75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52865,9 @@
       <c r="HT76" t="n">
         <v>37</v>
       </c>
+      <c r="HU76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53556,9 @@
       <c r="HT77" t="n">
         <v>53</v>
       </c>
+      <c r="HU77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54247,9 @@
       <c r="HT78" t="n">
         <v>2.94</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +54938,9 @@
       <c r="HT79" t="n">
         <v>5.3</v>
       </c>
+      <c r="HU79" t="n">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55629,9 @@
       <c r="HT80" t="n">
         <v>32.1</v>
       </c>
+      <c r="HU80" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56320,9 @@
       <c r="HT81" t="n">
         <v>18.9</v>
       </c>
+      <c r="HU81" t="n">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57011,9 @@
       <c r="HT82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HU82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57702,9 @@
       <c r="HT83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="HU83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58393,9 @@
       <c r="HT84" t="n">
         <v>26</v>
       </c>
+      <c r="HU84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59084,9 @@
       <c r="HT85" t="n">
         <v>95.7</v>
       </c>
+      <c r="HU85" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59775,9 @@
       <c r="HT86" t="n">
         <v>10</v>
       </c>
+      <c r="HU86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60466,9 @@
       <c r="HT87" t="n">
         <v>2</v>
       </c>
+      <c r="HU87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61157,9 @@
       <c r="HT88" t="n">
         <v>6</v>
       </c>
+      <c r="HU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61848,9 @@
       <c r="HT89" t="n">
         <v>5</v>
       </c>
+      <c r="HU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62539,9 @@
       <c r="HT90" t="n">
         <v>133</v>
       </c>
+      <c r="HU90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63230,9 @@
       <c r="HT91" t="n">
         <v>190</v>
       </c>
+      <c r="HU91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63921,9 @@
       <c r="HT92" t="n">
         <v>223</v>
       </c>
+      <c r="HU92" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64612,9 @@
       <c r="HT93" t="n">
         <v>65.59999999999999</v>
       </c>
+      <c r="HU93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65303,9 @@
       <c r="HT94" t="n">
         <v>70</v>
       </c>
+      <c r="HU94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +65994,9 @@
       <c r="HT95" t="n">
         <v>9</v>
       </c>
+      <c r="HU95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66685,9 @@
       <c r="HT96" t="n">
         <v>6</v>
       </c>
+      <c r="HU96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67376,9 @@
       <c r="HT97" t="n">
         <v>48</v>
       </c>
+      <c r="HU97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68067,9 @@
       <c r="HT98" t="n">
         <v>37</v>
       </c>
+      <c r="HU98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68758,9 @@
       <c r="HT99" t="n">
         <v>57</v>
       </c>
+      <c r="HU99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69449,9 @@
       <c r="HT100" t="n">
         <v>8</v>
       </c>
+      <c r="HU100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70140,9 @@
       <c r="HT101" t="n">
         <v>5</v>
       </c>
+      <c r="HU101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70831,9 @@
       <c r="HT102" t="n">
         <v>50</v>
       </c>
+      <c r="HU102" t="n">
+        <v>73.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,9 @@
       <c r="HV1" t="n">
         <v>10422</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10430</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1740,6 +1743,9 @@
       <c r="HV2" t="n">
         <v>2021</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2440,9 @@
       <c r="HV3" t="n">
         <v>11</v>
       </c>
+      <c r="HW3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3128,6 +3137,9 @@
       <c r="HV4" t="n">
         <v>1</v>
       </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3822,6 +3834,9 @@
       <c r="HV5" t="n">
         <v>1</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4516,6 +4531,9 @@
       <c r="HV6" t="n">
         <v>87</v>
       </c>
+      <c r="HW6" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5210,6 +5228,9 @@
       <c r="HV7" t="n">
         <v>59</v>
       </c>
+      <c r="HW7" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5904,6 +5925,9 @@
       <c r="HV8" t="n">
         <v>28</v>
       </c>
+      <c r="HW8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6598,6 +6622,9 @@
       <c r="HV9" t="n">
         <v>1</v>
       </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7292,6 +7319,9 @@
       <c r="HV10" t="n">
         <v>18</v>
       </c>
+      <c r="HW10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7986,6 +8016,9 @@
       <c r="HV11" t="n">
         <v>211</v>
       </c>
+      <c r="HW11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8680,6 +8713,9 @@
       <c r="HV12" t="n">
         <v>128</v>
       </c>
+      <c r="HW12" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9374,6 +9410,9 @@
       <c r="HV13" t="n">
         <v>339</v>
       </c>
+      <c r="HW13" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10068,6 +10107,9 @@
       <c r="HV14" t="n">
         <v>1.65</v>
       </c>
+      <c r="HW14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10762,6 +10804,9 @@
       <c r="HV15" t="n">
         <v>96</v>
       </c>
+      <c r="HW15" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11456,6 +11501,9 @@
       <c r="HV16" t="n">
         <v>46</v>
       </c>
+      <c r="HW16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12150,6 +12198,9 @@
       <c r="HV17" t="n">
         <v>38</v>
       </c>
+      <c r="HW17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12844,6 +12895,9 @@
       <c r="HV18" t="n">
         <v>15</v>
       </c>
+      <c r="HW18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13538,6 +13592,9 @@
       <c r="HV19" t="n">
         <v>16</v>
       </c>
+      <c r="HW19" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14232,6 +14289,9 @@
       <c r="HV20" t="n">
         <v>13</v>
       </c>
+      <c r="HW20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14926,6 +14986,9 @@
       <c r="HV21" t="n">
         <v>10</v>
       </c>
+      <c r="HW21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15620,6 +15683,9 @@
       <c r="HV22" t="n">
         <v>7</v>
       </c>
+      <c r="HW22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16314,6 +16380,9 @@
       <c r="HV23" t="n">
         <v>2</v>
       </c>
+      <c r="HW23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17008,6 +17077,9 @@
       <c r="HV24" t="n">
         <v>22</v>
       </c>
+      <c r="HW24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17702,6 +17774,9 @@
       <c r="HV25" t="n">
         <v>59.1</v>
       </c>
+      <c r="HW25" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18396,6 +18471,9 @@
       <c r="HV26" t="n">
         <v>26.08</v>
       </c>
+      <c r="HW26" t="n">
+        <v>22.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19090,6 +19168,9 @@
       <c r="HV27" t="n">
         <v>15.41</v>
       </c>
+      <c r="HW27" t="n">
+        <v>11.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19784,6 +19865,9 @@
       <c r="HV28" t="n">
         <v>27</v>
       </c>
+      <c r="HW28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20478,6 +20562,9 @@
       <c r="HV29" t="n">
         <v>57</v>
       </c>
+      <c r="HW29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21172,6 +21259,9 @@
       <c r="HV30" t="n">
         <v>44</v>
       </c>
+      <c r="HW30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21866,6 +21956,9 @@
       <c r="HV31" t="n">
         <v>46</v>
       </c>
+      <c r="HW31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22560,6 +22653,9 @@
       <c r="HV32" t="n">
         <v>2.09</v>
       </c>
+      <c r="HW32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23254,6 +23350,9 @@
       <c r="HV33" t="n">
         <v>3.54</v>
       </c>
+      <c r="HW33" t="n">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23948,6 +24047,9 @@
       <c r="HV34" t="n">
         <v>43.5</v>
       </c>
+      <c r="HW34" t="n">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24642,6 +24744,9 @@
       <c r="HV35" t="n">
         <v>28.3</v>
       </c>
+      <c r="HW35" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25336,6 +25441,9 @@
       <c r="HV36" t="n">
         <v>187.8</v>
       </c>
+      <c r="HW36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26030,6 +26138,9 @@
       <c r="HV37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HW37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26724,6 +26835,9 @@
       <c r="HV38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HW38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27418,6 +27532,9 @@
       <c r="HV39" t="n">
         <v>88.3</v>
       </c>
+      <c r="HW39" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28112,6 +28229,9 @@
       <c r="HV40" t="n">
         <v>8</v>
       </c>
+      <c r="HW40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28806,6 +28926,9 @@
       <c r="HV41" t="n">
         <v>4</v>
       </c>
+      <c r="HW41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29500,6 +29623,9 @@
       <c r="HV42" t="n">
         <v>7</v>
       </c>
+      <c r="HW42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30194,6 +30320,9 @@
       <c r="HV43" t="n">
         <v>4</v>
       </c>
+      <c r="HW43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30888,6 +31017,9 @@
       <c r="HV44" t="n">
         <v>136</v>
       </c>
+      <c r="HW44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31582,6 +31714,9 @@
       <c r="HV45" t="n">
         <v>194</v>
       </c>
+      <c r="HW45" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32276,6 +32411,9 @@
       <c r="HV46" t="n">
         <v>250</v>
       </c>
+      <c r="HW46" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32970,6 +33108,9 @@
       <c r="HV47" t="n">
         <v>73.7</v>
       </c>
+      <c r="HW47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33664,6 +33805,9 @@
       <c r="HV48" t="n">
         <v>57</v>
       </c>
+      <c r="HW48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34358,6 +34502,9 @@
       <c r="HV49" t="n">
         <v>16</v>
       </c>
+      <c r="HW49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35052,6 +35199,9 @@
       <c r="HV50" t="n">
         <v>16</v>
       </c>
+      <c r="HW50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35746,6 +35896,9 @@
       <c r="HV51" t="n">
         <v>27</v>
       </c>
+      <c r="HW51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36440,6 +36593,9 @@
       <c r="HV52" t="n">
         <v>44</v>
       </c>
+      <c r="HW52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37134,6 +37290,9 @@
       <c r="HV53" t="n">
         <v>45</v>
       </c>
+      <c r="HW53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37828,6 +37987,9 @@
       <c r="HV54" t="n">
         <v>4</v>
       </c>
+      <c r="HW54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38522,6 +38684,9 @@
       <c r="HV55" t="n">
         <v>10</v>
       </c>
+      <c r="HW55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39216,6 +39381,9 @@
       <c r="HV56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HW56" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39910,6 +40078,9 @@
       <c r="HV57" t="n">
         <v>235</v>
       </c>
+      <c r="HW57" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40604,6 +40775,9 @@
       <c r="HV58" t="n">
         <v>158</v>
       </c>
+      <c r="HW58" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41298,6 +41472,9 @@
       <c r="HV59" t="n">
         <v>393</v>
       </c>
+      <c r="HW59" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41992,6 +42169,9 @@
       <c r="HV60" t="n">
         <v>1.49</v>
       </c>
+      <c r="HW60" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42686,6 +42866,9 @@
       <c r="HV61" t="n">
         <v>105</v>
       </c>
+      <c r="HW61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43380,6 +43563,9 @@
       <c r="HV62" t="n">
         <v>57</v>
       </c>
+      <c r="HW62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44074,6 +44260,9 @@
       <c r="HV63" t="n">
         <v>26</v>
       </c>
+      <c r="HW63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44768,6 +44957,9 @@
       <c r="HV64" t="n">
         <v>16</v>
       </c>
+      <c r="HW64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45462,6 +45654,9 @@
       <c r="HV65" t="n">
         <v>15</v>
       </c>
+      <c r="HW65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46156,6 +46351,9 @@
       <c r="HV66" t="n">
         <v>8</v>
       </c>
+      <c r="HW66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46850,6 +47048,9 @@
       <c r="HV67" t="n">
         <v>6</v>
       </c>
+      <c r="HW67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47544,6 +47745,9 @@
       <c r="HV68" t="n">
         <v>5</v>
       </c>
+      <c r="HW68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48238,6 +48442,9 @@
       <c r="HV69" t="n">
         <v>6</v>
       </c>
+      <c r="HW69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48932,6 +49139,9 @@
       <c r="HV70" t="n">
         <v>19</v>
       </c>
+      <c r="HW70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49626,6 +49836,9 @@
       <c r="HV71" t="n">
         <v>42.1</v>
       </c>
+      <c r="HW71" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50320,6 +50533,9 @@
       <c r="HV72" t="n">
         <v>49.12</v>
       </c>
+      <c r="HW72" t="n">
+        <v>31.45</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51014,6 +51230,9 @@
       <c r="HV73" t="n">
         <v>20.68</v>
       </c>
+      <c r="HW73" t="n">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51708,6 +51927,9 @@
       <c r="HV74" t="n">
         <v>36</v>
       </c>
+      <c r="HW74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52402,6 +52624,9 @@
       <c r="HV75" t="n">
         <v>46</v>
       </c>
+      <c r="HW75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53096,6 +53321,9 @@
       <c r="HV76" t="n">
         <v>31</v>
       </c>
+      <c r="HW76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53790,6 +54018,9 @@
       <c r="HV77" t="n">
         <v>52</v>
       </c>
+      <c r="HW77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54484,6 +54715,9 @@
       <c r="HV78" t="n">
         <v>2.74</v>
       </c>
+      <c r="HW78" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55178,6 +55412,9 @@
       <c r="HV79" t="n">
         <v>6.5</v>
       </c>
+      <c r="HW79" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55872,6 +56109,9 @@
       <c r="HV80" t="n">
         <v>25</v>
       </c>
+      <c r="HW80" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56566,6 +56806,9 @@
       <c r="HV81" t="n">
         <v>15.4</v>
       </c>
+      <c r="HW81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57260,6 +57503,9 @@
       <c r="HV82" t="n">
         <v>186.7</v>
       </c>
+      <c r="HW82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57954,6 +58200,9 @@
       <c r="HV83" t="n">
         <v>84.3</v>
       </c>
+      <c r="HW83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58648,6 +58897,9 @@
       <c r="HV84" t="n">
         <v>24.66</v>
       </c>
+      <c r="HW84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59342,6 +59594,9 @@
       <c r="HV85" t="n">
         <v>81.8</v>
       </c>
+      <c r="HW85" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60036,6 +60291,9 @@
       <c r="HV86" t="n">
         <v>6</v>
       </c>
+      <c r="HW86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60730,6 +60988,9 @@
       <c r="HV87" t="n">
         <v>8</v>
       </c>
+      <c r="HW87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61424,6 +61685,9 @@
       <c r="HV88" t="n">
         <v>5</v>
       </c>
+      <c r="HW88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62118,6 +62382,9 @@
       <c r="HV89" t="n">
         <v>4</v>
       </c>
+      <c r="HW89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62812,6 +63079,9 @@
       <c r="HV90" t="n">
         <v>118</v>
       </c>
+      <c r="HW90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63506,6 +63776,9 @@
       <c r="HV91" t="n">
         <v>267</v>
       </c>
+      <c r="HW91" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64200,6 +64473,9 @@
       <c r="HV92" t="n">
         <v>301</v>
       </c>
+      <c r="HW92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64894,6 +65170,9 @@
       <c r="HV93" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="HW93" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65588,6 +65867,9 @@
       <c r="HV94" t="n">
         <v>46</v>
       </c>
+      <c r="HW94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66282,6 +66564,9 @@
       <c r="HV95" t="n">
         <v>7</v>
       </c>
+      <c r="HW95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66976,6 +67261,9 @@
       <c r="HV96" t="n">
         <v>11</v>
       </c>
+      <c r="HW96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67670,6 +67958,9 @@
       <c r="HV97" t="n">
         <v>36</v>
       </c>
+      <c r="HW97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68364,6 +68655,9 @@
       <c r="HV98" t="n">
         <v>31</v>
       </c>
+      <c r="HW98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69058,6 +69352,9 @@
       <c r="HV99" t="n">
         <v>58</v>
       </c>
+      <c r="HW99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69752,6 +70049,9 @@
       <c r="HV100" t="n">
         <v>12</v>
       </c>
+      <c r="HW100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70446,6 +70746,9 @@
       <c r="HV101" t="n">
         <v>6</v>
       </c>
+      <c r="HW101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71140,6 +71443,9 @@
       <c r="HV102" t="n">
         <v>75</v>
       </c>
+      <c r="HW102" t="n">
+        <v>36.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10430</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10432</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1746,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2443,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>12</v>
       </c>
+      <c r="HX3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3837,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4534,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>97</v>
       </c>
+      <c r="HX6" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5231,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>75</v>
       </c>
+      <c r="HX7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5928,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>22</v>
       </c>
+      <c r="HX8" t="n">
+        <v>-17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6625,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7322,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>2</v>
       </c>
+      <c r="HX10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8019,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>192</v>
       </c>
+      <c r="HX11" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8716,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>122</v>
       </c>
+      <c r="HX12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9413,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>314</v>
       </c>
+      <c r="HX13" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10110,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>1.57</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10807,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>79</v>
       </c>
+      <c r="HX15" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11504,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>59</v>
       </c>
+      <c r="HX16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12201,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>37</v>
       </c>
+      <c r="HX17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12898,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>20</v>
       </c>
+      <c r="HX18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13595,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>28</v>
       </c>
+      <c r="HX19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14292,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>14</v>
       </c>
+      <c r="HX20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14989,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>6</v>
       </c>
+      <c r="HX21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15686,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>12</v>
       </c>
+      <c r="HX22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16383,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>1</v>
       </c>
+      <c r="HX23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17080,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>27</v>
       </c>
+      <c r="HX24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17777,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>51.9</v>
       </c>
+      <c r="HX25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18474,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>22.43</v>
       </c>
+      <c r="HX26" t="n">
+        <v>39.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19171,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>11.63</v>
       </c>
+      <c r="HX27" t="n">
+        <v>19.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19868,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>37</v>
       </c>
+      <c r="HX28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20565,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>59</v>
       </c>
+      <c r="HX29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21262,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>38</v>
       </c>
+      <c r="HX30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21959,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>54</v>
       </c>
+      <c r="HX31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22656,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>2</v>
       </c>
+      <c r="HX32" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23353,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>3.86</v>
       </c>
+      <c r="HX33" t="n">
+        <v>5.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24050,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>48.1</v>
       </c>
+      <c r="HX34" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24747,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>25.9</v>
       </c>
+      <c r="HX35" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25444,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>188</v>
       </c>
+      <c r="HX36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26141,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>86.5</v>
       </c>
+      <c r="HX37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26838,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HX38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27535,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HX39" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28232,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>8</v>
       </c>
+      <c r="HX40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28929,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>3</v>
       </c>
+      <c r="HX41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29626,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>7</v>
       </c>
+      <c r="HX42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30323,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>4</v>
       </c>
+      <c r="HX43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31020,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>138</v>
       </c>
+      <c r="HX44" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31717,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>180</v>
       </c>
+      <c r="HX45" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32414,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>232</v>
       </c>
+      <c r="HX46" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33111,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="HX47" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33808,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>59</v>
       </c>
+      <c r="HX48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34505,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>16</v>
       </c>
+      <c r="HX49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35202,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>12</v>
       </c>
+      <c r="HX50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35899,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>37</v>
       </c>
+      <c r="HX51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36596,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>38</v>
       </c>
+      <c r="HX52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37293,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>51</v>
       </c>
+      <c r="HX53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37990,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>7</v>
       </c>
+      <c r="HX54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38687,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>6</v>
       </c>
+      <c r="HX55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39384,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>42.9</v>
       </c>
+      <c r="HX56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40081,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>233</v>
       </c>
+      <c r="HX57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40778,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>113</v>
       </c>
+      <c r="HX58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41475,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>346</v>
       </c>
+      <c r="HX59" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42172,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>2.06</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42869,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>105</v>
       </c>
+      <c r="HX61" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43566,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>60</v>
       </c>
+      <c r="HX62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44263,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>20</v>
       </c>
+      <c r="HX63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44960,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>28</v>
       </c>
+      <c r="HX64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45657,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>20</v>
       </c>
+      <c r="HX65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46354,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>11</v>
       </c>
+      <c r="HX66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47051,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>4</v>
       </c>
+      <c r="HX67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47748,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>7</v>
       </c>
+      <c r="HX68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48445,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>2</v>
       </c>
+      <c r="HX69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49142,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>20</v>
       </c>
+      <c r="HX70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49839,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>55</v>
       </c>
+      <c r="HX71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50536,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>31.45</v>
       </c>
+      <c r="HX72" t="n">
+        <v>35.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51233,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>17.3</v>
       </c>
+      <c r="HX73" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51930,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>35</v>
       </c>
+      <c r="HX74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52627,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>47</v>
       </c>
+      <c r="HX75" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53324,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>40</v>
       </c>
+      <c r="HX76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54021,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>49</v>
       </c>
+      <c r="HX77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54718,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>2.45</v>
       </c>
+      <c r="HX78" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55415,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>4.45</v>
       </c>
+      <c r="HX79" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56112,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>36.7</v>
       </c>
+      <c r="HX80" t="n">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56809,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>22.4</v>
       </c>
+      <c r="HX81" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57506,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HX82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58203,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>87</v>
       </c>
+      <c r="HX83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58900,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>26.16</v>
       </c>
+      <c r="HX84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59597,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>111.8</v>
       </c>
+      <c r="HX85" t="n">
+        <v>94.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60294,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>5</v>
       </c>
+      <c r="HX86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60991,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>6</v>
       </c>
+      <c r="HX87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61688,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>6</v>
       </c>
+      <c r="HX88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62385,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>6</v>
       </c>
+      <c r="HX89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63082,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>133</v>
       </c>
+      <c r="HX90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63779,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>197</v>
       </c>
+      <c r="HX91" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64476,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>257</v>
       </c>
+      <c r="HX92" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65173,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>74.3</v>
       </c>
+      <c r="HX93" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65870,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>47</v>
       </c>
+      <c r="HX94" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66567,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>13</v>
       </c>
+      <c r="HX95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67264,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>10</v>
       </c>
+      <c r="HX96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67961,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>35</v>
       </c>
+      <c r="HX97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68658,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>40</v>
       </c>
+      <c r="HX98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69355,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>42</v>
       </c>
+      <c r="HX99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70052,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>2</v>
       </c>
+      <c r="HX100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70749,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>4</v>
       </c>
+      <c r="HX101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71446,6 +71749,9 @@
       <c r="HW102" t="n">
         <v>36.4</v>
       </c>
+      <c r="HX102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,9 @@
       <c r="HY1" t="n">
         <v>10447</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10457</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1761,9 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2467,9 @@
       <c r="HY3" t="n">
         <v>15</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3173,9 @@
       <c r="HY4" t="n">
         <v>1</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3879,9 @@
       <c r="HY5" t="n">
         <v>1</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4585,9 @@
       <c r="HY6" t="n">
         <v>68</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5291,9 @@
       <c r="HY7" t="n">
         <v>57</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +5997,9 @@
       <c r="HY8" t="n">
         <v>11</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6703,9 @@
       <c r="HY9" t="n">
         <v>1</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7409,9 @@
       <c r="HY10" t="n">
         <v>5</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8115,9 @@
       <c r="HY11" t="n">
         <v>225</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8821,9 @@
       <c r="HY12" t="n">
         <v>154</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9527,9 @@
       <c r="HY13" t="n">
         <v>379</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10233,9 @@
       <c r="HY14" t="n">
         <v>1.46</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10939,9 @@
       <c r="HY15" t="n">
         <v>114</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11645,9 @@
       <c r="HY16" t="n">
         <v>47</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12351,9 @@
       <c r="HY17" t="n">
         <v>40</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13057,9 @@
       <c r="HY18" t="n">
         <v>15</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13763,9 @@
       <c r="HY19" t="n">
         <v>10</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14469,9 @@
       <c r="HY20" t="n">
         <v>9</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15175,9 @@
       <c r="HY21" t="n">
         <v>6</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15881,9 @@
       <c r="HY22" t="n">
         <v>8</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16587,9 @@
       <c r="HY23" t="n">
         <v>6</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17293,9 @@
       <c r="HY24" t="n">
         <v>23</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +17999,9 @@
       <c r="HY25" t="n">
         <v>39.1</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18705,9 @@
       <c r="HY26" t="n">
         <v>42.11</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19411,9 @@
       <c r="HY27" t="n">
         <v>16.48</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20117,9 @@
       <c r="HY28" t="n">
         <v>32</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20823,9 @@
       <c r="HY29" t="n">
         <v>54</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21529,9 @@
       <c r="HY30" t="n">
         <v>41</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22235,9 @@
       <c r="HY31" t="n">
         <v>56</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +22941,9 @@
       <c r="HY32" t="n">
         <v>2.43</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23647,9 @@
       <c r="HY33" t="n">
         <v>6.22</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24353,9 @@
       <c r="HY34" t="n">
         <v>30.4</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25059,9 @@
       <c r="HY35" t="n">
         <v>16.1</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25765,9 @@
       <c r="HY36" t="n">
         <v>187.1</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26471,9 @@
       <c r="HY37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27177,9 @@
       <c r="HY38" t="n">
         <v>24.74</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27883,9 @@
       <c r="HY39" t="n">
         <v>90.59999999999999</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28589,9 @@
       <c r="HY40" t="n">
         <v>7</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29295,9 @@
       <c r="HY41" t="n">
         <v>4</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30001,9 @@
       <c r="HY42" t="n">
         <v>8</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30707,9 @@
       <c r="HY43" t="n">
         <v>3</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31413,9 @@
       <c r="HY44" t="n">
         <v>150</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32119,9 @@
       <c r="HY45" t="n">
         <v>228</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32825,9 @@
       <c r="HY46" t="n">
         <v>274</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33531,9 @@
       <c r="HY47" t="n">
         <v>72.3</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34237,9 @@
       <c r="HY48" t="n">
         <v>54</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +34943,9 @@
       <c r="HY49" t="n">
         <v>10</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35649,9 @@
       <c r="HY50" t="n">
         <v>14</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36355,9 @@
       <c r="HY51" t="n">
         <v>32</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37061,9 @@
       <c r="HY52" t="n">
         <v>41</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37767,9 @@
       <c r="HY53" t="n">
         <v>52</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38473,9 @@
       <c r="HY54" t="n">
         <v>7</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39179,9 @@
       <c r="HY55" t="n">
         <v>6</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +39885,9 @@
       <c r="HY56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40591,9 @@
       <c r="HY57" t="n">
         <v>205</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41297,9 @@
       <c r="HY58" t="n">
         <v>192</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42003,9 @@
       <c r="HY59" t="n">
         <v>397</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42709,9 @@
       <c r="HY60" t="n">
         <v>1.07</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43415,9 @@
       <c r="HY61" t="n">
         <v>93</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44121,9 @@
       <c r="HY62" t="n">
         <v>61</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +44827,9 @@
       <c r="HY63" t="n">
         <v>23</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45533,9 @@
       <c r="HY64" t="n">
         <v>11</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46239,9 @@
       <c r="HY65" t="n">
         <v>15</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +46945,9 @@
       <c r="HY66" t="n">
         <v>8</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47651,9 @@
       <c r="HY67" t="n">
         <v>4</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48357,9 @@
       <c r="HY68" t="n">
         <v>7</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49063,9 @@
       <c r="HY69" t="n">
         <v>2</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49769,9 @@
       <c r="HY70" t="n">
         <v>17</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50475,9 @@
       <c r="HY71" t="n">
         <v>47.1</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51181,9 @@
       <c r="HY72" t="n">
         <v>49.62</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>38.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +51887,9 @@
       <c r="HY73" t="n">
         <v>23.35</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>18.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52593,9 @@
       <c r="HY74" t="n">
         <v>36</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53299,9 @@
       <c r="HY75" t="n">
         <v>55</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54005,9 @@
       <c r="HY76" t="n">
         <v>47</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54711,9 @@
       <c r="HY77" t="n">
         <v>50</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55417,9 @@
       <c r="HY78" t="n">
         <v>2.94</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56123,9 @@
       <c r="HY79" t="n">
         <v>6.25</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>6.11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +56829,9 @@
       <c r="HY80" t="n">
         <v>30</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57535,9 @@
       <c r="HY81" t="n">
         <v>16</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58241,9 @@
       <c r="HY82" t="n">
         <v>188.8</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +58947,9 @@
       <c r="HY83" t="n">
         <v>86.5</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59653,9 @@
       <c r="HY84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60359,9 @@
       <c r="HY85" t="n">
         <v>76.09999999999999</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>93.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61065,9 @@
       <c r="HY86" t="n">
         <v>9</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +61771,9 @@
       <c r="HY87" t="n">
         <v>6</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62477,9 @@
       <c r="HY88" t="n">
         <v>3</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63183,9 @@
       <c r="HY89" t="n">
         <v>4</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +63889,9 @@
       <c r="HY90" t="n">
         <v>121</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64595,9 @@
       <c r="HY91" t="n">
         <v>267</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65301,9 @@
       <c r="HY92" t="n">
         <v>300</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66007,9 @@
       <c r="HY93" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66713,9 @@
       <c r="HY94" t="n">
         <v>55</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67419,9 @@
       <c r="HY95" t="n">
         <v>9</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68125,9 @@
       <c r="HY96" t="n">
         <v>8</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +68831,9 @@
       <c r="HY97" t="n">
         <v>36</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69537,9 @@
       <c r="HY98" t="n">
         <v>47</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70243,9 @@
       <c r="HY99" t="n">
         <v>41</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +70949,9 @@
       <c r="HY100" t="n">
         <v>10</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71655,9 @@
       <c r="HY101" t="n">
         <v>4</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,8 +72361,11 @@
       <c r="HY102" t="n">
         <v>50</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10457</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10469</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>16</v>
       </c>
+      <c r="IA3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>1</v>
       </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>55</v>
       </c>
+      <c r="IA6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>64</v>
       </c>
+      <c r="IA7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>-9</v>
       </c>
+      <c r="IA8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>0</v>
       </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>9</v>
       </c>
+      <c r="IA10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>227</v>
       </c>
+      <c r="IA11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>151</v>
       </c>
+      <c r="IA12" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>378</v>
       </c>
+      <c r="IA13" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.5</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>115</v>
       </c>
+      <c r="IA15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>63</v>
       </c>
+      <c r="IA16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>29</v>
       </c>
+      <c r="IA17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>19</v>
       </c>
+      <c r="IA18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>20</v>
       </c>
+      <c r="IA19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>7</v>
       </c>
+      <c r="IA20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>6</v>
       </c>
+      <c r="IA21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>10</v>
       </c>
+      <c r="IA22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>3</v>
       </c>
+      <c r="IA23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>20</v>
       </c>
+      <c r="IA24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>35</v>
       </c>
+      <c r="IA25" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>54</v>
       </c>
+      <c r="IA26" t="n">
+        <v>29.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>18.9</v>
       </c>
+      <c r="IA27" t="n">
+        <v>13.65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>24</v>
       </c>
+      <c r="IA28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>59</v>
       </c>
+      <c r="IA29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>45</v>
       </c>
+      <c r="IA30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>56</v>
       </c>
+      <c r="IA31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>2.8</v>
       </c>
+      <c r="IA32" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>8</v>
       </c>
+      <c r="IA33" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>30.4</v>
       </c>
+      <c r="IA34" t="n">
+        <v>51.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>12.5</v>
       </c>
+      <c r="IA35" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IA36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IA37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>24.74</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>91.59999999999999</v>
       </c>
+      <c r="IA39" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>7</v>
       </c>
+      <c r="IA40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>4</v>
       </c>
+      <c r="IA41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>8</v>
       </c>
+      <c r="IA42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>3</v>
       </c>
+      <c r="IA43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>138</v>
       </c>
+      <c r="IA44" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>237</v>
       </c>
+      <c r="IA45" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>282</v>
       </c>
+      <c r="IA46" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="IA47" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>59</v>
       </c>
+      <c r="IA48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>20</v>
       </c>
+      <c r="IA49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>10</v>
       </c>
+      <c r="IA50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>24</v>
       </c>
+      <c r="IA51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>45</v>
       </c>
+      <c r="IA52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>47</v>
       </c>
+      <c r="IA53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>7</v>
       </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>6</v>
       </c>
+      <c r="IA55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>85.7</v>
       </c>
+      <c r="IA56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>209</v>
       </c>
+      <c r="IA57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>135</v>
       </c>
+      <c r="IA58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>344</v>
       </c>
+      <c r="IA59" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>1.55</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>84</v>
       </c>
+      <c r="IA61" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>60</v>
       </c>
+      <c r="IA62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>32</v>
       </c>
+      <c r="IA63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>20</v>
       </c>
+      <c r="IA64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>19</v>
       </c>
+      <c r="IA65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>9</v>
       </c>
+      <c r="IA66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>8</v>
       </c>
+      <c r="IA67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>7</v>
       </c>
+      <c r="IA68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>3</v>
       </c>
+      <c r="IA69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>19</v>
       </c>
+      <c r="IA70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>47.4</v>
       </c>
+      <c r="IA71" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>38.22</v>
       </c>
+      <c r="IA72" t="n">
+        <v>40.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>18.11</v>
       </c>
+      <c r="IA73" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>39</v>
       </c>
+      <c r="IA74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>52</v>
       </c>
+      <c r="IA75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>47</v>
       </c>
+      <c r="IA76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>55</v>
       </c>
+      <c r="IA77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>2.89</v>
       </c>
+      <c r="IA78" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>6.11</v>
       </c>
+      <c r="IA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>29.1</v>
       </c>
+      <c r="IA80" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>16.4</v>
       </c>
+      <c r="IA81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IA82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IA83" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IA84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>93.90000000000001</v>
       </c>
+      <c r="IA85" t="n">
+        <v>99.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>7</v>
       </c>
+      <c r="IA86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>7</v>
       </c>
+      <c r="IA87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>3</v>
       </c>
+      <c r="IA88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>6</v>
       </c>
+      <c r="IA89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>131</v>
       </c>
+      <c r="IA90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>207</v>
       </c>
+      <c r="IA91" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>251</v>
       </c>
+      <c r="IA92" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>73</v>
       </c>
+      <c r="IA93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>52</v>
       </c>
+      <c r="IA94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>9</v>
       </c>
+      <c r="IA95" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>6</v>
       </c>
+      <c r="IA96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>39</v>
       </c>
+      <c r="IA97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>47</v>
       </c>
+      <c r="IA98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>60</v>
       </c>
+      <c r="IA99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>4</v>
       </c>
+      <c r="IA100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>8</v>
       </c>
+      <c r="IA101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="IA102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,9 @@
       <c r="IA1" t="n">
         <v>10469</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10474</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1773,9 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2485,9 @@
       <c r="IA3" t="n">
         <v>17</v>
       </c>
+      <c r="IB3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3197,9 @@
       <c r="IA4" t="n">
         <v>1</v>
       </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3909,9 @@
       <c r="IA5" t="n">
         <v>1</v>
       </c>
+      <c r="IB5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4621,9 @@
       <c r="IA6" t="n">
         <v>86</v>
       </c>
+      <c r="IB6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5333,9 @@
       <c r="IA7" t="n">
         <v>55</v>
       </c>
+      <c r="IB7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6045,9 @@
       <c r="IA8" t="n">
         <v>31</v>
       </c>
+      <c r="IB8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6757,9 @@
       <c r="IA9" t="n">
         <v>1</v>
       </c>
+      <c r="IB9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7469,9 @@
       <c r="IA10" t="n">
         <v>13</v>
       </c>
+      <c r="IB10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8181,9 @@
       <c r="IA11" t="n">
         <v>220</v>
       </c>
+      <c r="IB11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8893,9 @@
       <c r="IA12" t="n">
         <v>135</v>
       </c>
+      <c r="IB12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9605,9 @@
       <c r="IA13" t="n">
         <v>355</v>
       </c>
+      <c r="IB13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10317,9 @@
       <c r="IA14" t="n">
         <v>1.63</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11029,9 @@
       <c r="IA15" t="n">
         <v>88</v>
       </c>
+      <c r="IB15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11741,9 @@
       <c r="IA16" t="n">
         <v>69</v>
       </c>
+      <c r="IB16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12453,9 @@
       <c r="IA17" t="n">
         <v>42</v>
       </c>
+      <c r="IB17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13165,9 @@
       <c r="IA18" t="n">
         <v>18</v>
       </c>
+      <c r="IB18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13877,9 @@
       <c r="IA19" t="n">
         <v>19</v>
       </c>
+      <c r="IB19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14589,9 @@
       <c r="IA20" t="n">
         <v>12</v>
       </c>
+      <c r="IB20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15301,9 @@
       <c r="IA21" t="n">
         <v>8</v>
       </c>
+      <c r="IB21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16013,9 @@
       <c r="IA22" t="n">
         <v>11</v>
       </c>
+      <c r="IB22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16725,9 @@
       <c r="IA23" t="n">
         <v>3</v>
       </c>
+      <c r="IB23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17437,9 @@
       <c r="IA24" t="n">
         <v>26</v>
       </c>
+      <c r="IB24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18149,9 @@
       <c r="IA25" t="n">
         <v>46.2</v>
       </c>
+      <c r="IB25" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18861,9 @@
       <c r="IA26" t="n">
         <v>29.58</v>
       </c>
+      <c r="IB26" t="n">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19573,9 @@
       <c r="IA27" t="n">
         <v>13.65</v>
       </c>
+      <c r="IB27" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20285,9 @@
       <c r="IA28" t="n">
         <v>36</v>
       </c>
+      <c r="IB28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +20997,9 @@
       <c r="IA29" t="n">
         <v>48</v>
       </c>
+      <c r="IB29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21709,9 @@
       <c r="IA30" t="n">
         <v>39</v>
       </c>
+      <c r="IB30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22421,9 @@
       <c r="IA31" t="n">
         <v>45</v>
       </c>
+      <c r="IB31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23133,9 @@
       <c r="IA32" t="n">
         <v>1.73</v>
       </c>
+      <c r="IB32" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23845,9 @@
       <c r="IA33" t="n">
         <v>3.75</v>
       </c>
+      <c r="IB33" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24557,9 @@
       <c r="IA34" t="n">
         <v>51.1</v>
       </c>
+      <c r="IB34" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25269,9 @@
       <c r="IA35" t="n">
         <v>26.7</v>
       </c>
+      <c r="IB35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +25981,9 @@
       <c r="IA36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IB36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26693,9 @@
       <c r="IA37" t="n">
         <v>86.5</v>
       </c>
+      <c r="IB37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27405,9 @@
       <c r="IA38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IB38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28117,9 @@
       <c r="IA39" t="n">
         <v>98</v>
       </c>
+      <c r="IB39" t="n">
+        <v>95.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28829,9 @@
       <c r="IA40" t="n">
         <v>5</v>
       </c>
+      <c r="IB40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29541,9 @@
       <c r="IA41" t="n">
         <v>4</v>
       </c>
+      <c r="IB41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30253,9 @@
       <c r="IA42" t="n">
         <v>9</v>
       </c>
+      <c r="IB42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +30965,9 @@
       <c r="IA43" t="n">
         <v>4</v>
       </c>
+      <c r="IB43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31677,9 @@
       <c r="IA44" t="n">
         <v>156</v>
       </c>
+      <c r="IB44" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32389,9 @@
       <c r="IA45" t="n">
         <v>194</v>
       </c>
+      <c r="IB45" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33101,9 @@
       <c r="IA46" t="n">
         <v>262</v>
       </c>
+      <c r="IB46" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33813,9 @@
       <c r="IA47" t="n">
         <v>73.8</v>
       </c>
+      <c r="IB47" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34525,9 @@
       <c r="IA48" t="n">
         <v>48</v>
       </c>
+      <c r="IB48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35237,9 @@
       <c r="IA49" t="n">
         <v>15</v>
       </c>
+      <c r="IB49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +35949,9 @@
       <c r="IA50" t="n">
         <v>11</v>
       </c>
+      <c r="IB50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36661,9 @@
       <c r="IA51" t="n">
         <v>36</v>
       </c>
+      <c r="IB51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37373,9 @@
       <c r="IA52" t="n">
         <v>39</v>
       </c>
+      <c r="IB52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38085,9 @@
       <c r="IA53" t="n">
         <v>42</v>
       </c>
+      <c r="IB53" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38797,9 @@
       <c r="IA54" t="n">
         <v>1</v>
       </c>
+      <c r="IB54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39509,9 @@
       <c r="IA55" t="n">
         <v>8</v>
       </c>
+      <c r="IB55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40221,9 @@
       <c r="IA56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IB56" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +40933,9 @@
       <c r="IA57" t="n">
         <v>198</v>
       </c>
+      <c r="IB57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41645,9 @@
       <c r="IA58" t="n">
         <v>129</v>
       </c>
+      <c r="IB58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42357,9 @@
       <c r="IA59" t="n">
         <v>327</v>
       </c>
+      <c r="IB59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43069,9 @@
       <c r="IA60" t="n">
         <v>1.53</v>
       </c>
+      <c r="IB60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43781,9 @@
       <c r="IA61" t="n">
         <v>87</v>
       </c>
+      <c r="IB61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44493,9 @@
       <c r="IA62" t="n">
         <v>61</v>
       </c>
+      <c r="IB62" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45205,9 @@
       <c r="IA63" t="n">
         <v>30</v>
       </c>
+      <c r="IB63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +45917,9 @@
       <c r="IA64" t="n">
         <v>19</v>
       </c>
+      <c r="IB64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46629,9 @@
       <c r="IA65" t="n">
         <v>18</v>
       </c>
+      <c r="IB65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47341,9 @@
       <c r="IA66" t="n">
         <v>8</v>
       </c>
+      <c r="IB66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48053,9 @@
       <c r="IA67" t="n">
         <v>4</v>
       </c>
+      <c r="IB67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48765,9 @@
       <c r="IA68" t="n">
         <v>5</v>
       </c>
+      <c r="IB68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49477,9 @@
       <c r="IA69" t="n">
         <v>2</v>
       </c>
+      <c r="IB69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50189,9 @@
       <c r="IA70" t="n">
         <v>15</v>
       </c>
+      <c r="IB70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +50901,9 @@
       <c r="IA71" t="n">
         <v>53.3</v>
       </c>
+      <c r="IB71" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51613,9 @@
       <c r="IA72" t="n">
         <v>40.88</v>
       </c>
+      <c r="IB72" t="n">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52325,9 @@
       <c r="IA73" t="n">
         <v>21.8</v>
       </c>
+      <c r="IB73" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53037,9 @@
       <c r="IA74" t="n">
         <v>33</v>
       </c>
+      <c r="IB74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53749,9 @@
       <c r="IA75" t="n">
         <v>49</v>
       </c>
+      <c r="IB75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54461,9 @@
       <c r="IA76" t="n">
         <v>32</v>
       </c>
+      <c r="IB76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55173,9 @@
       <c r="IA77" t="n">
         <v>48</v>
       </c>
+      <c r="IB77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +55885,9 @@
       <c r="IA78" t="n">
         <v>3.2</v>
       </c>
+      <c r="IB78" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56597,9 @@
       <c r="IA79" t="n">
         <v>6</v>
       </c>
+      <c r="IB79" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57309,9 @@
       <c r="IA80" t="n">
         <v>27.1</v>
       </c>
+      <c r="IB80" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58021,9 @@
       <c r="IA81" t="n">
         <v>16.7</v>
       </c>
+      <c r="IB81" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58733,9 @@
       <c r="IA82" t="n">
         <v>188.6</v>
       </c>
+      <c r="IB82" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59445,9 @@
       <c r="IA83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IB83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60157,9 @@
       <c r="IA84" t="n">
         <v>25.66</v>
       </c>
+      <c r="IB84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +60869,9 @@
       <c r="IA85" t="n">
         <v>99.09999999999999</v>
       </c>
+      <c r="IB85" t="n">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61581,9 @@
       <c r="IA86" t="n">
         <v>7</v>
       </c>
+      <c r="IB86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62293,9 @@
       <c r="IA87" t="n">
         <v>6</v>
       </c>
+      <c r="IB87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63005,9 @@
       <c r="IA88" t="n">
         <v>5</v>
       </c>
+      <c r="IB88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63717,9 @@
       <c r="IA89" t="n">
         <v>5</v>
       </c>
+      <c r="IB89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64429,9 @@
       <c r="IA90" t="n">
         <v>142</v>
       </c>
+      <c r="IB90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65141,9 @@
       <c r="IA91" t="n">
         <v>169</v>
       </c>
+      <c r="IB91" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +65853,9 @@
       <c r="IA92" t="n">
         <v>231</v>
       </c>
+      <c r="IB92" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66565,9 @@
       <c r="IA93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IB93" t="n">
+        <v>66.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67277,9 @@
       <c r="IA94" t="n">
         <v>49</v>
       </c>
+      <c r="IB94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +67989,9 @@
       <c r="IA95" t="n">
         <v>21</v>
       </c>
+      <c r="IB95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68701,9 @@
       <c r="IA96" t="n">
         <v>8</v>
       </c>
+      <c r="IB96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69413,9 @@
       <c r="IA97" t="n">
         <v>33</v>
       </c>
+      <c r="IB97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70125,9 @@
       <c r="IA98" t="n">
         <v>32</v>
       </c>
+      <c r="IB98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +70837,9 @@
       <c r="IA99" t="n">
         <v>48</v>
       </c>
+      <c r="IB99" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71549,9 @@
       <c r="IA100" t="n">
         <v>1</v>
       </c>
+      <c r="IB100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72261,9 @@
       <c r="IA101" t="n">
         <v>4</v>
       </c>
+      <c r="IB101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +72973,9 @@
       <c r="IA102" t="n">
         <v>50</v>
       </c>
+      <c r="IB102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10474</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10493</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>18</v>
       </c>
+      <c r="IC3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>0</v>
       </c>
+      <c r="IC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>0.5</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>79</v>
       </c>
+      <c r="IC6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>79</v>
       </c>
+      <c r="IC7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>0</v>
       </c>
+      <c r="IC8" t="n">
+        <v>-20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>0.5</v>
       </c>
+      <c r="IC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>10</v>
       </c>
+      <c r="IC10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>221</v>
       </c>
+      <c r="IC11" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>160</v>
       </c>
+      <c r="IC12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>381</v>
       </c>
+      <c r="IC13" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.38</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>80</v>
       </c>
+      <c r="IC15" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>60</v>
       </c>
+      <c r="IC16" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>38</v>
       </c>
+      <c r="IC17" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>15</v>
       </c>
+      <c r="IC18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>22</v>
       </c>
+      <c r="IC19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>11</v>
       </c>
+      <c r="IC20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>5</v>
       </c>
+      <c r="IC21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>10</v>
       </c>
+      <c r="IC22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>3</v>
       </c>
+      <c r="IC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>24</v>
       </c>
+      <c r="IC24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>45.8</v>
       </c>
+      <c r="IC25" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>34.64</v>
       </c>
+      <c r="IC26" t="n">
+        <v>41.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>15.88</v>
       </c>
+      <c r="IC27" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>41</v>
       </c>
+      <c r="IC28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>61</v>
       </c>
+      <c r="IC29" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>39</v>
       </c>
+      <c r="IC30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>58</v>
       </c>
+      <c r="IC31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>2.42</v>
       </c>
+      <c r="IC32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>5.27</v>
       </c>
+      <c r="IC33" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>36.2</v>
       </c>
+      <c r="IC34" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>19</v>
       </c>
+      <c r="IC35" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>188</v>
       </c>
+      <c r="IC36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>87</v>
       </c>
+      <c r="IC37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IC38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>95.90000000000001</v>
       </c>
+      <c r="IC39" t="n">
+        <v>99.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>6</v>
       </c>
+      <c r="IC40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>4</v>
       </c>
+      <c r="IC41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>8</v>
       </c>
+      <c r="IC42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>4</v>
       </c>
+      <c r="IC43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>158</v>
       </c>
+      <c r="IC44" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>210</v>
       </c>
+      <c r="IC45" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>255</v>
       </c>
+      <c r="IC46" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="IC47" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>61</v>
       </c>
+      <c r="IC48" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>11</v>
       </c>
+      <c r="IC49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>14</v>
       </c>
+      <c r="IC50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>41</v>
       </c>
+      <c r="IC51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>39</v>
       </c>
+      <c r="IC52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>66</v>
       </c>
+      <c r="IC53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>1</v>
       </c>
+      <c r="IC54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>5</v>
       </c>
+      <c r="IC55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>45.5</v>
       </c>
+      <c r="IC56" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>213</v>
       </c>
+      <c r="IC57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>129</v>
       </c>
+      <c r="IC58" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>342</v>
       </c>
+      <c r="IC59" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.65</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>57</v>
       </c>
+      <c r="IC61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>81</v>
       </c>
+      <c r="IC62" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>34</v>
       </c>
+      <c r="IC63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>22</v>
       </c>
+      <c r="IC64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>15</v>
       </c>
+      <c r="IC65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>12</v>
       </c>
+      <c r="IC66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>8</v>
       </c>
+      <c r="IC67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>6</v>
       </c>
+      <c r="IC68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>1</v>
       </c>
+      <c r="IC69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>19</v>
       </c>
+      <c r="IC70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>63.2</v>
       </c>
+      <c r="IC71" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>28.5</v>
       </c>
+      <c r="IC72" t="n">
+        <v>28.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>18</v>
       </c>
+      <c r="IC73" t="n">
+        <v>18.25</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>34</v>
       </c>
+      <c r="IC74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>60</v>
       </c>
+      <c r="IC75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>46</v>
       </c>
+      <c r="IC76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>50</v>
       </c>
+      <c r="IC77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>2.63</v>
       </c>
+      <c r="IC78" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>4.17</v>
       </c>
+      <c r="IC79" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>36</v>
       </c>
+      <c r="IC80" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>24</v>
       </c>
+      <c r="IC81" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>189.4</v>
       </c>
+      <c r="IC82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>85.8</v>
       </c>
+      <c r="IC83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IC84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>95.7</v>
       </c>
+      <c r="IC85" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>10</v>
       </c>
+      <c r="IC86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>3</v>
       </c>
+      <c r="IC87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>5</v>
       </c>
+      <c r="IC88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>4</v>
       </c>
+      <c r="IC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>139</v>
       </c>
+      <c r="IC90" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>180</v>
       </c>
+      <c r="IC91" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>227</v>
       </c>
+      <c r="IC92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>66.40000000000001</v>
       </c>
+      <c r="IC93" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>60</v>
       </c>
+      <c r="IC94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>3</v>
       </c>
+      <c r="IC95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>6</v>
       </c>
+      <c r="IC96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>34</v>
       </c>
+      <c r="IC97" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>46</v>
       </c>
+      <c r="IC98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>69</v>
       </c>
+      <c r="IC99" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>8</v>
       </c>
+      <c r="IC100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>8</v>
       </c>
+      <c r="IC101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73279,9 @@
       <c r="IB102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IC102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10493</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10531</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>19</v>
       </c>
+      <c r="ID3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>0</v>
       </c>
+      <c r="ID4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>65</v>
       </c>
+      <c r="ID6" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>85</v>
       </c>
+      <c r="ID7" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>-20</v>
       </c>
+      <c r="ID8" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>0</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>18</v>
       </c>
+      <c r="ID10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>221</v>
       </c>
+      <c r="ID11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>149</v>
       </c>
+      <c r="ID12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>370</v>
       </c>
+      <c r="ID13" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.48</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>60</v>
       </c>
+      <c r="ID15" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>77</v>
       </c>
+      <c r="ID16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>67</v>
       </c>
+      <c r="ID17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>11</v>
       </c>
+      <c r="ID18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>25</v>
       </c>
+      <c r="ID19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>9</v>
       </c>
+      <c r="ID20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>4</v>
       </c>
+      <c r="ID21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>9</v>
       </c>
+      <c r="ID22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>2</v>
       </c>
+      <c r="ID23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>20</v>
       </c>
+      <c r="ID24" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>45</v>
       </c>
+      <c r="ID25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>41.11</v>
       </c>
+      <c r="ID26" t="n">
+        <v>21.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>18.5</v>
       </c>
+      <c r="ID27" t="n">
+        <v>10.16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>41</v>
       </c>
+      <c r="ID28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>88</v>
       </c>
+      <c r="ID29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>39</v>
       </c>
+      <c r="ID30" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>51</v>
       </c>
+      <c r="ID31" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>2.55</v>
       </c>
+      <c r="ID32" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>5.67</v>
       </c>
+      <c r="ID33" t="n">
+        <v>3.94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>35.3</v>
       </c>
+      <c r="ID34" t="n">
+        <v>43.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>17.6</v>
       </c>
+      <c r="ID35" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>187.9</v>
       </c>
+      <c r="ID36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>86.5</v>
       </c>
+      <c r="ID37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>25.16</v>
       </c>
+      <c r="ID38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>99.90000000000001</v>
       </c>
+      <c r="ID39" t="n">
+        <v>89.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>5</v>
       </c>
+      <c r="ID40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>4</v>
       </c>
+      <c r="ID41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>9</v>
       </c>
+      <c r="ID42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>4</v>
       </c>
+      <c r="ID43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>177</v>
       </c>
+      <c r="ID44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>190</v>
       </c>
+      <c r="ID45" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>222</v>
       </c>
+      <c r="ID46" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>60</v>
       </c>
+      <c r="ID47" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>88</v>
       </c>
+      <c r="ID48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>6</v>
       </c>
+      <c r="ID49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>9</v>
       </c>
+      <c r="ID50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>41</v>
       </c>
+      <c r="ID51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>39</v>
       </c>
+      <c r="ID52" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>54</v>
       </c>
+      <c r="ID53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>3</v>
       </c>
+      <c r="ID54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>4</v>
       </c>
+      <c r="ID55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>44.4</v>
       </c>
+      <c r="ID56" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>221</v>
       </c>
+      <c r="ID57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>144</v>
       </c>
+      <c r="ID58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>365</v>
       </c>
+      <c r="ID59" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.53</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>71</v>
       </c>
+      <c r="ID61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>76</v>
       </c>
+      <c r="ID62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>18</v>
       </c>
+      <c r="ID63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>25</v>
       </c>
+      <c r="ID64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>11</v>
       </c>
+      <c r="ID65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>13</v>
       </c>
+      <c r="ID66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>9</v>
       </c>
+      <c r="ID67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>5</v>
       </c>
+      <c r="ID68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>2</v>
       </c>
+      <c r="ID69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>20</v>
       </c>
+      <c r="ID70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>65</v>
       </c>
+      <c r="ID71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>28.08</v>
       </c>
+      <c r="ID72" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>18.25</v>
       </c>
+      <c r="ID73" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>49</v>
       </c>
+      <c r="ID74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>62</v>
       </c>
+      <c r="ID75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>41</v>
       </c>
+      <c r="ID76" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>55</v>
       </c>
+      <c r="ID77" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.75</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>4.23</v>
       </c>
+      <c r="ID79" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>32.7</v>
       </c>
+      <c r="ID80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>23.6</v>
       </c>
+      <c r="ID81" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>187</v>
       </c>
+      <c r="ID82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>84</v>
       </c>
+      <c r="ID83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>25</v>
       </c>
+      <c r="ID84" t="n">
+        <v>23.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="ID85" t="n">
+        <v>62.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>5</v>
       </c>
+      <c r="ID86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>10</v>
       </c>
+      <c r="ID87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>2</v>
       </c>
+      <c r="ID88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>6</v>
       </c>
+      <c r="ID89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>154</v>
       </c>
+      <c r="ID90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>206</v>
       </c>
+      <c r="ID91" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>251</v>
       </c>
+      <c r="ID92" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>68.8</v>
       </c>
+      <c r="ID93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>62</v>
       </c>
+      <c r="ID94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>7</v>
       </c>
+      <c r="ID95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>6</v>
       </c>
+      <c r="ID96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>49</v>
       </c>
+      <c r="ID97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>41</v>
       </c>
+      <c r="ID98" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>68</v>
       </c>
+      <c r="ID99" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>7</v>
       </c>
+      <c r="ID100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>9</v>
       </c>
+      <c r="ID101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,6 +73585,9 @@
       <c r="IC102" t="n">
         <v>69.2</v>
       </c>
+      <c r="ID102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10531</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10506</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>20</v>
       </c>
+      <c r="IE3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>1</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>1</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>128</v>
       </c>
+      <c r="IE6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>30</v>
       </c>
+      <c r="IE7" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>98</v>
       </c>
+      <c r="IE8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>8</v>
       </c>
+      <c r="IE10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>231</v>
       </c>
+      <c r="IE11" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>155</v>
       </c>
+      <c r="IE12" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>386</v>
       </c>
+      <c r="IE13" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.49</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>106</v>
       </c>
+      <c r="IE15" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>63</v>
       </c>
+      <c r="IE16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>49</v>
       </c>
+      <c r="IE17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>16</v>
       </c>
+      <c r="IE18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>16</v>
       </c>
+      <c r="IE19" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>18</v>
       </c>
+      <c r="IE20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>11</v>
       </c>
+      <c r="IE21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>13</v>
       </c>
+      <c r="IE22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>7</v>
       </c>
+      <c r="IE23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>38</v>
       </c>
+      <c r="IE24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>47.4</v>
       </c>
+      <c r="IE25" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>21.44</v>
       </c>
+      <c r="IE26" t="n">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>10.16</v>
       </c>
+      <c r="IE27" t="n">
+        <v>15.86</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>43</v>
       </c>
+      <c r="IE28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>47</v>
       </c>
+      <c r="IE29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>23</v>
       </c>
+      <c r="IE30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>71</v>
       </c>
+      <c r="IE31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>1.87</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>3.94</v>
       </c>
+      <c r="IE33" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>43.7</v>
       </c>
+      <c r="IE34" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>25.4</v>
       </c>
+      <c r="IE35" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>187.2</v>
       </c>
+      <c r="IE36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>85.3</v>
       </c>
+      <c r="IE37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>24.49</v>
       </c>
+      <c r="IE38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="IE39" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>7</v>
       </c>
+      <c r="IE40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>4</v>
       </c>
+      <c r="IE41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>9</v>
       </c>
+      <c r="IE42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>3</v>
       </c>
+      <c r="IE43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>139</v>
       </c>
+      <c r="IE44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>248</v>
       </c>
+      <c r="IE45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>280</v>
       </c>
+      <c r="IE46" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>72.5</v>
       </c>
+      <c r="IE47" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>47</v>
       </c>
+      <c r="IE48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>12</v>
       </c>
+      <c r="IE49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>19</v>
       </c>
+      <c r="IE50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>43</v>
       </c>
+      <c r="IE51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>23</v>
       </c>
+      <c r="IE52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>47</v>
       </c>
+      <c r="IE53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>9</v>
       </c>
+      <c r="IE54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>11</v>
       </c>
+      <c r="IE55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>61.1</v>
       </c>
+      <c r="IE56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>198</v>
       </c>
+      <c r="IE57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>122</v>
       </c>
+      <c r="IE58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>320</v>
       </c>
+      <c r="IE59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.62</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>89</v>
       </c>
+      <c r="IE61" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>61</v>
       </c>
+      <c r="IE62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>25</v>
       </c>
+      <c r="IE63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>16</v>
       </c>
+      <c r="IE64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>16</v>
       </c>
+      <c r="IE65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>4</v>
       </c>
+      <c r="IE66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>3</v>
       </c>
+      <c r="IE67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>5</v>
       </c>
+      <c r="IE68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>1</v>
       </c>
+      <c r="IE69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>10</v>
       </c>
+      <c r="IE70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>40</v>
       </c>
+      <c r="IE71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>80</v>
       </c>
+      <c r="IE72" t="n">
+        <v>37.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>32</v>
       </c>
+      <c r="IE73" t="n">
+        <v>18.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>26</v>
       </c>
+      <c r="IE74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>62</v>
       </c>
+      <c r="IE75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>53</v>
       </c>
+      <c r="IE76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>27</v>
       </c>
+      <c r="IE77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>2.7</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>6.75</v>
       </c>
+      <c r="IE79" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IE80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>14.8</v>
       </c>
+      <c r="IE81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>84</v>
       </c>
+      <c r="IE83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>23.58</v>
       </c>
+      <c r="IE84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>62.6</v>
       </c>
+      <c r="IE85" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>8</v>
       </c>
+      <c r="IE86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>9</v>
       </c>
+      <c r="IE87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>4</v>
       </c>
+      <c r="IE88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>1</v>
       </c>
+      <c r="IE89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>108</v>
       </c>
+      <c r="IE90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>202</v>
       </c>
+      <c r="IE91" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>226</v>
       </c>
+      <c r="IE92" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IE93" t="n">
+        <v>66.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>62</v>
       </c>
+      <c r="IE94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>4</v>
       </c>
+      <c r="IE95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>5</v>
       </c>
+      <c r="IE96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>26</v>
       </c>
+      <c r="IE97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>53</v>
       </c>
+      <c r="IE98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>62</v>
       </c>
+      <c r="IE99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>9</v>
       </c>
+      <c r="IE100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>3</v>
       </c>
+      <c r="IE101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>75</v>
       </c>
+      <c r="IE102" t="n">
+        <v>77.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1141,9 @@
       <c r="IE1" t="n">
         <v>10506</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10512</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1865,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2589,9 @@
       <c r="IE3" t="n">
         <v>21</v>
       </c>
+      <c r="IF3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3313,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +4037,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4761,9 @@
       <c r="IE6" t="n">
         <v>72</v>
       </c>
+      <c r="IF6" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5485,9 @@
       <c r="IE7" t="n">
         <v>63</v>
       </c>
+      <c r="IF7" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6209,9 @@
       <c r="IE8" t="n">
         <v>9</v>
       </c>
+      <c r="IF8" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6933,9 @@
       <c r="IE9" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7657,9 @@
       <c r="IE10" t="n">
         <v>17</v>
       </c>
+      <c r="IF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8381,9 @@
       <c r="IE11" t="n">
         <v>204</v>
       </c>
+      <c r="IF11" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9105,9 @@
       <c r="IE12" t="n">
         <v>145</v>
       </c>
+      <c r="IF12" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9829,9 @@
       <c r="IE13" t="n">
         <v>349</v>
       </c>
+      <c r="IF13" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10553,9 @@
       <c r="IE14" t="n">
         <v>1.41</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11277,9 @@
       <c r="IE15" t="n">
         <v>68</v>
       </c>
+      <c r="IF15" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +12001,9 @@
       <c r="IE16" t="n">
         <v>46</v>
       </c>
+      <c r="IF16" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12725,9 @@
       <c r="IE17" t="n">
         <v>37</v>
       </c>
+      <c r="IF17" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13449,9 @@
       <c r="IE18" t="n">
         <v>17</v>
       </c>
+      <c r="IF18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14173,9 @@
       <c r="IE19" t="n">
         <v>28</v>
       </c>
+      <c r="IF19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14897,9 @@
       <c r="IE20" t="n">
         <v>10</v>
       </c>
+      <c r="IF20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15621,9 @@
       <c r="IE21" t="n">
         <v>5</v>
       </c>
+      <c r="IF21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16345,9 @@
       <c r="IE22" t="n">
         <v>9</v>
       </c>
+      <c r="IF22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17069,9 @@
       <c r="IE23" t="n">
         <v>3</v>
       </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17793,9 @@
       <c r="IE24" t="n">
         <v>22</v>
       </c>
+      <c r="IF24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18517,9 @@
       <c r="IE25" t="n">
         <v>45.5</v>
       </c>
+      <c r="IF25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19241,9 @@
       <c r="IE26" t="n">
         <v>34.9</v>
       </c>
+      <c r="IF26" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19965,9 @@
       <c r="IE27" t="n">
         <v>15.86</v>
       </c>
+      <c r="IF27" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20689,9 @@
       <c r="IE28" t="n">
         <v>41</v>
       </c>
+      <c r="IF28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21413,9 @@
       <c r="IE29" t="n">
         <v>68</v>
       </c>
+      <c r="IF29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22137,9 @@
       <c r="IE30" t="n">
         <v>40</v>
       </c>
+      <c r="IF30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22861,9 @@
       <c r="IE31" t="n">
         <v>48</v>
       </c>
+      <c r="IF31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23585,9 @@
       <c r="IE32" t="n">
         <v>2.18</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.46</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24309,9 @@
       <c r="IE33" t="n">
         <v>4.8</v>
       </c>
+      <c r="IF33" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +25033,9 @@
       <c r="IE34" t="n">
         <v>39.6</v>
       </c>
+      <c r="IF34" t="n">
+        <v>40.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25757,9 @@
       <c r="IE35" t="n">
         <v>20.8</v>
       </c>
+      <c r="IF35" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26481,9 @@
       <c r="IE36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IF36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27205,9 @@
       <c r="IE37" t="n">
         <v>85</v>
       </c>
+      <c r="IF37" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27929,9 @@
       <c r="IE38" t="n">
         <v>24.58</v>
       </c>
+      <c r="IF38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28653,9 @@
       <c r="IE39" t="n">
         <v>86.8</v>
       </c>
+      <c r="IF39" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29377,9 @@
       <c r="IE40" t="n">
         <v>8</v>
       </c>
+      <c r="IF40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30101,9 @@
       <c r="IE41" t="n">
         <v>3</v>
       </c>
+      <c r="IF41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30825,9 @@
       <c r="IE42" t="n">
         <v>9</v>
       </c>
+      <c r="IF42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31549,9 @@
       <c r="IE43" t="n">
         <v>3</v>
       </c>
+      <c r="IF43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32273,9 @@
       <c r="IE44" t="n">
         <v>136</v>
       </c>
+      <c r="IF44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32997,9 @@
       <c r="IE45" t="n">
         <v>203</v>
       </c>
+      <c r="IF45" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33721,9 @@
       <c r="IE46" t="n">
         <v>241</v>
       </c>
+      <c r="IF46" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34445,9 @@
       <c r="IE47" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="IF47" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35169,9 @@
       <c r="IE48" t="n">
         <v>68</v>
       </c>
+      <c r="IF48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35893,9 @@
       <c r="IE49" t="n">
         <v>11</v>
       </c>
+      <c r="IF49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36617,9 @@
       <c r="IE50" t="n">
         <v>11</v>
       </c>
+      <c r="IF50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37341,9 @@
       <c r="IE51" t="n">
         <v>41</v>
       </c>
+      <c r="IF51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +38065,9 @@
       <c r="IE52" t="n">
         <v>40</v>
       </c>
+      <c r="IF52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38789,9 @@
       <c r="IE53" t="n">
         <v>45</v>
       </c>
+      <c r="IF53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39513,9 @@
       <c r="IE54" t="n">
         <v>0</v>
       </c>
+      <c r="IF54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40237,9 @@
       <c r="IE55" t="n">
         <v>5</v>
       </c>
+      <c r="IF55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40961,9 @@
       <c r="IE56" t="n">
         <v>50</v>
       </c>
+      <c r="IF56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41685,9 @@
       <c r="IE57" t="n">
         <v>214</v>
       </c>
+      <c r="IF57" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42409,9 @@
       <c r="IE58" t="n">
         <v>125</v>
       </c>
+      <c r="IF58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43133,9 @@
       <c r="IE59" t="n">
         <v>339</v>
       </c>
+      <c r="IF59" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43857,9 @@
       <c r="IE60" t="n">
         <v>1.71</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44581,9 @@
       <c r="IE61" t="n">
         <v>83</v>
       </c>
+      <c r="IF61" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45305,9 @@
       <c r="IE62" t="n">
         <v>54</v>
       </c>
+      <c r="IF62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +46029,9 @@
       <c r="IE63" t="n">
         <v>39</v>
       </c>
+      <c r="IF63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46753,9 @@
       <c r="IE64" t="n">
         <v>28</v>
       </c>
+      <c r="IF64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47477,9 @@
       <c r="IE65" t="n">
         <v>17</v>
       </c>
+      <c r="IF65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48201,9 @@
       <c r="IE66" t="n">
         <v>9</v>
       </c>
+      <c r="IF66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48925,9 @@
       <c r="IE67" t="n">
         <v>7</v>
       </c>
+      <c r="IF67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49649,9 @@
       <c r="IE68" t="n">
         <v>8</v>
       </c>
+      <c r="IF68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50373,9 @@
       <c r="IE69" t="n">
         <v>1</v>
       </c>
+      <c r="IF69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51097,9 @@
       <c r="IE70" t="n">
         <v>18</v>
       </c>
+      <c r="IF70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51821,9 @@
       <c r="IE71" t="n">
         <v>50</v>
       </c>
+      <c r="IF71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52545,9 @@
       <c r="IE72" t="n">
         <v>37.67</v>
       </c>
+      <c r="IF72" t="n">
+        <v>42.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53269,9 @@
       <c r="IE73" t="n">
         <v>18.83</v>
       </c>
+      <c r="IF73" t="n">
+        <v>21.44</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53993,9 @@
       <c r="IE74" t="n">
         <v>40</v>
       </c>
+      <c r="IF74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54717,9 @@
       <c r="IE75" t="n">
         <v>70</v>
       </c>
+      <c r="IF75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55441,9 @@
       <c r="IE76" t="n">
         <v>38</v>
       </c>
+      <c r="IF76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56165,9 @@
       <c r="IE77" t="n">
         <v>50</v>
       </c>
+      <c r="IF77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56889,9 @@
       <c r="IE78" t="n">
         <v>2.78</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57613,9 @@
       <c r="IE79" t="n">
         <v>5.56</v>
       </c>
+      <c r="IF79" t="n">
+        <v>5.22</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58337,9 @@
       <c r="IE80" t="n">
         <v>34</v>
       </c>
+      <c r="IF80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +59061,9 @@
       <c r="IE81" t="n">
         <v>18</v>
       </c>
+      <c r="IF81" t="n">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59785,9 @@
       <c r="IE82" t="n">
         <v>188.7</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60509,9 @@
       <c r="IE83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IF83" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61233,9 @@
       <c r="IE84" t="n">
         <v>26.24</v>
       </c>
+      <c r="IF84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61957,9 @@
       <c r="IE85" t="n">
         <v>132.2</v>
       </c>
+      <c r="IF85" t="n">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62681,9 @@
       <c r="IE86" t="n">
         <v>5</v>
       </c>
+      <c r="IF86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63405,9 @@
       <c r="IE87" t="n">
         <v>6</v>
       </c>
+      <c r="IF87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64129,9 @@
       <c r="IE88" t="n">
         <v>2</v>
       </c>
+      <c r="IF88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64853,9 @@
       <c r="IE89" t="n">
         <v>10</v>
       </c>
+      <c r="IF89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65577,9 @@
       <c r="IE90" t="n">
         <v>145</v>
       </c>
+      <c r="IF90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66301,9 @@
       <c r="IE91" t="n">
         <v>182</v>
       </c>
+      <c r="IF91" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +67025,9 @@
       <c r="IE92" t="n">
         <v>225</v>
       </c>
+      <c r="IF92" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67749,9 @@
       <c r="IE93" t="n">
         <v>66.40000000000001</v>
       </c>
+      <c r="IF93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68473,9 @@
       <c r="IE94" t="n">
         <v>70</v>
       </c>
+      <c r="IF94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69197,9 @@
       <c r="IE95" t="n">
         <v>15</v>
       </c>
+      <c r="IF95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69921,9 @@
       <c r="IE96" t="n">
         <v>9</v>
       </c>
+      <c r="IF96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70645,9 @@
       <c r="IE97" t="n">
         <v>40</v>
       </c>
+      <c r="IF97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71369,9 @@
       <c r="IE98" t="n">
         <v>38</v>
       </c>
+      <c r="IF98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72093,9 @@
       <c r="IE99" t="n">
         <v>60</v>
       </c>
+      <c r="IF99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72817,9 @@
       <c r="IE100" t="n">
         <v>3</v>
       </c>
+      <c r="IF100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73541,9 @@
       <c r="IE101" t="n">
         <v>7</v>
       </c>
+      <c r="IF101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74265,9 @@
       <c r="IE102" t="n">
         <v>77.8</v>
       </c>
+      <c r="IF102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,6 +1144,9 @@
       <c r="IF1" t="n">
         <v>10512</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10519</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1868,6 +1871,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2592,6 +2598,9 @@
       <c r="IF3" t="n">
         <v>22</v>
       </c>
+      <c r="IG3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3316,6 +3325,9 @@
       <c r="IF4" t="n">
         <v>0</v>
       </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4040,6 +4052,9 @@
       <c r="IF5" t="n">
         <v>0</v>
       </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4764,6 +4779,9 @@
       <c r="IF6" t="n">
         <v>104</v>
       </c>
+      <c r="IG6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5488,6 +5506,9 @@
       <c r="IF7" t="n">
         <v>63</v>
       </c>
+      <c r="IG7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6212,6 +6233,9 @@
       <c r="IF8" t="n">
         <v>41</v>
       </c>
+      <c r="IG8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6936,6 +6960,9 @@
       <c r="IF9" t="n">
         <v>1</v>
       </c>
+      <c r="IG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7660,6 +7687,9 @@
       <c r="IF10" t="n">
         <v>1</v>
       </c>
+      <c r="IG10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8384,6 +8414,9 @@
       <c r="IF11" t="n">
         <v>215</v>
       </c>
+      <c r="IG11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9108,6 +9141,9 @@
       <c r="IF12" t="n">
         <v>137</v>
       </c>
+      <c r="IG12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9832,6 +9868,9 @@
       <c r="IF13" t="n">
         <v>352</v>
       </c>
+      <c r="IG13" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10556,6 +10595,9 @@
       <c r="IF14" t="n">
         <v>1.57</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11280,6 +11322,9 @@
       <c r="IF15" t="n">
         <v>92</v>
       </c>
+      <c r="IG15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12004,6 +12049,9 @@
       <c r="IF16" t="n">
         <v>77</v>
       </c>
+      <c r="IG16" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12728,6 +12776,9 @@
       <c r="IF17" t="n">
         <v>47</v>
       </c>
+      <c r="IG17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13452,6 +13503,9 @@
       <c r="IF18" t="n">
         <v>26</v>
       </c>
+      <c r="IG18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14176,6 +14230,9 @@
       <c r="IF19" t="n">
         <v>18</v>
       </c>
+      <c r="IG19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14900,6 +14957,9 @@
       <c r="IF20" t="n">
         <v>16</v>
       </c>
+      <c r="IG20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15624,6 +15684,9 @@
       <c r="IF21" t="n">
         <v>8</v>
       </c>
+      <c r="IG21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16348,6 +16411,9 @@
       <c r="IF22" t="n">
         <v>8</v>
       </c>
+      <c r="IG22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17072,6 +17138,9 @@
       <c r="IF23" t="n">
         <v>0</v>
       </c>
+      <c r="IG23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17796,6 +17865,9 @@
       <c r="IF24" t="n">
         <v>24</v>
       </c>
+      <c r="IG24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18520,6 +18592,9 @@
       <c r="IF25" t="n">
         <v>66.7</v>
       </c>
+      <c r="IG25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19244,6 +19319,9 @@
       <c r="IF26" t="n">
         <v>22</v>
       </c>
+      <c r="IG26" t="n">
+        <v>29.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19968,6 +20046,9 @@
       <c r="IF27" t="n">
         <v>14.67</v>
       </c>
+      <c r="IG27" t="n">
+        <v>17.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20692,6 +20773,9 @@
       <c r="IF28" t="n">
         <v>34</v>
       </c>
+      <c r="IG28" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21416,6 +21500,9 @@
       <c r="IF29" t="n">
         <v>52</v>
       </c>
+      <c r="IG29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22140,6 +22227,9 @@
       <c r="IF30" t="n">
         <v>38</v>
       </c>
+      <c r="IG30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22864,6 +22954,9 @@
       <c r="IF31" t="n">
         <v>59</v>
       </c>
+      <c r="IG31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23588,6 +23681,9 @@
       <c r="IF32" t="n">
         <v>2.46</v>
       </c>
+      <c r="IG32" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24312,6 +24408,9 @@
       <c r="IF33" t="n">
         <v>3.69</v>
       </c>
+      <c r="IG33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25036,6 +25135,9 @@
       <c r="IF34" t="n">
         <v>40.7</v>
       </c>
+      <c r="IG34" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25760,6 +25862,9 @@
       <c r="IF35" t="n">
         <v>27.1</v>
       </c>
+      <c r="IG35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26484,6 +26589,9 @@
       <c r="IF36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IG36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27208,6 +27316,9 @@
       <c r="IF37" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="IG37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27932,6 +28043,9 @@
       <c r="IF38" t="n">
         <v>24.49</v>
       </c>
+      <c r="IG38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28656,6 +28770,9 @@
       <c r="IF39" t="n">
         <v>86.2</v>
       </c>
+      <c r="IG39" t="n">
+        <v>92.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29380,6 +29497,9 @@
       <c r="IF40" t="n">
         <v>8</v>
       </c>
+      <c r="IG40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30104,6 +30224,9 @@
       <c r="IF41" t="n">
         <v>2</v>
       </c>
+      <c r="IG41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30828,6 +30951,9 @@
       <c r="IF42" t="n">
         <v>9</v>
       </c>
+      <c r="IG42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31552,6 +31678,9 @@
       <c r="IF43" t="n">
         <v>3</v>
       </c>
+      <c r="IG43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32276,6 +32405,9 @@
       <c r="IF44" t="n">
         <v>139</v>
       </c>
+      <c r="IG44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33000,6 +33132,9 @@
       <c r="IF45" t="n">
         <v>204</v>
       </c>
+      <c r="IG45" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33724,6 +33859,9 @@
       <c r="IF46" t="n">
         <v>254</v>
       </c>
+      <c r="IG46" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34448,6 +34586,9 @@
       <c r="IF47" t="n">
         <v>72.2</v>
       </c>
+      <c r="IG47" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35172,6 +35313,9 @@
       <c r="IF48" t="n">
         <v>52</v>
       </c>
+      <c r="IG48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35896,6 +36040,9 @@
       <c r="IF49" t="n">
         <v>9</v>
       </c>
+      <c r="IG49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36620,6 +36767,9 @@
       <c r="IF50" t="n">
         <v>12</v>
       </c>
+      <c r="IG50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37344,6 +37494,9 @@
       <c r="IF51" t="n">
         <v>34</v>
       </c>
+      <c r="IG51" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38068,6 +38221,9 @@
       <c r="IF52" t="n">
         <v>38</v>
       </c>
+      <c r="IG52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38792,6 +38948,9 @@
       <c r="IF53" t="n">
         <v>42</v>
       </c>
+      <c r="IG53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39516,6 +39675,9 @@
       <c r="IF54" t="n">
         <v>2</v>
       </c>
+      <c r="IG54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40240,6 +40402,9 @@
       <c r="IF55" t="n">
         <v>8</v>
       </c>
+      <c r="IG55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40964,6 +41129,9 @@
       <c r="IF56" t="n">
         <v>50</v>
       </c>
+      <c r="IG56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41688,6 +41856,9 @@
       <c r="IF57" t="n">
         <v>220</v>
       </c>
+      <c r="IG57" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42412,6 +42583,9 @@
       <c r="IF58" t="n">
         <v>166</v>
       </c>
+      <c r="IG58" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43136,6 +43310,9 @@
       <c r="IF59" t="n">
         <v>386</v>
       </c>
+      <c r="IG59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43860,6 +44037,9 @@
       <c r="IF60" t="n">
         <v>1.33</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44584,6 +44764,9 @@
       <c r="IF61" t="n">
         <v>97</v>
       </c>
+      <c r="IG61" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45308,6 +45491,9 @@
       <c r="IF62" t="n">
         <v>63</v>
       </c>
+      <c r="IG62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46032,6 +46218,9 @@
       <c r="IF63" t="n">
         <v>28</v>
       </c>
+      <c r="IG63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46756,6 +46945,9 @@
       <c r="IF64" t="n">
         <v>18</v>
       </c>
+      <c r="IG64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47480,6 +47672,9 @@
       <c r="IF65" t="n">
         <v>26</v>
       </c>
+      <c r="IG65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48204,6 +48399,9 @@
       <c r="IF66" t="n">
         <v>9</v>
       </c>
+      <c r="IG66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48928,6 +49126,9 @@
       <c r="IF67" t="n">
         <v>6</v>
       </c>
+      <c r="IG67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49652,6 +49853,9 @@
       <c r="IF68" t="n">
         <v>7</v>
       </c>
+      <c r="IG68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50376,6 +50580,9 @@
       <c r="IF69" t="n">
         <v>2</v>
       </c>
+      <c r="IG69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51100,6 +51307,9 @@
       <c r="IF70" t="n">
         <v>18</v>
       </c>
+      <c r="IG70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51824,6 +52034,9 @@
       <c r="IF71" t="n">
         <v>50</v>
       </c>
+      <c r="IG71" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52548,6 +52761,9 @@
       <c r="IF72" t="n">
         <v>42.89</v>
       </c>
+      <c r="IG72" t="n">
+        <v>31.42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53272,6 +53488,9 @@
       <c r="IF73" t="n">
         <v>21.44</v>
       </c>
+      <c r="IG73" t="n">
+        <v>22.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53996,6 +54215,9 @@
       <c r="IF74" t="n">
         <v>36</v>
       </c>
+      <c r="IG74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54720,6 +54942,9 @@
       <c r="IF75" t="n">
         <v>64</v>
       </c>
+      <c r="IG75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55444,6 +55669,9 @@
       <c r="IF76" t="n">
         <v>43</v>
       </c>
+      <c r="IG76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56168,6 +56396,9 @@
       <c r="IF77" t="n">
         <v>47</v>
       </c>
+      <c r="IG77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56892,6 +57123,9 @@
       <c r="IF78" t="n">
         <v>2.61</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57616,6 +57850,9 @@
       <c r="IF79" t="n">
         <v>5.22</v>
       </c>
+      <c r="IG79" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58340,6 +58577,9 @@
       <c r="IF80" t="n">
         <v>34</v>
       </c>
+      <c r="IG80" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59064,6 +59304,9 @@
       <c r="IF81" t="n">
         <v>19.1</v>
       </c>
+      <c r="IG81" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59788,6 +60031,9 @@
       <c r="IF82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IG82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60512,6 +60758,9 @@
       <c r="IF83" t="n">
         <v>84.5</v>
       </c>
+      <c r="IG83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61236,6 +61485,9 @@
       <c r="IF84" t="n">
         <v>24.33</v>
       </c>
+      <c r="IG84" t="n">
+        <v>27.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61960,6 +62212,9 @@
       <c r="IF85" t="n">
         <v>66.3</v>
       </c>
+      <c r="IG85" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62684,6 +62939,9 @@
       <c r="IF86" t="n">
         <v>14</v>
       </c>
+      <c r="IG86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63408,6 +63666,9 @@
       <c r="IF87" t="n">
         <v>3</v>
       </c>
+      <c r="IG87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64132,6 +64393,9 @@
       <c r="IF88" t="n">
         <v>2</v>
       </c>
+      <c r="IG88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64856,6 +65120,9 @@
       <c r="IF89" t="n">
         <v>4</v>
       </c>
+      <c r="IG89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65580,6 +65847,9 @@
       <c r="IF90" t="n">
         <v>139</v>
       </c>
+      <c r="IG90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66304,6 +66574,9 @@
       <c r="IF91" t="n">
         <v>244</v>
       </c>
+      <c r="IG91" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67028,6 +67301,9 @@
       <c r="IF92" t="n">
         <v>289</v>
       </c>
+      <c r="IG92" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67752,6 +68028,9 @@
       <c r="IF93" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IG93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68476,6 +68755,9 @@
       <c r="IF94" t="n">
         <v>64</v>
       </c>
+      <c r="IG94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69200,6 +69482,9 @@
       <c r="IF95" t="n">
         <v>14</v>
       </c>
+      <c r="IG95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69924,6 +70209,9 @@
       <c r="IF96" t="n">
         <v>12</v>
       </c>
+      <c r="IG96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70648,6 +70936,9 @@
       <c r="IF97" t="n">
         <v>36</v>
       </c>
+      <c r="IG97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71372,6 +71663,9 @@
       <c r="IF98" t="n">
         <v>43</v>
       </c>
+      <c r="IG98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72096,6 +72390,9 @@
       <c r="IF99" t="n">
         <v>38</v>
       </c>
+      <c r="IG99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72820,6 +73117,9 @@
       <c r="IF100" t="n">
         <v>6</v>
       </c>
+      <c r="IG100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73544,6 +73844,9 @@
       <c r="IF101" t="n">
         <v>6</v>
       </c>
+      <c r="IG101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74268,6 +74571,9 @@
       <c r="IF102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IG102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10519</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10537</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1874,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2601,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>23</v>
       </c>
+      <c r="IH3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3328,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4055,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4782,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>81</v>
       </c>
+      <c r="IH6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5509,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>77</v>
       </c>
+      <c r="IH7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6236,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>4</v>
       </c>
+      <c r="IH8" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6963,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>1</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7690,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>7</v>
       </c>
+      <c r="IH10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8417,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>207</v>
       </c>
+      <c r="IH11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9144,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>151</v>
       </c>
+      <c r="IH12" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9871,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>358</v>
       </c>
+      <c r="IH13" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10598,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.37</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11325,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>87</v>
       </c>
+      <c r="IH15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12052,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>70</v>
       </c>
+      <c r="IH16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12779,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>49</v>
       </c>
+      <c r="IH17" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13506,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>17</v>
       </c>
+      <c r="IH18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14233,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>23</v>
       </c>
+      <c r="IH19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14960,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>12</v>
       </c>
+      <c r="IH20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15687,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>8</v>
       </c>
+      <c r="IH21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16414,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>5</v>
       </c>
+      <c r="IH22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17141,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>4</v>
       </c>
+      <c r="IH23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17868,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>21</v>
       </c>
+      <c r="IH24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18595,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IH25" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19322,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>29.83</v>
       </c>
+      <c r="IH26" t="n">
+        <v>28.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20049,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>17.05</v>
       </c>
+      <c r="IH27" t="n">
+        <v>13.29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20776,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>47</v>
       </c>
+      <c r="IH28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21503,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>60</v>
       </c>
+      <c r="IH29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22230,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>37</v>
       </c>
+      <c r="IH30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22957,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>56</v>
       </c>
+      <c r="IH31" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23684,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>2.67</v>
       </c>
+      <c r="IH32" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24411,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>4.67</v>
       </c>
+      <c r="IH33" t="n">
+        <v>5.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25138,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>30.4</v>
       </c>
+      <c r="IH34" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25865,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>21.4</v>
       </c>
+      <c r="IH35" t="n">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26592,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>187.4</v>
       </c>
+      <c r="IH36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27319,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>85.8</v>
       </c>
+      <c r="IH37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28046,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>24.66</v>
       </c>
+      <c r="IH38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28773,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>92.40000000000001</v>
       </c>
+      <c r="IH39" t="n">
+        <v>93.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29500,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>7</v>
       </c>
+      <c r="IH40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30227,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>2</v>
       </c>
+      <c r="IH41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30954,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>10</v>
       </c>
+      <c r="IH42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31681,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>3</v>
       </c>
+      <c r="IH43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32408,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>140</v>
       </c>
+      <c r="IH44" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33135,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>207</v>
       </c>
+      <c r="IH45" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33862,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>258</v>
       </c>
+      <c r="IH46" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34589,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="IH47" t="n">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35316,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>60</v>
       </c>
+      <c r="IH48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36043,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>12</v>
       </c>
+      <c r="IH49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36770,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>8</v>
       </c>
+      <c r="IH50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37497,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>47</v>
       </c>
+      <c r="IH51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38224,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>37</v>
       </c>
+      <c r="IH52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38951,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>42</v>
       </c>
+      <c r="IH53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39678,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>2</v>
       </c>
+      <c r="IH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40405,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>8</v>
       </c>
+      <c r="IH55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41132,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IH56" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41859,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>229</v>
       </c>
+      <c r="IH57" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42586,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>148</v>
       </c>
+      <c r="IH58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43313,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>377</v>
       </c>
+      <c r="IH59" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44040,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.55</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44767,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>106</v>
       </c>
+      <c r="IH61" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45494,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>61</v>
       </c>
+      <c r="IH62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46221,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>39</v>
       </c>
+      <c r="IH63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46948,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>23</v>
       </c>
+      <c r="IH64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47675,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>17</v>
       </c>
+      <c r="IH65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48402,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>12</v>
       </c>
+      <c r="IH66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49129,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>9</v>
       </c>
+      <c r="IH67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49856,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>5</v>
       </c>
+      <c r="IH68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50583,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>0</v>
       </c>
+      <c r="IH69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51310,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>17</v>
       </c>
+      <c r="IH70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52037,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IH71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52764,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>31.42</v>
       </c>
+      <c r="IH72" t="n">
+        <v>37.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53491,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>22.18</v>
       </c>
+      <c r="IH73" t="n">
+        <v>22.73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54218,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>40</v>
       </c>
+      <c r="IH74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54945,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>58</v>
       </c>
+      <c r="IH75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55672,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>42</v>
       </c>
+      <c r="IH76" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56399,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>49</v>
       </c>
+      <c r="IH77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57126,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>2.88</v>
       </c>
+      <c r="IH78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57853,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>4.08</v>
       </c>
+      <c r="IH79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58580,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>34.7</v>
       </c>
+      <c r="IH80" t="n">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59307,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>24.5</v>
       </c>
+      <c r="IH81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60034,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>188.2</v>
       </c>
+      <c r="IH82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60761,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IH83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61488,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>27.58</v>
       </c>
+      <c r="IH84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62215,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>147</v>
       </c>
+      <c r="IH85" t="n">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62942,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>3</v>
       </c>
+      <c r="IH86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63669,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>5</v>
       </c>
+      <c r="IH87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64396,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>3</v>
       </c>
+      <c r="IH88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65123,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>11</v>
       </c>
+      <c r="IH89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65850,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>140</v>
       </c>
+      <c r="IH90" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66577,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>234</v>
       </c>
+      <c r="IH91" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67304,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>279</v>
       </c>
+      <c r="IH92" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68031,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>74</v>
       </c>
+      <c r="IH93" t="n">
+        <v>65.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68758,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>58</v>
       </c>
+      <c r="IH94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69485,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>2</v>
       </c>
+      <c r="IH95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70212,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>8</v>
       </c>
+      <c r="IH96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70939,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>40</v>
       </c>
+      <c r="IH97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71666,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>42</v>
       </c>
+      <c r="IH98" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72393,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>58</v>
       </c>
+      <c r="IH99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73120,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>1</v>
       </c>
+      <c r="IH100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73847,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>9</v>
       </c>
+      <c r="IH101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74574,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>75</v>
       </c>
+      <c r="IH102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10537</v>
       </c>
+      <c r="II1" t="n">
+        <v>10541</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1812,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2542,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>25</v>
       </c>
+      <c r="II3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3272,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4002,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4732,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>93</v>
       </c>
+      <c r="II6" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5462,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>60</v>
       </c>
+      <c r="II7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6192,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>33</v>
       </c>
+      <c r="II8" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6922,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7652,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>2</v>
       </c>
+      <c r="II10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8382,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>228</v>
       </c>
+      <c r="II11" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9112,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>144</v>
       </c>
+      <c r="II12" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9842,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>372</v>
       </c>
+      <c r="II13" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10572,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.58</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11302,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>81</v>
       </c>
+      <c r="II15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12032,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>54</v>
       </c>
+      <c r="II16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12762,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>50</v>
       </c>
+      <c r="II17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13492,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>18</v>
       </c>
+      <c r="II18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14222,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>14</v>
       </c>
+      <c r="II19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14952,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>13</v>
       </c>
+      <c r="II20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15682,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>6</v>
       </c>
+      <c r="II21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16412,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>13</v>
       </c>
+      <c r="II22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17142,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>2</v>
       </c>
+      <c r="II23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17872,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>28</v>
       </c>
+      <c r="II24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18602,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>46.4</v>
       </c>
+      <c r="II25" t="n">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19332,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>28.62</v>
       </c>
+      <c r="II26" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20062,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>13.29</v>
       </c>
+      <c r="II27" t="n">
+        <v>12.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20792,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>44</v>
       </c>
+      <c r="II28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21522,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>58</v>
       </c>
+      <c r="II29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22252,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>36</v>
       </c>
+      <c r="II30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22982,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>68</v>
       </c>
+      <c r="II31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23712,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>2.43</v>
       </c>
+      <c r="II32" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24442,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>5.23</v>
       </c>
+      <c r="II33" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25172,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>38.2</v>
       </c>
+      <c r="II34" t="n">
+        <v>47.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25902,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>19.1</v>
       </c>
+      <c r="II35" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26632,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>187.4</v>
       </c>
+      <c r="II36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27362,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>85.8</v>
       </c>
+      <c r="II37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28092,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>24.66</v>
       </c>
+      <c r="II38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28822,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>93.40000000000001</v>
       </c>
+      <c r="II39" t="n">
+        <v>97.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29552,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>7</v>
       </c>
+      <c r="II40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30282,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>2</v>
       </c>
+      <c r="II41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31012,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>10</v>
       </c>
+      <c r="II42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31742,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>3</v>
       </c>
+      <c r="II43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32472,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>163</v>
       </c>
+      <c r="II44" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33202,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>198</v>
       </c>
+      <c r="II45" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33932,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>250</v>
       </c>
+      <c r="II46" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34662,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>67.2</v>
       </c>
+      <c r="II47" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35392,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>58</v>
       </c>
+      <c r="II48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36122,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>12</v>
       </c>
+      <c r="II49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36852,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>15</v>
       </c>
+      <c r="II50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37582,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>44</v>
       </c>
+      <c r="II51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38312,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>36</v>
       </c>
+      <c r="II52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39042,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>55</v>
       </c>
+      <c r="II53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39772,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>0</v>
       </c>
+      <c r="II54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40502,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>6</v>
       </c>
+      <c r="II55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41232,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>46.2</v>
       </c>
+      <c r="II56" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41962,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>212</v>
       </c>
+      <c r="II57" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42692,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>129</v>
       </c>
+      <c r="II58" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43422,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>341</v>
       </c>
+      <c r="II59" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44152,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.64</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44882,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>68</v>
       </c>
+      <c r="II61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45612,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>57</v>
       </c>
+      <c r="II62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46342,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>31</v>
       </c>
+      <c r="II63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47072,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>14</v>
       </c>
+      <c r="II64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47802,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>18</v>
       </c>
+      <c r="II65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48532,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>9</v>
       </c>
+      <c r="II66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49262,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>5</v>
       </c>
+      <c r="II67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49992,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>5</v>
       </c>
+      <c r="II68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50722,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>1</v>
       </c>
+      <c r="II69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51452,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>15</v>
       </c>
+      <c r="II70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52182,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>60</v>
       </c>
+      <c r="II71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52912,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>37.89</v>
       </c>
+      <c r="II72" t="n">
+        <v>56.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53642,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>22.73</v>
       </c>
+      <c r="II73" t="n">
+        <v>28.42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54372,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>44</v>
       </c>
+      <c r="II74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55102,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>70</v>
       </c>
+      <c r="II75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55832,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>53</v>
       </c>
+      <c r="II76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56562,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>45</v>
       </c>
+      <c r="II77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57292,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>3</v>
       </c>
+      <c r="II78" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58022,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>5</v>
       </c>
+      <c r="II79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58752,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>31.1</v>
       </c>
+      <c r="II80" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59482,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>20</v>
       </c>
+      <c r="II81" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60212,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>188.4</v>
       </c>
+      <c r="II82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60942,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>88.3</v>
       </c>
+      <c r="II83" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61672,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>26.33</v>
       </c>
+      <c r="II84" t="n">
+        <v>28.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62402,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>116.7</v>
       </c>
+      <c r="II85" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63132,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>5</v>
       </c>
+      <c r="II86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63862,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>6</v>
       </c>
+      <c r="II87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64592,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>5</v>
       </c>
+      <c r="II88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65322,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>7</v>
       </c>
+      <c r="II89" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66052,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>141</v>
       </c>
+      <c r="II90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66782,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>190</v>
       </c>
+      <c r="II91" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67512,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>223</v>
       </c>
+      <c r="II92" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68242,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>65.40000000000001</v>
       </c>
+      <c r="II93" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68972,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>70</v>
       </c>
+      <c r="II94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69702,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>2</v>
       </c>
+      <c r="II95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70432,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>5</v>
       </c>
+      <c r="II96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71162,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>44</v>
       </c>
+      <c r="II97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71892,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>53</v>
       </c>
+      <c r="II98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72622,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>63</v>
       </c>
+      <c r="II99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73352,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>2</v>
       </c>
+      <c r="II100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74082,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>5</v>
       </c>
+      <c r="II101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74812,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>55.6</v>
       </c>
+      <c r="II102" t="n">
+        <v>33.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1194,8 +1194,11 @@
       <c r="IJ1" s="2" t="n">
         <v>10543</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="2" t="n">
         <v>10544</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10558</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1933,7 +1936,10 @@
       <c r="IJ2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IL2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2672,8 +2678,11 @@
       <c r="IJ3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3411,8 +3420,11 @@
       <c r="IJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4150,8 +4162,11 @@
       <c r="IJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4889,8 +4904,11 @@
       <c r="IJ6" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5628,8 +5646,11 @@
       <c r="IJ7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6367,8 +6388,11 @@
       <c r="IJ8" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7106,7 +7130,10 @@
       <c r="IJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7845,8 +7872,11 @@
       <c r="IJ10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8584,8 +8614,11 @@
       <c r="IJ11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9323,8 +9356,11 @@
       <c r="IJ12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10062,8 +10098,11 @@
       <c r="IJ13" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>422</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10801,8 +10840,11 @@
       <c r="IJ14" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11540,8 +11582,11 @@
       <c r="IJ15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12279,8 +12324,11 @@
       <c r="IJ16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13018,8 +13066,11 @@
       <c r="IJ17" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13757,8 +13808,11 @@
       <c r="IJ18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14496,8 +14550,11 @@
       <c r="IJ19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15235,8 +15292,11 @@
       <c r="IJ20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -15974,8 +16034,11 @@
       <c r="IJ21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16713,8 +16776,11 @@
       <c r="IJ22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17452,7 +17518,10 @@
       <c r="IJ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18191,8 +18260,11 @@
       <c r="IJ24" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18930,8 +19002,11 @@
       <c r="IJ25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19669,8 +19744,11 @@
       <c r="IJ26" s="2" t="n">
         <v>17.43</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>35.17</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20408,8 +20486,11 @@
       <c r="IJ27" s="2" t="n">
         <v>10.46</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="2" t="n">
         <v>12.96</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>19.18</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21147,8 +21228,11 @@
       <c r="IJ28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21886,8 +21970,11 @@
       <c r="IJ29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22625,8 +22712,11 @@
       <c r="IJ30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23364,8 +23454,11 @@
       <c r="IJ31" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24103,8 +24196,11 @@
       <c r="IJ32" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24842,8 +24938,11 @@
       <c r="IJ33" s="2" t="n">
         <v>3.05</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25581,8 +25680,11 @@
       <c r="IJ34" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="2" t="n">
         <v>44.6</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26320,8 +26422,11 @@
       <c r="IJ35" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>21.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27059,8 +27164,11 @@
       <c r="IJ36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="IL36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27798,8 +27906,11 @@
       <c r="IJ37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28537,8 +28648,11 @@
       <c r="IJ38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29276,8 +29390,11 @@
       <c r="IJ39" s="2" t="n">
         <v>102.2</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="2" t="n">
         <v>96.40000000000001</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>97.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30015,7 +30132,10 @@
       <c r="IJ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30754,7 +30874,10 @@
       <c r="IJ41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31493,8 +31616,11 @@
       <c r="IJ42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -32232,7 +32358,10 @@
       <c r="IJ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32971,8 +33100,11 @@
       <c r="IJ44" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33710,8 +33842,11 @@
       <c r="IJ45" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34449,8 +34584,11 @@
       <c r="IJ46" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>293</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35188,8 +35326,11 @@
       <c r="IJ47" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -35927,8 +36068,11 @@
       <c r="IJ48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36666,8 +36810,11 @@
       <c r="IJ49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IL49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37405,8 +37552,11 @@
       <c r="IJ50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38144,8 +38294,11 @@
       <c r="IJ51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38883,8 +39036,11 @@
       <c r="IJ52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39622,8 +39778,11 @@
       <c r="IJ53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40361,8 +40520,11 @@
       <c r="IJ54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41100,8 +41262,11 @@
       <c r="IJ55" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -41839,8 +42004,11 @@
       <c r="IJ56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IL56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42578,8 +42746,11 @@
       <c r="IJ57" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43317,8 +43488,11 @@
       <c r="IJ58" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44056,8 +44230,11 @@
       <c r="IJ59" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="2" t="n">
         <v>376</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44795,8 +44972,11 @@
       <c r="IJ60" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45534,8 +45714,11 @@
       <c r="IJ61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46273,8 +46456,11 @@
       <c r="IJ62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47012,8 +47198,11 @@
       <c r="IJ63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47751,8 +47940,11 @@
       <c r="IJ64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48490,8 +48682,11 @@
       <c r="IJ65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49229,8 +49424,11 @@
       <c r="IJ66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -49968,8 +50166,11 @@
       <c r="IJ67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50707,8 +50908,11 @@
       <c r="IJ68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51446,7 +51650,10 @@
       <c r="IJ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52185,8 +52392,11 @@
       <c r="IJ70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -52924,8 +53134,11 @@
       <c r="IJ71" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53663,8 +53876,11 @@
       <c r="IJ72" s="2" t="n">
         <v>37.9</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="2" t="n">
         <v>34.18</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54402,8 +54618,11 @@
       <c r="IJ73" s="2" t="n">
         <v>23.69</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>15.79</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55141,7 +55360,10 @@
       <c r="IJ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IL74" t="n">
         <v>40</v>
       </c>
     </row>
@@ -55880,8 +56102,11 @@
       <c r="IJ75" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56619,8 +56844,11 @@
       <c r="IJ76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57358,8 +57586,11 @@
       <c r="IJ77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58097,8 +58328,11 @@
       <c r="IJ78" s="2" t="n">
         <v>3.06</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>3.16</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -58836,8 +59070,11 @@
       <c r="IJ79" s="2" t="n">
         <v>4.9</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59575,8 +59812,11 @@
       <c r="IJ80" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60314,8 +60554,11 @@
       <c r="IJ81" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61053,8 +61296,11 @@
       <c r="IJ82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61792,8 +62038,11 @@
       <c r="IJ83" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IL83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62531,8 +62780,11 @@
       <c r="IJ84" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63270,8 +63522,11 @@
       <c r="IJ85" s="2" t="n">
         <v>116.5</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64009,8 +64264,11 @@
       <c r="IJ86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64748,8 +65006,11 @@
       <c r="IJ87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65487,8 +65748,11 @@
       <c r="IJ88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66226,8 +66490,11 @@
       <c r="IJ89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -66965,8 +67232,11 @@
       <c r="IJ90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67704,8 +67974,11 @@
       <c r="IJ91" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IL91" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68443,8 +68716,11 @@
       <c r="IJ92" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="2" t="n">
         <v>289</v>
+      </c>
+      <c r="IL92" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69182,8 +69458,11 @@
       <c r="IJ93" s="2" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -69921,8 +70200,11 @@
       <c r="IJ94" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70660,8 +70942,11 @@
       <c r="IJ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71399,8 +71684,11 @@
       <c r="IJ96" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72138,7 +72426,10 @@
       <c r="IJ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IL97" t="n">
         <v>40</v>
       </c>
     </row>
@@ -72877,8 +73168,11 @@
       <c r="IJ98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73616,8 +73910,11 @@
       <c r="IJ99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74355,7 +74652,10 @@
       <c r="IJ100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -75094,8 +75394,11 @@
       <c r="IJ101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -75833,8 +76136,11 @@
       <c r="IJ102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1197,8 +1197,11 @@
       <c r="IK1" s="2" t="n">
         <v>10544</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="2" t="n">
         <v>10558</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10563</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1939,7 +1942,10 @@
       <c r="IK2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2681,8 +2687,11 @@
       <c r="IK3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3423,8 +3432,11 @@
       <c r="IK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4165,8 +4177,11 @@
       <c r="IK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4907,8 +4922,11 @@
       <c r="IK6" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5649,8 +5667,11 @@
       <c r="IK7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6391,8 +6412,11 @@
       <c r="IK8" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7133,7 +7157,10 @@
       <c r="IK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,8 +7902,11 @@
       <c r="IK10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8617,8 +8647,11 @@
       <c r="IK11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9359,8 +9392,11 @@
       <c r="IK12" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10101,8 +10137,11 @@
       <c r="IK13" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="2" t="n">
         <v>422</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10843,8 +10882,11 @@
       <c r="IK14" s="2" t="n">
         <v>1.55</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11585,8 +11627,11 @@
       <c r="IK15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12327,8 +12372,11 @@
       <c r="IK16" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13069,8 +13117,11 @@
       <c r="IK17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13811,8 +13862,11 @@
       <c r="IK18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14553,8 +14607,11 @@
       <c r="IK19" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15295,8 +15352,11 @@
       <c r="IK20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16037,8 +16097,11 @@
       <c r="IK21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16779,8 +16842,11 @@
       <c r="IK22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17521,8 +17587,11 @@
       <c r="IK23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18263,8 +18332,11 @@
       <c r="IK24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19005,8 +19077,11 @@
       <c r="IK25" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>48.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19747,8 +19822,11 @@
       <c r="IK26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="2" t="n">
         <v>35.17</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>26.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20489,8 +20567,11 @@
       <c r="IK27" s="2" t="n">
         <v>12.96</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="2" t="n">
         <v>19.18</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21231,8 +21312,11 @@
       <c r="IK28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IM28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21973,8 +22057,11 @@
       <c r="IK29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22715,8 +22802,11 @@
       <c r="IK30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23457,8 +23547,11 @@
       <c r="IK31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24199,8 +24292,11 @@
       <c r="IK32" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24941,8 +25037,11 @@
       <c r="IK33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="2" t="n">
         <v>4.58</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25683,8 +25782,11 @@
       <c r="IK34" s="2" t="n">
         <v>44.6</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26425,8 +26527,11 @@
       <c r="IK35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="2" t="n">
         <v>21.8</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27167,8 +27272,11 @@
       <c r="IK36" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27909,8 +28017,11 @@
       <c r="IK37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28651,8 +28762,11 @@
       <c r="IK38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29393,8 +29507,11 @@
       <c r="IK39" s="2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="2" t="n">
         <v>97.2</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30135,7 +30252,10 @@
       <c r="IK40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30877,8 +30997,11 @@
       <c r="IK41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31619,8 +31742,11 @@
       <c r="IK42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -32361,7 +32487,10 @@
       <c r="IK43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33103,8 +33232,11 @@
       <c r="IK44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33845,8 +33977,11 @@
       <c r="IK45" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34587,8 +34722,11 @@
       <c r="IK46" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="2" t="n">
         <v>293</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35329,8 +35467,11 @@
       <c r="IK47" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="2" t="n">
         <v>69.40000000000001</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36071,8 +36212,11 @@
       <c r="IK48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36813,8 +36957,11 @@
       <c r="IK49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37555,8 +37702,11 @@
       <c r="IK50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38297,8 +38447,11 @@
       <c r="IK51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IM51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39039,8 +39192,11 @@
       <c r="IK52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39781,8 +39937,11 @@
       <c r="IK53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40523,8 +40682,11 @@
       <c r="IK54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41265,8 +41427,11 @@
       <c r="IK55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42007,8 +42172,11 @@
       <c r="IK56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IM56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42749,8 +42917,11 @@
       <c r="IK57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43491,8 +43662,11 @@
       <c r="IK58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44233,8 +44407,11 @@
       <c r="IK59" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44975,8 +45152,11 @@
       <c r="IK60" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45717,8 +45897,11 @@
       <c r="IK61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46459,7 +46642,10 @@
       <c r="IK62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IM62" t="n">
         <v>51</v>
       </c>
     </row>
@@ -47201,8 +47387,11 @@
       <c r="IK63" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47943,8 +48132,11 @@
       <c r="IK64" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48685,8 +48877,11 @@
       <c r="IK65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49427,7 +49622,10 @@
       <c r="IK66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IM66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -50169,8 +50367,11 @@
       <c r="IK67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50911,8 +51112,11 @@
       <c r="IK68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51653,8 +51857,11 @@
       <c r="IK69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52395,8 +52602,11 @@
       <c r="IK70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53137,8 +53347,11 @@
       <c r="IK71" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53879,8 +54092,11 @@
       <c r="IK72" s="2" t="n">
         <v>34.18</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54621,8 +54837,11 @@
       <c r="IK73" s="2" t="n">
         <v>23.5</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="2" t="n">
         <v>15.79</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55363,8 +55582,11 @@
       <c r="IK74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56105,8 +56327,11 @@
       <c r="IK75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56847,8 +57072,11 @@
       <c r="IK76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57589,8 +57817,11 @@
       <c r="IK77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58331,8 +58562,11 @@
       <c r="IK78" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="2" t="n">
         <v>3.16</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59073,8 +59307,11 @@
       <c r="IK79" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59815,8 +60052,11 @@
       <c r="IK80" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60557,8 +60797,11 @@
       <c r="IK81" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61299,8 +61542,11 @@
       <c r="IK82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62041,8 +62287,11 @@
       <c r="IK83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62783,8 +63032,11 @@
       <c r="IK84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63525,8 +63777,11 @@
       <c r="IK85" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64267,8 +64522,11 @@
       <c r="IK86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65009,8 +65267,11 @@
       <c r="IK87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65751,8 +66012,11 @@
       <c r="IK88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66493,8 +66757,11 @@
       <c r="IK89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67235,8 +67502,11 @@
       <c r="IK90" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67977,8 +68247,11 @@
       <c r="IK91" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68719,8 +68992,11 @@
       <c r="IK92" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69461,8 +69737,11 @@
       <c r="IK93" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70203,8 +70482,11 @@
       <c r="IK94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70945,8 +71227,11 @@
       <c r="IK95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71687,8 +71972,11 @@
       <c r="IK96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72429,8 +72717,11 @@
       <c r="IK97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73171,8 +73462,11 @@
       <c r="IK98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73913,8 +74207,11 @@
       <c r="IK99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74655,8 +74952,11 @@
       <c r="IK100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -75397,8 +75697,11 @@
       <c r="IK101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76139,8 +76442,11 @@
       <c r="IK102" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1200,8 +1200,11 @@
       <c r="IL1" s="2" t="n">
         <v>10558</v>
       </c>
-      <c r="IM1" t="n">
+      <c r="IM1" s="2" t="n">
         <v>10563</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10571</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1945,7 +1948,10 @@
       <c r="IL2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2690,8 +2696,11 @@
       <c r="IL3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IM3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3435,8 +3444,11 @@
       <c r="IL4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IM4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4180,8 +4192,11 @@
       <c r="IL5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IM5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4925,8 +4940,11 @@
       <c r="IL6" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IM6" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5670,8 +5688,11 @@
       <c r="IL7" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IM7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6415,8 +6436,11 @@
       <c r="IL8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IM8" t="n">
+      <c r="IM8" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7160,7 +7184,10 @@
       <c r="IL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM9" t="n">
+      <c r="IM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7905,8 +7932,11 @@
       <c r="IL10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM10" t="n">
+      <c r="IM10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8650,8 +8680,11 @@
       <c r="IL11" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="IM11" t="n">
+      <c r="IM11" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9395,8 +9428,11 @@
       <c r="IL12" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="IM12" t="n">
+      <c r="IM12" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10140,8 +10176,11 @@
       <c r="IL13" s="2" t="n">
         <v>422</v>
       </c>
-      <c r="IM13" t="n">
+      <c r="IM13" s="2" t="n">
         <v>377</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10885,8 +10924,11 @@
       <c r="IL14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="IM14" t="n">
+      <c r="IM14" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11630,8 +11672,11 @@
       <c r="IL15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="IM15" t="n">
+      <c r="IM15" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12375,8 +12420,11 @@
       <c r="IL16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IM16" t="n">
+      <c r="IM16" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13120,8 +13168,11 @@
       <c r="IL17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IM17" t="n">
+      <c r="IM17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13865,8 +13916,11 @@
       <c r="IL18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM18" t="n">
+      <c r="IM18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14610,8 +14664,11 @@
       <c r="IL19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IM19" t="n">
+      <c r="IM19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15355,8 +15412,11 @@
       <c r="IL20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM20" t="n">
+      <c r="IM20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16100,8 +16160,11 @@
       <c r="IL21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM21" t="n">
+      <c r="IM21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16845,8 +16908,11 @@
       <c r="IL22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM22" t="n">
+      <c r="IM22" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17590,8 +17656,11 @@
       <c r="IL23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM23" t="n">
+      <c r="IM23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18335,8 +18404,11 @@
       <c r="IL24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IM24" t="n">
+      <c r="IM24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19080,8 +19152,11 @@
       <c r="IL25" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="IM25" t="n">
+      <c r="IM25" s="2" t="n">
         <v>48.3</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19825,8 +19900,11 @@
       <c r="IL26" s="2" t="n">
         <v>35.17</v>
       </c>
-      <c r="IM26" t="n">
+      <c r="IM26" s="2" t="n">
         <v>26.93</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20570,8 +20648,11 @@
       <c r="IL27" s="2" t="n">
         <v>19.18</v>
       </c>
-      <c r="IM27" t="n">
+      <c r="IM27" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>19.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21315,8 +21396,11 @@
       <c r="IL28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IM28" t="n">
+      <c r="IM28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22060,8 +22144,11 @@
       <c r="IL29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IM29" t="n">
+      <c r="IM29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22805,8 +22892,11 @@
       <c r="IL30" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IM30" t="n">
+      <c r="IM30" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23550,8 +23640,11 @@
       <c r="IL31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IM31" t="n">
+      <c r="IM31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24295,8 +24388,11 @@
       <c r="IL32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="IM32" t="n">
+      <c r="IM32" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25040,8 +25136,11 @@
       <c r="IL33" s="2" t="n">
         <v>4.58</v>
       </c>
-      <c r="IM33" t="n">
+      <c r="IM33" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25785,8 +25884,11 @@
       <c r="IL34" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="IM34" t="n">
+      <c r="IM34" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26530,8 +26632,11 @@
       <c r="IL35" s="2" t="n">
         <v>21.8</v>
       </c>
-      <c r="IM35" t="n">
+      <c r="IM35" s="2" t="n">
         <v>21.5</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27275,8 +27380,11 @@
       <c r="IL36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IM36" t="n">
+      <c r="IM36" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28020,7 +28128,10 @@
       <c r="IL37" s="2" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="IM37" t="n">
+      <c r="IM37" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IN37" t="n">
         <v>87.40000000000001</v>
       </c>
     </row>
@@ -28765,7 +28876,10 @@
       <c r="IL38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IM38" t="n">
+      <c r="IM38" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IN38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -29510,8 +29624,11 @@
       <c r="IL39" s="2" t="n">
         <v>97.2</v>
       </c>
-      <c r="IM39" t="n">
+      <c r="IM39" s="2" t="n">
         <v>93.90000000000001</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30255,8 +30372,11 @@
       <c r="IL40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM40" t="n">
+      <c r="IM40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31000,7 +31120,10 @@
       <c r="IL41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM41" t="n">
+      <c r="IM41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31745,8 +31868,11 @@
       <c r="IL42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM42" t="n">
+      <c r="IM42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -32490,7 +32616,10 @@
       <c r="IL43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM43" t="n">
+      <c r="IM43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33235,8 +33364,11 @@
       <c r="IL44" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="IM44" t="n">
+      <c r="IM44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33980,8 +34112,11 @@
       <c r="IL45" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IM45" t="n">
+      <c r="IM45" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34725,8 +34860,11 @@
       <c r="IL46" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="IM46" t="n">
+      <c r="IM46" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35470,8 +35608,11 @@
       <c r="IL47" s="2" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="IM47" t="n">
+      <c r="IM47" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36215,8 +36356,11 @@
       <c r="IL48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IM48" t="n">
+      <c r="IM48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36960,8 +37104,11 @@
       <c r="IL49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM49" t="n">
+      <c r="IM49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37705,8 +37852,11 @@
       <c r="IL50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM50" t="n">
+      <c r="IM50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38450,8 +38600,11 @@
       <c r="IL51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IM51" t="n">
+      <c r="IM51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39195,8 +39348,11 @@
       <c r="IL52" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IM52" t="n">
+      <c r="IM52" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39940,8 +40096,11 @@
       <c r="IL53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IM53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40685,8 +40844,11 @@
       <c r="IL54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IM54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41430,8 +41592,11 @@
       <c r="IL55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM55" t="n">
+      <c r="IM55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42175,8 +42340,11 @@
       <c r="IL56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IM56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42920,8 +43088,11 @@
       <c r="IL57" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="IM57" t="n">
+      <c r="IM57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43665,8 +43836,11 @@
       <c r="IL58" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IM58" t="n">
+      <c r="IM58" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44410,8 +44584,11 @@
       <c r="IL59" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="IM59" t="n">
+      <c r="IM59" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45155,8 +45332,11 @@
       <c r="IL60" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="IM60" t="n">
+      <c r="IM60" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45900,8 +46080,11 @@
       <c r="IL61" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IM61" t="n">
+      <c r="IM61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46645,8 +46828,11 @@
       <c r="IL62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IM62" t="n">
+      <c r="IM62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47390,8 +47576,11 @@
       <c r="IL63" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IM63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48135,8 +48324,11 @@
       <c r="IL64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IM64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48880,8 +49072,11 @@
       <c r="IL65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM65" t="n">
+      <c r="IM65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49625,8 +49820,11 @@
       <c r="IL66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IM66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50370,8 +50568,11 @@
       <c r="IL67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM67" t="n">
+      <c r="IM67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51115,8 +51316,11 @@
       <c r="IL68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM68" t="n">
+      <c r="IM68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51860,8 +52064,11 @@
       <c r="IL69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM69" t="n">
+      <c r="IM69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52605,8 +52812,11 @@
       <c r="IL70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IM70" t="n">
+      <c r="IM70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53350,8 +53560,11 @@
       <c r="IL71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IM71" t="n">
+      <c r="IM71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54095,8 +54308,11 @@
       <c r="IL72" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IM72" t="n">
+      <c r="IM72" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54840,8 +55056,11 @@
       <c r="IL73" s="2" t="n">
         <v>15.79</v>
       </c>
-      <c r="IM73" t="n">
+      <c r="IM73" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55585,8 +55804,11 @@
       <c r="IL74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IM74" t="n">
+      <c r="IM74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56330,8 +56552,11 @@
       <c r="IL75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IM75" t="n">
+      <c r="IM75" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57075,8 +57300,11 @@
       <c r="IL76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IM76" t="n">
+      <c r="IM76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57820,8 +58048,11 @@
       <c r="IL77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IM77" t="n">
+      <c r="IM77" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58565,8 +58796,11 @@
       <c r="IL78" s="2" t="n">
         <v>3.16</v>
       </c>
-      <c r="IM78" t="n">
+      <c r="IM78" s="2" t="n">
         <v>1.95</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59310,8 +59544,11 @@
       <c r="IL79" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM79" t="n">
+      <c r="IM79" s="2" t="n">
         <v>3.9</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60055,8 +60292,11 @@
       <c r="IL80" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IM80" t="n">
+      <c r="IM80" s="2" t="n">
         <v>43.6</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60800,8 +61040,11 @@
       <c r="IL81" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="IM81" t="n">
+      <c r="IM81" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61545,8 +61788,11 @@
       <c r="IL82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="IM82" t="n">
+      <c r="IM82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62290,8 +62536,11 @@
       <c r="IL83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IM83" t="n">
+      <c r="IM83" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63035,8 +63284,11 @@
       <c r="IL84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IM84" t="n">
+      <c r="IM84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63780,8 +64032,11 @@
       <c r="IL85" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IM85" t="n">
+      <c r="IM85" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64525,8 +64780,11 @@
       <c r="IL86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM86" t="n">
+      <c r="IM86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65270,8 +65528,11 @@
       <c r="IL87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM87" t="n">
+      <c r="IM87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66015,8 +66276,11 @@
       <c r="IL88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM88" t="n">
+      <c r="IM88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66760,8 +67024,11 @@
       <c r="IL89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM89" t="n">
+      <c r="IM89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67505,8 +67772,11 @@
       <c r="IL90" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IM90" t="n">
+      <c r="IM90" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68250,8 +68520,11 @@
       <c r="IL91" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IM91" t="n">
+      <c r="IM91" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68995,8 +69268,11 @@
       <c r="IL92" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="IM92" t="n">
+      <c r="IM92" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69740,8 +70016,11 @@
       <c r="IL93" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="IM93" t="n">
+      <c r="IM93" s="2" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70485,8 +70764,11 @@
       <c r="IL94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IM94" t="n">
+      <c r="IM94" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71230,8 +71512,11 @@
       <c r="IL95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM95" t="n">
+      <c r="IM95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71975,8 +72260,11 @@
       <c r="IL96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM96" t="n">
+      <c r="IM96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72720,8 +73008,11 @@
       <c r="IL97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IM97" t="n">
+      <c r="IM97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73465,8 +73756,11 @@
       <c r="IL98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IM98" t="n">
+      <c r="IM98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74210,8 +74504,11 @@
       <c r="IL99" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IM99" t="n">
+      <c r="IM99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74955,8 +75252,11 @@
       <c r="IL100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM100" t="n">
+      <c r="IM100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -75700,8 +76000,11 @@
       <c r="IL101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM101" t="n">
+      <c r="IM101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76445,8 +76748,11 @@
       <c r="IL102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IM102" t="n">
+      <c r="IM102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1203,8 +1203,11 @@
       <c r="IM1" s="2" t="n">
         <v>10563</v>
       </c>
-      <c r="IN1" t="n">
+      <c r="IN1" s="2" t="n">
         <v>10571</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>10585</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1951,7 +1954,10 @@
       <c r="IM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IO2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2699,8 +2705,11 @@
       <c r="IM3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IN3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3447,8 +3456,11 @@
       <c r="IM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IN4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4195,8 +4207,11 @@
       <c r="IM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN5" t="n">
+      <c r="IN5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4943,8 +4958,11 @@
       <c r="IM6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IN6" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5691,8 +5709,11 @@
       <c r="IM7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IN7" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6439,8 +6460,11 @@
       <c r="IM8" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IN8" t="n">
+      <c r="IN8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7187,7 +7211,10 @@
       <c r="IM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN9" t="n">
+      <c r="IN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7935,8 +7962,11 @@
       <c r="IM10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN10" t="n">
+      <c r="IN10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8683,8 +8713,11 @@
       <c r="IM11" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="IN11" t="n">
+      <c r="IN11" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9431,8 +9464,11 @@
       <c r="IM12" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="IN12" t="n">
+      <c r="IN12" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10179,8 +10215,11 @@
       <c r="IM13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="IN13" t="n">
+      <c r="IN13" s="2" t="n">
         <v>354</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10927,8 +10966,11 @@
       <c r="IM14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="IN14" t="n">
+      <c r="IN14" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="IO14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11675,8 +11717,11 @@
       <c r="IM15" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IN15" t="n">
+      <c r="IN15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IO15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12423,8 +12468,11 @@
       <c r="IM16" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IN16" t="n">
+      <c r="IN16" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13171,8 +13219,11 @@
       <c r="IM17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IN17" t="n">
+      <c r="IN17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13919,8 +13970,11 @@
       <c r="IM18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN18" t="n">
+      <c r="IN18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IO18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14667,8 +14721,11 @@
       <c r="IM19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IN19" t="n">
+      <c r="IN19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IO19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15415,8 +15472,11 @@
       <c r="IM20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IN20" t="n">
+      <c r="IN20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16163,8 +16223,11 @@
       <c r="IM21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN21" t="n">
+      <c r="IN21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16911,8 +16974,11 @@
       <c r="IM22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IN22" t="n">
+      <c r="IN22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17659,8 +17725,11 @@
       <c r="IM23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN23" t="n">
+      <c r="IN23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18407,8 +18476,11 @@
       <c r="IM24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IN24" t="n">
+      <c r="IN24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19155,8 +19227,11 @@
       <c r="IM25" s="2" t="n">
         <v>48.3</v>
       </c>
-      <c r="IN25" t="n">
+      <c r="IN25" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19903,8 +19978,11 @@
       <c r="IM26" s="2" t="n">
         <v>26.93</v>
       </c>
-      <c r="IN26" t="n">
+      <c r="IN26" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>21.05</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20651,8 +20729,11 @@
       <c r="IM27" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN27" t="n">
+      <c r="IN27" s="2" t="n">
         <v>19.67</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21399,8 +21480,11 @@
       <c r="IM28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IN28" t="n">
+      <c r="IN28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IO28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22147,8 +22231,11 @@
       <c r="IM29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IN29" t="n">
+      <c r="IN29" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IO29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22895,8 +22982,11 @@
       <c r="IM30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IN30" t="n">
+      <c r="IN30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23643,8 +23733,11 @@
       <c r="IM31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IN31" t="n">
+      <c r="IN31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IO31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24391,8 +24484,11 @@
       <c r="IM32" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="IN32" t="n">
+      <c r="IN32" s="2" t="n">
         <v>3.06</v>
+      </c>
+      <c r="IO32" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25139,8 +25235,11 @@
       <c r="IM33" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="IN33" t="n">
+      <c r="IN33" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="IO33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25887,8 +25986,11 @@
       <c r="IM34" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="IN34" t="n">
+      <c r="IN34" s="2" t="n">
         <v>29.1</v>
+      </c>
+      <c r="IO34" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26635,8 +26737,11 @@
       <c r="IM35" s="2" t="n">
         <v>21.5</v>
       </c>
-      <c r="IN35" t="n">
+      <c r="IN35" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IO35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27383,8 +27488,11 @@
       <c r="IM36" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="IN36" t="n">
+      <c r="IN36" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="IO36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28131,8 +28239,11 @@
       <c r="IM37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IN37" t="n">
+      <c r="IN37" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IO37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28879,8 +28990,11 @@
       <c r="IM38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IN38" t="n">
+      <c r="IN38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IO38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29627,8 +29741,11 @@
       <c r="IM39" s="2" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="IN39" t="n">
+      <c r="IN39" s="2" t="n">
         <v>99.09999999999999</v>
+      </c>
+      <c r="IO39" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30375,8 +30492,11 @@
       <c r="IM40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN40" t="n">
+      <c r="IN40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31123,7 +31243,10 @@
       <c r="IM41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN41" t="n">
+      <c r="IN41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31871,7 +31994,10 @@
       <c r="IM42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN42" t="n">
+      <c r="IN42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IO42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -32619,8 +32745,11 @@
       <c r="IM43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN43" t="n">
+      <c r="IN43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33367,8 +33496,11 @@
       <c r="IM44" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IN44" t="n">
+      <c r="IN44" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34115,8 +34247,11 @@
       <c r="IM45" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="IN45" t="n">
+      <c r="IN45" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34863,8 +34998,11 @@
       <c r="IM46" s="2" t="n">
         <v>279</v>
       </c>
-      <c r="IN46" t="n">
+      <c r="IN46" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="IO46" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35611,8 +35749,11 @@
       <c r="IM47" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IN47" t="n">
+      <c r="IN47" s="2" t="n">
         <v>69.8</v>
+      </c>
+      <c r="IO47" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36359,8 +36500,11 @@
       <c r="IM48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IN48" t="n">
+      <c r="IN48" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IO48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37107,8 +37251,11 @@
       <c r="IM49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN49" t="n">
+      <c r="IN49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37855,8 +38002,11 @@
       <c r="IM50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IN50" t="n">
+      <c r="IN50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IO50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38603,8 +38753,11 @@
       <c r="IM51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IN51" t="n">
+      <c r="IN51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IO51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39351,8 +39504,11 @@
       <c r="IM52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IN52" t="n">
+      <c r="IN52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40099,8 +40255,11 @@
       <c r="IM53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IN53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IO53" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40847,8 +41006,11 @@
       <c r="IM54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IN54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41595,8 +41757,11 @@
       <c r="IM55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN55" t="n">
+      <c r="IN55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42343,8 +42508,11 @@
       <c r="IM56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IN56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO56" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43091,8 +43259,11 @@
       <c r="IM57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IN57" t="n">
+      <c r="IN57" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IO57" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43839,8 +44010,11 @@
       <c r="IM58" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IN58" t="n">
+      <c r="IN58" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IO58" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44587,8 +44761,11 @@
       <c r="IM59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="IN59" t="n">
+      <c r="IN59" s="2" t="n">
         <v>408</v>
+      </c>
+      <c r="IO59" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45335,8 +45512,11 @@
       <c r="IM60" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="IN60" t="n">
+      <c r="IN60" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="IO60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46083,8 +46263,11 @@
       <c r="IM61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IN61" t="n">
+      <c r="IN61" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="IO61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46831,8 +47014,11 @@
       <c r="IM62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IN62" t="n">
+      <c r="IN62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IO62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47579,8 +47765,11 @@
       <c r="IM63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IN63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IO63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48327,8 +48516,11 @@
       <c r="IM64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IN64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IO64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49075,8 +49267,11 @@
       <c r="IM65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN65" t="n">
+      <c r="IN65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IO65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49823,8 +50018,11 @@
       <c r="IM66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IN66" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50571,8 +50769,11 @@
       <c r="IM67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IN67" t="n">
+      <c r="IN67" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51319,8 +51520,11 @@
       <c r="IM68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN68" t="n">
+      <c r="IN68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IO68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52067,8 +52271,11 @@
       <c r="IM69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN69" t="n">
+      <c r="IN69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52815,8 +53022,11 @@
       <c r="IM70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IN70" t="n">
+      <c r="IN70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53563,8 +53773,11 @@
       <c r="IM71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN71" t="n">
+      <c r="IN71" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IO71" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54311,8 +54524,11 @@
       <c r="IM72" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IN72" t="n">
+      <c r="IN72" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IO72" t="n">
+        <v>55.43</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55059,8 +55275,11 @@
       <c r="IM73" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IN73" t="n">
+      <c r="IN73" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IO73" t="n">
+        <v>21.56</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55807,8 +56026,11 @@
       <c r="IM74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN74" t="n">
+      <c r="IN74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56555,8 +56777,11 @@
       <c r="IM75" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN75" t="n">
+      <c r="IN75" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57303,8 +57528,11 @@
       <c r="IM76" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IN76" t="n">
+      <c r="IN76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IO76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58051,8 +58279,11 @@
       <c r="IM77" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN77" t="n">
+      <c r="IN77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IO77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58799,8 +59030,11 @@
       <c r="IM78" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="IN78" t="n">
+      <c r="IN78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IO78" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59547,8 +59781,11 @@
       <c r="IM79" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="IN79" t="n">
+      <c r="IN79" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IO79" t="n">
+        <v>7.57</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60295,8 +60532,11 @@
       <c r="IM80" s="2" t="n">
         <v>43.6</v>
       </c>
-      <c r="IN80" t="n">
+      <c r="IN80" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IO80" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61043,8 +61283,11 @@
       <c r="IM81" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="IN81" t="n">
+      <c r="IN81" s="2" t="n">
         <v>8.300000000000001</v>
+      </c>
+      <c r="IO81" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61791,8 +62034,11 @@
       <c r="IM82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IN82" t="n">
+      <c r="IN82" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="IO82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62539,8 +62785,11 @@
       <c r="IM83" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IN83" t="n">
+      <c r="IN83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IO83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63287,8 +63536,11 @@
       <c r="IM84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IN84" t="n">
+      <c r="IN84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IO84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64035,8 +64287,11 @@
       <c r="IM85" s="2" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="IN85" t="n">
+      <c r="IN85" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="IO85" t="n">
+        <v>90.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64783,8 +65038,11 @@
       <c r="IM86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN86" t="n">
+      <c r="IN86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65531,8 +65789,11 @@
       <c r="IM87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IN87" t="n">
+      <c r="IN87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66279,8 +66540,11 @@
       <c r="IM88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IN88" t="n">
+      <c r="IN88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67027,8 +67291,11 @@
       <c r="IM89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN89" t="n">
+      <c r="IN89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67775,8 +68042,11 @@
       <c r="IM90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IN90" t="n">
+      <c r="IN90" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IO90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68523,8 +68793,11 @@
       <c r="IM91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="IN91" t="n">
+      <c r="IN91" s="2" t="n">
         <v>280</v>
+      </c>
+      <c r="IO91" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69271,8 +69544,11 @@
       <c r="IM92" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IN92" t="n">
+      <c r="IN92" s="2" t="n">
         <v>288</v>
+      </c>
+      <c r="IO92" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70019,8 +70295,11 @@
       <c r="IM93" s="2" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="IN93" t="n">
+      <c r="IN93" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="IO93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70767,8 +71046,11 @@
       <c r="IM94" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN94" t="n">
+      <c r="IN94" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71515,8 +71797,11 @@
       <c r="IM95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN95" t="n">
+      <c r="IN95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72263,8 +72548,11 @@
       <c r="IM96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN96" t="n">
+      <c r="IN96" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IO96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73011,8 +73299,11 @@
       <c r="IM97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN97" t="n">
+      <c r="IN97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IO97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73759,8 +74050,11 @@
       <c r="IM98" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IN98" t="n">
+      <c r="IN98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IO98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74507,8 +74801,11 @@
       <c r="IM99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IN99" t="n">
+      <c r="IN99" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IO99" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75255,8 +75552,11 @@
       <c r="IM100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN100" t="n">
+      <c r="IN100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76003,8 +76303,11 @@
       <c r="IM101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IN101" t="n">
+      <c r="IN101" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76751,8 +77054,11 @@
       <c r="IM102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IN102" t="n">
+      <c r="IN102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IO102" t="n">
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1206,8 +1206,11 @@
       <c r="IN1" s="2" t="n">
         <v>10571</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="2" t="n">
         <v>10585</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10595</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1957,7 +1960,10 @@
       <c r="IN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2708,8 +2714,11 @@
       <c r="IN3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3459,8 +3468,11 @@
       <c r="IN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4210,8 +4222,11 @@
       <c r="IN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4961,8 +4976,11 @@
       <c r="IN6" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5712,8 +5730,11 @@
       <c r="IN7" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6463,8 +6484,11 @@
       <c r="IN8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7214,7 +7238,10 @@
       <c r="IN9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7965,8 +7992,11 @@
       <c r="IN10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8716,8 +8746,11 @@
       <c r="IN11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9467,8 +9500,11 @@
       <c r="IN12" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="2" t="n">
         <v>174</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10218,8 +10254,11 @@
       <c r="IN13" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="2" t="n">
         <v>400</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>411</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10969,8 +11008,11 @@
       <c r="IN14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11720,8 +11762,11 @@
       <c r="IN15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12471,8 +12516,11 @@
       <c r="IN16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13222,8 +13270,11 @@
       <c r="IN17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13973,8 +14024,11 @@
       <c r="IN18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14724,8 +14778,11 @@
       <c r="IN19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15475,8 +15532,11 @@
       <c r="IN20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16226,8 +16286,11 @@
       <c r="IN21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16977,8 +17040,11 @@
       <c r="IN22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17728,8 +17794,11 @@
       <c r="IN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18479,8 +18548,11 @@
       <c r="IN24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19230,8 +19302,11 @@
       <c r="IN25" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19981,8 +20056,11 @@
       <c r="IN26" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="2" t="n">
         <v>21.05</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>45.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20732,8 +20810,11 @@
       <c r="IN27" s="2" t="n">
         <v>19.67</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>13.26</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21483,8 +21564,11 @@
       <c r="IN28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22234,8 +22318,11 @@
       <c r="IN29" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22985,8 +23072,11 @@
       <c r="IN30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23736,8 +23826,11 @@
       <c r="IN31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24487,8 +24580,11 @@
       <c r="IN32" s="2" t="n">
         <v>3.06</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25238,8 +25334,11 @@
       <c r="IN33" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>7.11</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25989,8 +26088,11 @@
       <c r="IN34" s="2" t="n">
         <v>29.1</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26740,8 +26842,11 @@
       <c r="IN35" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>14.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27491,8 +27596,11 @@
       <c r="IN36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28242,8 +28350,11 @@
       <c r="IN37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28993,8 +29104,11 @@
       <c r="IN38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29744,8 +29858,11 @@
       <c r="IN39" s="2" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30495,8 +30612,11 @@
       <c r="IN40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31246,8 +31366,11 @@
       <c r="IN41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31997,8 +32120,11 @@
       <c r="IN42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -32748,8 +32874,11 @@
       <c r="IN43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33499,8 +33628,11 @@
       <c r="IN44" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34250,8 +34382,11 @@
       <c r="IN45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35001,8 +35136,11 @@
       <c r="IN46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="2" t="n">
         <v>313</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35752,8 +35890,11 @@
       <c r="IN47" s="2" t="n">
         <v>69.8</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="2" t="n">
         <v>78.2</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36503,8 +36644,11 @@
       <c r="IN48" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37254,8 +37398,11 @@
       <c r="IN49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38005,8 +38152,11 @@
       <c r="IN50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38756,8 +38906,11 @@
       <c r="IN51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39507,8 +39660,11 @@
       <c r="IN52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40258,8 +40414,11 @@
       <c r="IN53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41009,8 +41168,11 @@
       <c r="IN54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41760,8 +41922,11 @@
       <c r="IN55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42511,8 +42676,11 @@
       <c r="IN56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43262,8 +43430,11 @@
       <c r="IN57" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44013,8 +44184,11 @@
       <c r="IN58" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44764,8 +44938,11 @@
       <c r="IN59" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45515,8 +45692,11 @@
       <c r="IN60" s="2" t="n">
         <v>1.76</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46266,8 +46446,11 @@
       <c r="IN61" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47017,8 +47200,11 @@
       <c r="IN62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47768,8 +47954,11 @@
       <c r="IN63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48519,8 +48708,11 @@
       <c r="IN64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49270,8 +49462,11 @@
       <c r="IN65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50021,8 +50216,11 @@
       <c r="IN66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50772,8 +50970,11 @@
       <c r="IN67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51523,8 +51724,11 @@
       <c r="IN68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52274,8 +52478,11 @@
       <c r="IN69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53025,8 +53232,11 @@
       <c r="IN70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53776,8 +53986,11 @@
       <c r="IN71" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54527,8 +54740,11 @@
       <c r="IN72" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="2" t="n">
         <v>55.43</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>43.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55278,8 +55494,11 @@
       <c r="IN73" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="2" t="n">
         <v>21.56</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>24.71</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56029,8 +56248,11 @@
       <c r="IN74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56780,8 +57002,11 @@
       <c r="IN75" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57531,8 +57756,11 @@
       <c r="IN76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58282,8 +58510,11 @@
       <c r="IN77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59033,8 +59264,11 @@
       <c r="IN78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59784,8 +60018,11 @@
       <c r="IN79" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="2" t="n">
         <v>7.57</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60535,8 +60772,11 @@
       <c r="IN80" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="2" t="n">
         <v>26.4</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61286,8 +61526,11 @@
       <c r="IN81" s="2" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="2" t="n">
         <v>13.2</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62037,8 +62280,11 @@
       <c r="IN82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62788,8 +63034,11 @@
       <c r="IN83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63539,8 +63788,11 @@
       <c r="IN84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64290,8 +64542,11 @@
       <c r="IN85" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="2" t="n">
         <v>90.7</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>115.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65041,8 +65296,11 @@
       <c r="IN86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65792,8 +66050,11 @@
       <c r="IN87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66543,8 +66804,11 @@
       <c r="IN88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67294,8 +67558,11 @@
       <c r="IN89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68045,8 +68312,11 @@
       <c r="IN90" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68796,8 +69066,11 @@
       <c r="IN91" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69547,8 +69820,11 @@
       <c r="IN92" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="2" t="n">
         <v>290</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70298,8 +70574,11 @@
       <c r="IN93" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71049,8 +71328,11 @@
       <c r="IN94" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71800,8 +72082,11 @@
       <c r="IN95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72551,8 +72836,11 @@
       <c r="IN96" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73302,8 +73590,11 @@
       <c r="IN97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74053,8 +74344,11 @@
       <c r="IN98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74804,8 +75098,11 @@
       <c r="IN99" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75555,7 +75852,10 @@
       <c r="IN100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76306,8 +76606,11 @@
       <c r="IN101" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77057,8 +77360,11 @@
       <c r="IN102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1209,8 +1209,14 @@
       <c r="IO1" s="2" t="n">
         <v>10585</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="2" t="n">
         <v>10595</v>
+      </c>
+      <c r="IQ1" s="2" t="n">
+        <v>10601</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10614</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1963,7 +1969,13 @@
       <c r="IO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2717,8 +2729,14 @@
       <c r="IO3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3471,8 +3489,14 @@
       <c r="IO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4225,8 +4249,14 @@
       <c r="IO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -4979,8 +5009,14 @@
       <c r="IO6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IQ6" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5733,8 +5769,14 @@
       <c r="IO7" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IQ7" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6487,8 +6529,14 @@
       <c r="IO8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IQ8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7241,7 +7289,13 @@
       <c r="IO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7995,8 +8049,14 @@
       <c r="IO10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8749,8 +8809,14 @@
       <c r="IO11" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IQ11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9503,8 +9569,14 @@
       <c r="IO12" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="IQ12" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10257,8 +10329,14 @@
       <c r="IO13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="2" t="n">
         <v>411</v>
+      </c>
+      <c r="IQ13" s="2" t="n">
+        <v>352</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11011,8 +11089,14 @@
       <c r="IO14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="2" t="n">
         <v>1.15</v>
+      </c>
+      <c r="IQ14" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11765,8 +11849,14 @@
       <c r="IO15" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IQ15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12519,8 +12609,14 @@
       <c r="IO16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13273,8 +13369,14 @@
       <c r="IO17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ17" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14027,8 +14129,14 @@
       <c r="IO18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IQ18" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14781,8 +14889,14 @@
       <c r="IO19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IQ19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15535,8 +15649,14 @@
       <c r="IO20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IQ20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16289,7 +16409,13 @@
       <c r="IO21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -17043,8 +17169,14 @@
       <c r="IO22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IQ22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17797,8 +17929,14 @@
       <c r="IO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18551,8 +18689,14 @@
       <c r="IO24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IQ24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19305,8 +19449,14 @@
       <c r="IO25" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20059,8 +20209,14 @@
       <c r="IO26" s="2" t="n">
         <v>21.05</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="2" t="n">
         <v>45.67</v>
+      </c>
+      <c r="IQ26" s="2" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>27.86</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20813,8 +20969,14 @@
       <c r="IO27" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="2" t="n">
         <v>13.26</v>
+      </c>
+      <c r="IQ27" s="2" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>16.96</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21567,8 +21729,14 @@
       <c r="IO28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IQ28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22321,8 +22489,14 @@
       <c r="IO29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ29" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23075,8 +23249,14 @@
       <c r="IO30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ30" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23829,8 +24009,14 @@
       <c r="IO31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IQ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24583,8 +24769,14 @@
       <c r="IO32" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IQ32" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25337,8 +25529,14 @@
       <c r="IO33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="2" t="n">
         <v>7.11</v>
+      </c>
+      <c r="IQ33" s="2" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>3.93</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26091,8 +26289,14 @@
       <c r="IO34" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="2" t="n">
         <v>43.8</v>
+      </c>
+      <c r="IQ34" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26845,8 +27049,14 @@
       <c r="IO35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="2" t="n">
         <v>14.1</v>
+      </c>
+      <c r="IQ35" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27599,8 +27809,14 @@
       <c r="IO36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IQ36" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28353,8 +28569,14 @@
       <c r="IO37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IQ37" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29107,8 +29329,14 @@
       <c r="IO38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IQ38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29861,8 +30089,14 @@
       <c r="IO39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IQ39" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>100.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30615,8 +30849,14 @@
       <c r="IO40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31369,8 +31609,14 @@
       <c r="IO41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32123,7 +32369,13 @@
       <c r="IO42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IQ42" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR42" t="n">
         <v>9</v>
       </c>
     </row>
@@ -32877,8 +33129,14 @@
       <c r="IO43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33631,8 +33889,14 @@
       <c r="IO44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="IQ44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34385,8 +34649,14 @@
       <c r="IO45" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="2" t="n">
         <v>262</v>
+      </c>
+      <c r="IQ45" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35139,8 +35409,14 @@
       <c r="IO46" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="IQ46" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35893,8 +36169,14 @@
       <c r="IO47" s="2" t="n">
         <v>78.2</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IQ47" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36647,8 +36929,14 @@
       <c r="IO48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IQ48" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37401,8 +37689,14 @@
       <c r="IO49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38155,8 +38449,14 @@
       <c r="IO50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38909,8 +39209,14 @@
       <c r="IO51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IQ51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39663,8 +39969,14 @@
       <c r="IO52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ52" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40417,8 +40729,14 @@
       <c r="IO53" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IQ53" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41171,8 +41489,14 @@
       <c r="IO54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41925,7 +42249,13 @@
       <c r="IO55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -42679,8 +43009,14 @@
       <c r="IO56" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IQ56" s="2" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43433,8 +43769,14 @@
       <c r="IO57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="IQ57" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44187,8 +44529,14 @@
       <c r="IO58" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IQ58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44941,8 +45289,14 @@
       <c r="IO59" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="2" t="n">
         <v>346</v>
+      </c>
+      <c r="IQ59" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45695,8 +46049,14 @@
       <c r="IO60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IQ60" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46449,8 +46809,14 @@
       <c r="IO61" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="IQ61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47203,8 +47569,14 @@
       <c r="IO62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IQ62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47957,8 +48329,14 @@
       <c r="IO63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ63" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48711,8 +49089,14 @@
       <c r="IO64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IQ64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49465,8 +49849,14 @@
       <c r="IO65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IQ65" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50219,7 +50609,13 @@
       <c r="IO66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -50973,8 +51369,14 @@
       <c r="IO67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51727,8 +52129,14 @@
       <c r="IO68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52481,8 +52889,14 @@
       <c r="IO69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53235,8 +53649,14 @@
       <c r="IO70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53989,8 +54409,14 @@
       <c r="IO71" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IQ71" s="2" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54743,8 +55169,14 @@
       <c r="IO72" s="2" t="n">
         <v>55.43</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="2" t="n">
         <v>43.25</v>
+      </c>
+      <c r="IQ72" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>45.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55497,8 +55929,14 @@
       <c r="IO73" s="2" t="n">
         <v>21.56</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="2" t="n">
         <v>24.71</v>
+      </c>
+      <c r="IQ73" s="2" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>24.13</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56251,8 +56689,14 @@
       <c r="IO74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IQ74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57005,8 +57449,14 @@
       <c r="IO75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IQ75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57759,8 +58209,14 @@
       <c r="IO76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58513,8 +58969,14 @@
       <c r="IO77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IQ77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59267,8 +59729,14 @@
       <c r="IO78" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ78" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60021,8 +60489,14 @@
       <c r="IO79" s="2" t="n">
         <v>7.57</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="2" t="n">
         <v>5.25</v>
+      </c>
+      <c r="IQ79" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60775,8 +61249,14 @@
       <c r="IO80" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IQ80" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>34.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61529,8 +62009,14 @@
       <c r="IO81" s="2" t="n">
         <v>13.2</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IQ81" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62283,8 +62769,14 @@
       <c r="IO82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="2" t="n">
         <v>186.3</v>
+      </c>
+      <c r="IQ82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63037,8 +63529,14 @@
       <c r="IO83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IQ83" s="2" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63791,8 +64289,14 @@
       <c r="IO84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="IQ84" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64545,8 +65049,14 @@
       <c r="IO85" s="2" t="n">
         <v>90.7</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="2" t="n">
         <v>115.8</v>
+      </c>
+      <c r="IQ85" s="2" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>98.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65299,8 +65809,14 @@
       <c r="IO86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66053,8 +66569,14 @@
       <c r="IO87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66807,8 +67329,14 @@
       <c r="IO88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67561,8 +68089,14 @@
       <c r="IO89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68315,8 +68849,14 @@
       <c r="IO90" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="IQ90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69069,8 +69609,14 @@
       <c r="IO91" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IQ91" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69823,8 +70369,14 @@
       <c r="IO92" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IQ92" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70577,8 +71129,14 @@
       <c r="IO93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="2" t="n">
         <v>69.7</v>
+      </c>
+      <c r="IQ93" s="2" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71331,8 +71889,14 @@
       <c r="IO94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IQ94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72085,7 +72649,13 @@
       <c r="IO95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IQ95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -72839,7 +73409,13 @@
       <c r="IO96" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR96" t="n">
         <v>5</v>
       </c>
     </row>
@@ -73593,8 +74169,14 @@
       <c r="IO97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IQ97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74347,8 +74929,14 @@
       <c r="IO98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75101,8 +75689,14 @@
       <c r="IO99" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75855,8 +76449,14 @@
       <c r="IO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76609,8 +77209,14 @@
       <c r="IO101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77363,8 +77969,14 @@
       <c r="IO102" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IQ102" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Melbourne_stats.xlsx
+++ b/django_AFL_ML/Data/Melbourne_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IK7" activeCellId="0" sqref="IK7"/>
@@ -1215,8 +1215,14 @@
       <c r="IQ1" s="2" t="n">
         <v>10601</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="2" t="n">
         <v>10614</v>
+      </c>
+      <c r="IS1" s="2" t="n">
+        <v>10624</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10629</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1975,7 +1981,13 @@
       <c r="IQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2735,8 +2747,14 @@
       <c r="IQ3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3495,8 +3513,14 @@
       <c r="IQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4255,8 +4279,14 @@
       <c r="IQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5015,8 +5045,14 @@
       <c r="IQ6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="IS6" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5775,8 +5811,14 @@
       <c r="IQ7" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IS7" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6535,8 +6577,14 @@
       <c r="IQ8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IS8" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7295,7 +7343,13 @@
       <c r="IQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8055,8 +8109,14 @@
       <c r="IQ10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8815,8 +8875,14 @@
       <c r="IQ11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="IS11" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9575,8 +9641,14 @@
       <c r="IQ12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="IS12" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10335,8 +10407,14 @@
       <c r="IQ13" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="2" t="n">
         <v>390</v>
+      </c>
+      <c r="IS13" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11095,8 +11173,14 @@
       <c r="IQ14" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="IS14" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11855,8 +11939,14 @@
       <c r="IQ15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IS15" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12615,8 +12705,14 @@
       <c r="IQ16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IS16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13375,8 +13471,14 @@
       <c r="IQ17" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IS17" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14135,7 +14237,13 @@
       <c r="IQ18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IS18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IT18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -14895,7 +15003,13 @@
       <c r="IQ19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IS19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -15655,7 +15769,13 @@
       <c r="IQ20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IT20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -16415,8 +16535,14 @@
       <c r="IQ21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17175,8 +17301,14 @@
       <c r="IQ22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17935,8 +18067,14 @@
       <c r="IQ23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18695,8 +18833,14 @@
       <c r="IQ24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IS24" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19455,8 +19599,14 @@
       <c r="IQ25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="IS25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20215,8 +20365,14 @@
       <c r="IQ26" s="2" t="n">
         <v>27.08</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="2" t="n">
         <v>27.86</v>
+      </c>
+      <c r="IS26" s="2" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>23.71</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20975,8 +21131,14 @@
       <c r="IQ27" s="2" t="n">
         <v>13.54</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="2" t="n">
         <v>16.96</v>
+      </c>
+      <c r="IS27" s="2" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>11.07</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21735,8 +21897,14 @@
       <c r="IQ28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IS28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22495,7 +22663,13 @@
       <c r="IQ29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IS29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IT29" t="n">
         <v>54</v>
       </c>
     </row>
@@ -23255,8 +23429,14 @@
       <c r="IQ30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IS30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24015,8 +24195,14 @@
       <c r="IQ31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IS31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24775,8 +24961,14 @@
       <c r="IQ32" s="2" t="n">
         <v>2.15</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="2" t="n">
         <v>2.39</v>
+      </c>
+      <c r="IS32" s="2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25535,8 +25727,14 @@
       <c r="IQ33" s="2" t="n">
         <v>4.31</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="2" t="n">
         <v>3.93</v>
+      </c>
+      <c r="IS33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26295,8 +26493,14 @@
       <c r="IQ34" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="IS34" s="2" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27055,8 +27259,14 @@
       <c r="IQ35" s="2" t="n">
         <v>23.2</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IS35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27815,7 +28025,13 @@
       <c r="IQ36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="IS36" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="IT36" t="n">
         <v>187.6</v>
       </c>
     </row>
@@ -28575,8 +28791,14 @@
       <c r="IQ37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IS37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29335,7 +29557,13 @@
       <c r="IQ38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IS38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IT38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -30095,8 +30323,14 @@
       <c r="IQ39" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="2" t="n">
         <v>100.9</v>
+      </c>
+      <c r="IS39" s="2" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30855,8 +31089,14 @@
       <c r="IQ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31615,7 +31855,13 @@
       <c r="IQ41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32375,8 +32621,14 @@
       <c r="IQ42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS42" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33135,8 +33387,14 @@
       <c r="IQ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33895,8 +34153,14 @@
       <c r="IQ44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IS44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34655,8 +34919,14 @@
       <c r="IQ45" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="IS45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35415,8 +35685,14 @@
       <c r="IQ46" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="IS46" s="2" t="n">
+        <v>307</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36175,8 +36451,14 @@
       <c r="IQ47" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="2" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="IS47" s="2" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36935,7 +37217,13 @@
       <c r="IQ48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IS48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IT48" t="n">
         <v>54</v>
       </c>
     </row>
@@ -37695,8 +37983,14 @@
       <c r="IQ49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IS49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38455,8 +38749,14 @@
       <c r="IQ50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39215,8 +39515,14 @@
       <c r="IQ51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IS51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39975,8 +40281,14 @@
       <c r="IQ52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IS52" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40735,8 +41047,14 @@
       <c r="IQ53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IS53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41495,8 +41813,14 @@
       <c r="IQ54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42255,8 +42579,14 @@
       <c r="IQ55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43015,8 +43345,14 @@
       <c r="IQ56" s="2" t="n">
         <v>92.3</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IS56" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43775,8 +44111,14 @@
       <c r="IQ57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="IS57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44535,8 +44877,14 @@
       <c r="IQ58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="IS58" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45295,8 +45643,14 @@
       <c r="IQ59" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="IS59" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46055,8 +46409,14 @@
       <c r="IQ60" s="2" t="n">
         <v>1.39</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IS60" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46815,8 +47175,14 @@
       <c r="IQ61" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="IS61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47575,8 +47941,14 @@
       <c r="IQ62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IS62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48335,8 +48707,14 @@
       <c r="IQ63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IS63" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49095,7 +49473,13 @@
       <c r="IQ64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IS64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -49855,7 +50239,13 @@
       <c r="IQ65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IS65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IT65" t="n">
         <v>25</v>
       </c>
     </row>
@@ -50615,7 +51005,13 @@
       <c r="IQ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IS66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -51375,8 +51771,14 @@
       <c r="IQ67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IS67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52135,8 +52537,14 @@
       <c r="IQ68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52895,8 +53303,14 @@
       <c r="IQ69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53655,8 +54069,14 @@
       <c r="IQ70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS70" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54415,8 +54835,14 @@
       <c r="IQ71" s="2" t="n">
         <v>42.3</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="IS71" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55175,8 +55601,14 @@
       <c r="IQ72" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="2" t="n">
         <v>45.25</v>
+      </c>
+      <c r="IS72" s="2" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55935,8 +56367,14 @@
       <c r="IQ73" s="2" t="n">
         <v>13.96</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="2" t="n">
         <v>24.13</v>
+      </c>
+      <c r="IS73" s="2" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>27.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56695,8 +57133,14 @@
       <c r="IQ74" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IS74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57455,8 +57899,14 @@
       <c r="IQ75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IS75" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58215,8 +58665,14 @@
       <c r="IQ76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58975,8 +59431,14 @@
       <c r="IQ77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IS77" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59735,8 +60197,14 @@
       <c r="IQ78" s="2" t="n">
         <v>1.92</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="2" t="n">
         <v>2.93</v>
+      </c>
+      <c r="IS78" s="2" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60495,8 +60963,14 @@
       <c r="IQ79" s="2" t="n">
         <v>4.55</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="IS79" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61255,8 +61729,14 @@
       <c r="IQ80" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="2" t="n">
         <v>34.1</v>
+      </c>
+      <c r="IS80" s="2" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62015,8 +62495,14 @@
       <c r="IQ81" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IS81" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62775,8 +63261,14 @@
       <c r="IQ82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IS82" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63535,8 +64027,14 @@
       <c r="IQ83" s="2" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IS83" s="2" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64295,8 +64793,14 @@
       <c r="IQ84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IS84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65055,8 +65559,14 @@
       <c r="IQ85" s="2" t="n">
         <v>89.3</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="2" t="n">
         <v>98.8</v>
+      </c>
+      <c r="IS85" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65815,8 +66325,14 @@
       <c r="IQ86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66575,8 +67091,14 @@
       <c r="IQ87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67335,8 +67857,14 @@
       <c r="IQ88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68095,8 +68623,14 @@
       <c r="IQ89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IS89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68855,8 +69389,14 @@
       <c r="IQ90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="IS90" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69615,8 +70155,14 @@
       <c r="IQ91" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IS91" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70375,8 +70921,14 @@
       <c r="IQ92" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="IS92" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71135,8 +71687,14 @@
       <c r="IQ93" s="2" t="n">
         <v>70.8</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IS93" s="2" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71895,8 +72453,14 @@
       <c r="IQ94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IS94" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72655,8 +73219,14 @@
       <c r="IQ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IS95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73415,8 +73985,14 @@
       <c r="IQ96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74175,8 +74751,14 @@
       <c r="IQ97" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IS97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74935,8 +75517,14 @@
       <c r="IQ98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75695,8 +76283,14 @@
       <c r="IQ99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IS99" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76455,8 +77049,14 @@
       <c r="IQ100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77215,8 +77815,14 @@
       <c r="IQ101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IS101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77975,8 +78581,14 @@
       <c r="IQ102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="2" t="n">
         <v>37.5</v>
+      </c>
+      <c r="IS102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
